--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A150732A-3720-4504-8773-B7D6C7BA865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38A6B79-64D1-471F-B302-83244C7305B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
+    <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="151">
   <si>
     <t>UC_N</t>
   </si>
@@ -75,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -268,6 +253,246 @@
   </si>
   <si>
     <t>timeslice</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>wparent</t>
+  </si>
+  <si>
+    <t>dparent</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>S1,S2,S3,S4,S5</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>S1aH1</t>
+  </si>
+  <si>
+    <t>elc_sol-ITA</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>S1aH2</t>
+  </si>
+  <si>
+    <t>S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH4</t>
+  </si>
+  <si>
+    <t>S1aH5</t>
+  </si>
+  <si>
+    <t>S1aH6</t>
+  </si>
+  <si>
+    <t>S1aH7</t>
+  </si>
+  <si>
+    <t>S1aH8</t>
+  </si>
+  <si>
+    <t>S2aH1</t>
+  </si>
+  <si>
+    <t>S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH4</t>
+  </si>
+  <si>
+    <t>S2aH5</t>
+  </si>
+  <si>
+    <t>S2aH6</t>
+  </si>
+  <si>
+    <t>S2aH7</t>
+  </si>
+  <si>
+    <t>S2aH8</t>
+  </si>
+  <si>
+    <t>S3aH1</t>
+  </si>
+  <si>
+    <t>S3aH2</t>
+  </si>
+  <si>
+    <t>S3aH3</t>
+  </si>
+  <si>
+    <t>S3aH4</t>
+  </si>
+  <si>
+    <t>S3aH5</t>
+  </si>
+  <si>
+    <t>S3aH6</t>
+  </si>
+  <si>
+    <t>S3aH7</t>
+  </si>
+  <si>
+    <t>S3aH8</t>
+  </si>
+  <si>
+    <t>S4aH1</t>
+  </si>
+  <si>
+    <t>S4aH2</t>
+  </si>
+  <si>
+    <t>S4aH3</t>
+  </si>
+  <si>
+    <t>S4aH4</t>
+  </si>
+  <si>
+    <t>S4aH5</t>
+  </si>
+  <si>
+    <t>S4aH6</t>
+  </si>
+  <si>
+    <t>S4aH7</t>
+  </si>
+  <si>
+    <t>S4aH8</t>
+  </si>
+  <si>
+    <t>S5aH1</t>
+  </si>
+  <si>
+    <t>S5aH2</t>
+  </si>
+  <si>
+    <t>S5aH3</t>
+  </si>
+  <si>
+    <t>S5aH4</t>
+  </si>
+  <si>
+    <t>S5aH5</t>
+  </si>
+  <si>
+    <t>S5aH6</t>
+  </si>
+  <si>
+    <t>S5aH7</t>
+  </si>
+  <si>
+    <t>S5aH8</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>elc_win-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>S1aH4,S2aH2,S3aH2,S3aH3,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5aH4,S1aH3,S3aH5,S5aH3,S3aH4,S4aH3,S4aH4,S4aH5,S4aH2</t>
+  </si>
+  <si>
+    <t>S4aH8,S1aH1,S2aH7,S4aH1,S3aH8,S4aH6,S1aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH8,S5aH1,S2aH8,S2aH6,S3aH1,S2aH1,S3aH7,S5aH8</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -744,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -760,13 +985,13 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -780,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -795,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -803,21 +1028,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>S4aH8,S1aH1,S2aH7,S4aH1,S3aH8,S4aH6,S1aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH8,S5aH1,S2aH8,S2aH6,S3aH1,S2aH1,S3aH7,S5aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -835,21 +1060,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>S1aH4,S2aH2,S3aH2,S3aH3,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5aH4,S1aH3,S3aH5,S5aH3,S3aH4,S4aH3,S4aH4,S4aH5,S4aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -861,26 +1086,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -908,553 +1133,3593 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF254FA-A496-4720-97CA-89CEBA41A707}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F455B98B-057F-4E65-8770-55D54CCE6FFE}">
+  <dimension ref="B2:O43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4">
+        <v>4.0774999999999999E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4">
+        <v>0.14770939379916706</v>
+      </c>
+      <c r="O4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>8.8889999999999998E-5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5">
+        <v>5.3729999999999993E-3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5">
+        <v>0.45489356779268852</v>
+      </c>
+      <c r="O5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>2.2627109999999999E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>1.4475999999999999E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6">
+        <v>7.7845904673762151E-2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>3.1515769999999999E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>2.1163000000000001E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7">
+        <v>0.13802637667746412</v>
+      </c>
+      <c r="O7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>6.8002030000000005E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8">
+        <v>7.1017999999999998E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8">
+        <v>0.38152475705691813</v>
+      </c>
+      <c r="O8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <v>2.6397600000000001E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9">
+        <v>1.0756E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10">
+        <v>1.1674E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11">
+        <v>3.3270000000000001E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>1.378014E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12">
+        <v>6.4889000000000002E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>2.2232410000000001E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13">
+        <v>9.8399999999999998E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14">
+        <v>6.1518330000000003E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14">
+        <v>3.3799000000000003E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15">
+        <v>6.7698190000000005E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15">
+        <v>5.2359999999999997E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16">
+        <v>0.15982843999999999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16">
+        <v>0.17358999999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>2.2495669999999999E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17">
+        <v>2.5507999999999999E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>1.179971E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18">
+        <v>2.0265999999999999E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>2.4689500000000001E-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19">
+        <v>4.6764E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20">
+        <v>6.9502299999999999E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20">
+        <v>1.0950000000000001E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>8.8978100000000008E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21">
+        <v>1.4E-5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>2.1362920000000001E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22">
+        <v>1.08E-4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23">
+        <v>2.2302309999999999E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23">
+        <v>8.3600000000000005E-4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24">
+        <v>5.0535759999999999E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24">
+        <v>1.8824E-2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25">
+        <v>7.6808800000000002E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25">
+        <v>3.3969999999999998E-3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26">
+        <v>5.4394600000000001E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26">
+        <v>1.915E-3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>1.8646700000000001E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27">
+        <v>1.9039999999999999E-3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28">
+        <v>5.3654999999999996E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28">
+        <v>4.8161000000000002E-2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29">
+        <v>1.8131049999999999E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29">
+        <v>5.5269999999999998E-3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30">
+        <v>5.9624789999999997E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30">
+        <v>1.5792E-2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>6.9100110000000006E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31">
+        <v>2.8983999999999999E-2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32">
+        <v>0.15711573000000001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32">
+        <v>9.9659999999999999E-2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33">
+        <v>1.427003E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33">
+        <v>1.4661E-2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34">
+        <v>5.76283E-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34">
+        <v>1.1509999999999999E-2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35">
+        <v>8.2800000000000003E-6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35">
+        <v>3.4647999999999998E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>138</v>
+      </c>
+      <c r="K35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36">
+        <v>2.1659999999999999E-2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37">
+        <v>2.5929999999999998E-3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38">
+        <v>1.024945E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38">
+        <v>5.4539999999999996E-3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39">
+        <v>1.5962420000000001E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39">
+        <v>5.7080000000000004E-3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40">
+        <v>3.2680319999999999E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40">
+        <v>2.0205000000000001E-2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>138</v>
+      </c>
+      <c r="K40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41">
+        <v>2.849E-3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42">
+        <v>2.9480000000000001E-3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>138</v>
+      </c>
+      <c r="K42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" t="s">
+        <v>136</v>
+      </c>
+      <c r="I43">
+        <v>1.3637999999999999E-2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>138</v>
+      </c>
+      <c r="K43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE25A5A5-1BB1-49E6-89D1-5CF19766AECA}">
+  <dimension ref="B2:O83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>5.3881278538812784E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.9864505382492607E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4">
+        <v>4.9413150019647384E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4">
+        <v>0.30170207507267222</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C5">
+        <v>8.6053584599192871E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5">
+        <v>8.3943858858496045E-3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5">
+        <v>4.7484009459135335E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>1.3470319634703196E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.6839121895432966E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6">
+        <v>1.700531767651765E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <v>4.824655587311355E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>1.3470319634703196E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.6702218465388795E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>1.6777383906641918E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>6.0317454394499759E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>3.3675799086757989E-2</v>
+      </c>
+      <c r="C8">
+        <v>5.4037739601720411E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8">
+        <v>4.2415004863410904E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8">
+        <v>7.7866629521058162E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.016996908899552E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9">
+        <v>8.8413511413772579E-3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9">
+        <v>4.0331772644039976E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C10">
+        <v>9.1920874458228732E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10">
+        <v>8.5385270462681635E-3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10">
+        <v>3.0789916534887052E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>2.6940639269406392E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.623283527666592E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11">
+        <v>2.8553373673719802E-2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11">
+        <v>0.109785485062313</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>0.11141552511415526</v>
+      </c>
+      <c r="C12">
+        <v>6.1753722994306731E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12">
+        <v>9.0904601496028622E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12">
+        <v>0.39609048684121051</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.7794131052714456E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13">
+        <v>1.4801270832185959E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13">
+        <v>0.17260864196062009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.4819879173607154E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14">
+        <v>2.9861072108283881E-2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14">
+        <v>0.16771535784982539</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.4536790725041226E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15">
+        <v>2.9646906653991761E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15">
+        <v>0.1682397095214816</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>6.9634703196347028E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.11173905476965917</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16">
+        <v>7.3928865615248154E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16">
+        <v>0.19323961229369258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.1029427607753434E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17">
+        <v>1.5030507466939664E-2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17">
+        <v>0.18025049028347295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.9007367260854072E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18">
+        <v>1.4913767770150556E-2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18">
+        <v>0.15800839499366748</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.3566201758529535E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19">
+        <v>5.1929529158049881E-2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19">
+        <v>0.19990108030983977</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>2.8310502283105023E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.5691519777241876E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20">
+        <v>2.3847087699625354E-2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20">
+        <v>0.29079453954855983</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C21">
+        <v>4.521459529788099E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21">
+        <v>3.9226118087310096E-3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21">
+        <v>7.4383366010698726E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C22">
+        <v>8.8476742162444406E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22">
+        <v>8.0528034089415845E-3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" t="s">
+        <v>115</v>
+      </c>
+      <c r="O22">
+        <v>6.822201466584521E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C23">
+        <v>8.775741905543262E-3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23">
+        <v>8.1706582379173116E-3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23">
+        <v>7.2534412655806291E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>1.7694063926940638E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.8392710638192088E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24">
+        <v>2.0148281192040179E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24">
+        <v>8.0585218842956552E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C25">
+        <v>5.3435430806586613E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25">
+        <v>3.969488661761114E-3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25">
+        <v>6.0510923392422367E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C26">
+        <v>4.8297408613645603E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26">
+        <v>3.9291786982744333E-3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26">
+        <v>6.5424670864874468E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>1.4155251141552512E-2</v>
+      </c>
+      <c r="C27">
+        <v>8.5291168402820937E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27">
+        <v>1.4304428038648183E-2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27">
+        <v>0.16837934519996667</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>0.11141552511415526</v>
+      </c>
+      <c r="C28">
+        <v>6.1753722994306731E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28">
+        <v>9.0201913914656887E-2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28">
+        <v>0.3257378459195408</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.7794131052714456E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29">
+        <v>1.458652054518594E-2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" t="s">
+        <v>122</v>
+      </c>
+      <c r="O29">
+        <v>0.13113733252573989</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.4819879173607154E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30">
+        <v>2.9773057299849567E-2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30">
+        <v>0.13375718145694071</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C31">
+        <v>3.4536790725041226E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31">
+        <v>2.9841001515502973E-2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31">
+        <v>0.12830972920522465</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>6.9634703196347028E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.11173905476965917</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32">
+        <v>7.4324036133024088E-2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" t="s">
+        <v>125</v>
+      </c>
+      <c r="O32">
+        <v>0.16794411000882747</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.1029427607753434E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33">
+        <v>1.494214258241032E-2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
+        <v>126</v>
+      </c>
+      <c r="O33">
+        <v>0.16530699032086882</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C34">
+        <v>1.9007367260854072E-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34">
+        <v>1.4815325394749541E-2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34">
+        <v>0.12381007042058645</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C35">
+        <v>3.3566201758529535E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35">
+        <v>5.2827105256473848E-2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35">
+        <v>0.18969821164223233</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>2.8310502283105023E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.5691519777241876E-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36">
+        <v>2.5278796395052556E-2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>129</v>
+      </c>
+      <c r="O36">
+        <v>0.3018567715645406</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C37">
+        <v>4.521459529788099E-3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37">
+        <v>4.2866483841047468E-3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" t="s">
+        <v>130</v>
+      </c>
+      <c r="O37">
+        <v>5.8368729564079569E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C38">
+        <v>8.8476742162444406E-3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38">
+        <v>8.6358981114670781E-3</v>
+      </c>
+      <c r="M38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" t="s">
+        <v>131</v>
+      </c>
+      <c r="O38">
+        <v>6.3279503760392153E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C39">
+        <v>8.775741905543262E-3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39">
+        <v>8.4215374151759489E-3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" t="s">
+        <v>132</v>
+      </c>
+      <c r="O39">
+        <v>6.5636106328051946E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>1.7694063926940638E-2</v>
+      </c>
+      <c r="C40">
+        <v>2.8392710638192088E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40">
+        <v>2.1316051665275386E-2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" t="s">
+        <v>133</v>
+      </c>
+      <c r="O40">
+        <v>8.7961716292424663E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C41">
+        <v>5.3435430806586613E-3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41">
+        <v>4.5114770552655533E-3</v>
+      </c>
+      <c r="M41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" t="s">
+        <v>134</v>
+      </c>
+      <c r="O41">
+        <v>4.44627304048415E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C42">
+        <v>4.8297408613645603E-3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42">
+        <v>4.3715673897100236E-3</v>
+      </c>
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" t="s">
+        <v>135</v>
+      </c>
+      <c r="O42">
+        <v>3.5079218054054673E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>1.4155251141552512E-2</v>
+      </c>
+      <c r="C43">
+        <v>8.5291168402820937E-3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43">
+        <v>1.4567367881845251E-2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>136</v>
+      </c>
+      <c r="O43">
+        <v>0.11194355190956351</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H44" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44">
+        <v>5.3084237148893397E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H45" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45">
+        <v>6.8128512704278962E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46">
+        <v>1.3643016669286061E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H47" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>1.3624792013555292E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48">
+        <v>3.4099682858947933E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49">
+        <v>6.8485887915071438E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H50" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" t="s">
+        <v>103</v>
+      </c>
+      <c r="J50">
+        <v>6.8243762104431196E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H51" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51">
+        <v>2.6849692925335147E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H52" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52">
+        <v>0.11009359446781739</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53">
+        <v>1.4036603426470031E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H54" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54">
+        <v>2.8093877894088494E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H55" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55">
+        <v>2.8076754096785336E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H56" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56">
+        <v>7.0176821463893937E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H57" t="s">
+        <v>145</v>
+      </c>
+      <c r="I57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J57">
+        <v>1.4054932253969107E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H58" t="s">
+        <v>145</v>
+      </c>
+      <c r="I58" t="s">
+        <v>111</v>
+      </c>
+      <c r="J58">
+        <v>1.4045598223363393E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H59" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" t="s">
+        <v>112</v>
+      </c>
+      <c r="J59">
+        <v>5.5564690032008805E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H60" t="s">
+        <v>145</v>
+      </c>
+      <c r="I60" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60">
+        <v>2.7919657774016834E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I61" t="s">
+        <v>114</v>
+      </c>
+      <c r="J61">
+        <v>3.5652537842164418E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H62" t="s">
+        <v>145</v>
+      </c>
+      <c r="I62" t="s">
+        <v>115</v>
+      </c>
+      <c r="J62">
+        <v>7.1471048029648366E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H63" t="s">
+        <v>145</v>
+      </c>
+      <c r="I63" t="s">
+        <v>116</v>
+      </c>
+      <c r="J63">
+        <v>7.1565279949976019E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H64" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" t="s">
+        <v>117</v>
+      </c>
+      <c r="J64">
+        <v>1.7869063103792035E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H65" t="s">
+        <v>145</v>
+      </c>
+      <c r="I65" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65">
+        <v>3.5690018664276965E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J66">
+        <v>3.5657788459535246E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H67" t="s">
+        <v>145</v>
+      </c>
+      <c r="I67" t="s">
+        <v>120</v>
+      </c>
+      <c r="J67">
+        <v>1.4150194688004086E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H68" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" t="s">
+        <v>121</v>
+      </c>
+      <c r="J68">
+        <v>0.11003032894153919</v>
+      </c>
+    </row>
+    <row r="69" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H69" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" t="s">
+        <v>122</v>
+      </c>
+      <c r="J69">
+        <v>1.4018547682109401E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H70" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" t="s">
+        <v>123</v>
+      </c>
+      <c r="J70">
+        <v>2.8085070216109214E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H71" t="s">
+        <v>145</v>
+      </c>
+      <c r="I71" t="s">
+        <v>124</v>
+      </c>
+      <c r="J71">
+        <v>2.8090502758816051E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H72" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" t="s">
+        <v>125</v>
+      </c>
+      <c r="J72">
+        <v>7.0203991757650464E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" t="s">
+        <v>126</v>
+      </c>
+      <c r="J73">
+        <v>1.4046981771547846E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" t="s">
+        <v>127</v>
+      </c>
+      <c r="J74">
+        <v>1.4036841985823589E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H75" t="s">
+        <v>145</v>
+      </c>
+      <c r="I75" t="s">
+        <v>128</v>
+      </c>
+      <c r="J75">
+        <v>5.5632915815616614E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H76" t="s">
+        <v>145</v>
+      </c>
+      <c r="I76" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76">
+        <v>2.7912858509718089E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H77" t="s">
+        <v>145</v>
+      </c>
+      <c r="I77" t="s">
+        <v>130</v>
+      </c>
+      <c r="J77">
+        <v>3.5792015584238993E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H78" t="s">
+        <v>145</v>
+      </c>
+      <c r="I78" t="s">
+        <v>131</v>
+      </c>
+      <c r="J78">
+        <v>7.1634084652425324E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H79" t="s">
+        <v>145</v>
+      </c>
+      <c r="I79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J79">
+        <v>7.1462690571844666E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H80" t="s">
+        <v>145</v>
+      </c>
+      <c r="I80" t="s">
+        <v>133</v>
+      </c>
+      <c r="J80">
+        <v>1.7886637736694772E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H81" t="s">
+        <v>145</v>
+      </c>
+      <c r="I81" t="s">
+        <v>134</v>
+      </c>
+      <c r="J81">
+        <v>3.5971779431103182E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I82" t="s">
+        <v>135</v>
+      </c>
+      <c r="J82">
+        <v>3.5859913361869712E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H83" t="s">
+        <v>145</v>
+      </c>
+      <c r="I83" t="s">
+        <v>136</v>
+      </c>
+      <c r="J83">
+        <v>1.411058185706111E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE8DDA9-8ED8-4D54-9E4E-FF2444470079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69C5867-29D3-4C43-B833-6F3F3C1AE0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0318h14,S3aH2,S4c0909h12,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S3aH3,S4c0909h16,S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4c0909h08,S6d1115h08,S4aH2,S6d1115h07,S6d1115h15,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH3,S4c0909h14,S6d1115h09,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S6d1115h11</t>
-  </si>
-  <si>
-    <t>S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h04,S4aH8,S4c0909h05,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH6,S4c0909h02,S6d1115h06,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S6d1115h02,S6d1115h22,S6d1115h23,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6aH8,S1b0318h21,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20</t>
+    <t>S4aH2,S6d1115h07,S6d1115h15,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4c0909h08,S6d1115h08,S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1b0318h10,S3aH3,S4c0909h16,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h14,S3aH2,S4c0909h12,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18</t>
+  </si>
+  <si>
+    <t>S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S6d1115h06,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S6aH8,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1b0318h21,S1aH6,S4c0909h02,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h04,S4aH8,S4c0909h05,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH6,S4c0909h02,S6d1115h06,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S6d1115h02,S6d1115h22,S6d1115h23,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6aH8,S1b0318h21,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20</v>
+        <v>S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S6d1115h06,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S6aH8,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1b0318h21,S1aH6,S4c0909h02,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0318h14,S3aH2,S4c0909h12,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S3aH3,S4c0909h16,S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4c0909h08,S6d1115h08,S4aH2,S6d1115h07,S6d1115h15,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH3,S4c0909h14,S6d1115h09,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S6d1115h11</v>
+        <v>S4aH2,S6d1115h07,S6d1115h15,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4c0909h08,S6d1115h08,S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1b0318h10,S3aH3,S4c0909h16,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h14,S3aH2,S4c0909h12,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F981A35A-1251-43D5-9F6D-8E9572CCE45A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E83548-7D24-4153-9F00-316021126006}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21AC614-4EFC-44AF-8567-0A949759115E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912B446D-27B7-4E31-9AC8-CBF5795EABBF}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.31582600647848219</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>8.8500694123091153E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.4043961129106895</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N9">
-        <v>9.3706617306802395E-2</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E95B3C-7F1B-4BA0-9485-2434D95E0B12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0268D2D-16E0-4515-B77A-683D0884AF9F}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69C5867-29D3-4C43-B833-6F3F3C1AE0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A0E0B3-F2D9-4C10-AC67-51F8398371A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH2,S6d1115h07,S6d1115h15,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4c0909h08,S6d1115h08,S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1b0318h10,S3aH3,S4c0909h16,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h14,S3aH2,S4c0909h12,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18</t>
-  </si>
-  <si>
-    <t>S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S6d1115h06,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S6aH8,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1b0318h21,S1aH6,S4c0909h02,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24</t>
+    <t>S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S1aH2,S2aH3,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S4c0909h08,S6d1115h08,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3</t>
+  </si>
+  <si>
+    <t>S6d1115h06,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S6d1115h06,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S6aH8,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1b0318h21,S1aH6,S4c0909h02,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24</v>
+        <v>S6d1115h06,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH2,S6d1115h07,S6d1115h15,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4c0909h08,S6d1115h08,S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1b0318h10,S3aH3,S4c0909h16,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h14,S3aH2,S4c0909h12,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18</v>
+        <v>S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S1aH2,S2aH3,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S4c0909h08,S6d1115h08,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E83548-7D24-4153-9F00-316021126006}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02F953-7A56-409D-A11A-E6A0B8082A5B}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912B446D-27B7-4E31-9AC8-CBF5795EABBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4321E20-4B23-49FC-B21F-5346FB6DD1B5}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.13490282276723739</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N5">
-        <v>9.3706617306802395E-2</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3018,7 +3018,7 @@
         <v>82</v>
       </c>
       <c r="N6">
-        <v>0.40439611291068944</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.31582600647848219</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.16266774641369736</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>8.8500694123091153E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0268D2D-16E0-4515-B77A-683D0884AF9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73D0B53-762A-4683-8E6B-5AC7225E2C07}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A0E0B3-F2D9-4C10-AC67-51F8398371A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9EB6B-6041-4BF8-AC10-BEC3D78C1487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S1aH2,S2aH3,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S4c0909h08,S6d1115h08,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3</t>
-  </si>
-  <si>
-    <t>S6d1115h06,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03</t>
+    <t>S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4c0909h08,S6d1115h08,S1b0318h14,S3aH2,S4c0909h12,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10</t>
+  </si>
+  <si>
+    <t>S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h04,S4aH8,S4c0909h05,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S6d1115h06,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h21,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6d1115h02,S6d1115h22,S6d1115h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S6d1115h06,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03</v>
+        <v>S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h04,S4aH8,S4c0909h05,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S6d1115h06,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h21,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6d1115h02,S6d1115h22,S6d1115h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S1aH2,S2aH3,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S4c0909h08,S6d1115h08,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3</v>
+        <v>S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4c0909h08,S6d1115h08,S1b0318h14,S3aH2,S4c0909h12,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02F953-7A56-409D-A11A-E6A0B8082A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A175901-964A-416C-8147-AFAF141A9B13}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4321E20-4B23-49FC-B21F-5346FB6DD1B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692438C-0B0A-417E-B853-6D4318E88D10}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>0.13490282276723739</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>9.3706617306802395E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>0.31582600647848219</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73D0B53-762A-4683-8E6B-5AC7225E2C07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA46E55F-BB5B-4A3C-9203-E97E5AA488A2}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9EB6B-6041-4BF8-AC10-BEC3D78C1487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A8C830-2616-4CBB-9E20-89B5425B4764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4c0909h08,S6d1115h08,S1b0318h14,S3aH2,S4c0909h12,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10</t>
-  </si>
-  <si>
-    <t>S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h04,S4aH8,S4c0909h05,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S6d1115h06,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h21,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6d1115h02,S6d1115h22,S6d1115h23</t>
+    <t>S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S6d1115h11,S1aH3,S4c0909h14,S6d1115h09,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4c0909h08,S6d1115h08</t>
+  </si>
+  <si>
+    <t>S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S6aH8,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h06,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S1aH6,S4c0909h02,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h04,S4aH8,S4c0909h05,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S6d1115h06,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h21,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6d1115h02,S6d1115h22,S6d1115h23</v>
+        <v>S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S6aH8,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h06,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S1aH6,S4c0909h02,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4c0909h08,S6d1115h08,S1b0318h14,S3aH2,S4c0909h12,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10</v>
+        <v>S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S6d1115h11,S1aH3,S4c0909h14,S6d1115h09,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4c0909h08,S6d1115h08</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A175901-964A-416C-8147-AFAF141A9B13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F62CE39-F917-48D8-A47D-D65802EE5DBE}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692438C-0B0A-417E-B853-6D4318E88D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9394256D-359E-4D58-8AC2-B0A1948E722F}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.16266774641369736</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>8.8500694123091153E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N6">
-        <v>0.4043961129106895</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N9">
-        <v>0.13490282276723739</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA46E55F-BB5B-4A3C-9203-E97E5AA488A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F84A88-AEF2-4D7F-9B35-E42D42543264}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A8C830-2616-4CBB-9E20-89B5425B4764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CD966-20EE-4268-B380-E4D59D23E256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S6d1115h11,S1aH3,S4c0909h14,S6d1115h09,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4c0909h08,S6d1115h08</t>
-  </si>
-  <si>
-    <t>S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S6aH8,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h06,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S1aH6,S4c0909h02,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</t>
+    <t>S1b0318h10,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4c0909h08,S6d1115h08,S6d1115h11,S1aH2,S2aH3,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S3aH3,S4c0909h16,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH2,S6d1115h07,S6d1115h15,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h14,S3aH2,S4c0909h12,S1aH3,S4c0909h14,S6d1115h09,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18</t>
+  </si>
+  <si>
+    <t>S6aH8,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h21,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h04,S4aH8,S4c0909h05,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1aH6,S4c0909h02,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S6d1115h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S6aH8,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h06,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S1aH6,S4c0909h02,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</v>
+        <v>S6aH8,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h21,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h04,S4aH8,S4c0909h05,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1aH6,S4c0909h02,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S6d1115h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S6d1115h11,S1aH3,S4c0909h14,S6d1115h09,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4c0909h08,S6d1115h08</v>
+        <v>S1b0318h10,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4c0909h08,S6d1115h08,S6d1115h11,S1aH2,S2aH3,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S3aH3,S4c0909h16,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH2,S6d1115h07,S6d1115h15,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h14,S3aH2,S4c0909h12,S1aH3,S4c0909h14,S6d1115h09,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F62CE39-F917-48D8-A47D-D65802EE5DBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD39FDD-3DA1-49DB-8390-DC09D6FE117E}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9394256D-359E-4D58-8AC2-B0A1948E722F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38616F0D-F290-4548-958A-04E79DEA92B0}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N4">
-        <v>0.13490282276723739</v>
+        <v>8.8500694123091125E-2</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2983,7 +2983,7 @@
         <v>82</v>
       </c>
       <c r="N5">
-        <v>0.40439611291068944</v>
+        <v>0.40439611291068939</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>0.13490282276723736</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3053,7 +3053,7 @@
         <v>84</v>
       </c>
       <c r="N7">
-        <v>9.3706617306802395E-2</v>
+        <v>9.3706617306802381E-2</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3088,7 +3088,7 @@
         <v>76</v>
       </c>
       <c r="N8">
-        <v>0.31582600647848219</v>
+        <v>0.31582600647848208</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>8.8500694123091153E-2</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F84A88-AEF2-4D7F-9B35-E42D42543264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46479260-3341-4996-B39D-BC82D71D33FE}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CD966-20EE-4268-B380-E4D59D23E256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF44EB3-9749-4208-9F72-023EF96AB6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0318h10,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4c0909h08,S6d1115h08,S6d1115h11,S1aH2,S2aH3,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S3aH3,S4c0909h16,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH2,S6d1115h07,S6d1115h15,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h14,S3aH2,S4c0909h12,S1aH3,S4c0909h14,S6d1115h09,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18</t>
-  </si>
-  <si>
-    <t>S6aH8,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h21,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h04,S4aH8,S4c0909h05,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1aH6,S4c0909h02,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S6d1115h06</t>
+    <t>S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S6d1115h11,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S4c0909h08,S6d1115h08</t>
+  </si>
+  <si>
+    <t>S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S1aH6,S4c0909h02,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h04,S4aH8,S4c0909h05,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S6d1115h06,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S1b0318h21,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S6aH8,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h21,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h04,S4aH8,S4c0909h05,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1aH6,S4c0909h02,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S6d1115h06</v>
+        <v>S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S1aH6,S4c0909h02,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h04,S4aH8,S4c0909h05,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S6d1115h06,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S1b0318h21,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0318h10,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S4c0909h08,S6d1115h08,S6d1115h11,S1aH2,S2aH3,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S3aH3,S4c0909h16,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH2,S6d1115h07,S6d1115h15,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h14,S3aH2,S4c0909h12,S1aH3,S4c0909h14,S6d1115h09,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18</v>
+        <v>S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S6d1115h11,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S4c0909h08,S6d1115h08</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD39FDD-3DA1-49DB-8390-DC09D6FE117E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273B9A6F-CC3A-4D5A-A7B3-FCEDE3CD3CC4}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38616F0D-F290-4548-958A-04E79DEA92B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BAF4D8-F4AF-492B-989D-CCE5567DA8FB}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>8.8500694123091125E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.40439611291068939</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.13490282276723736</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>9.3706617306802381E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>0.31582600647848208</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46479260-3341-4996-B39D-BC82D71D33FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079C8064-3831-454A-ABB8-F0D560CDBC3E}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF44EB3-9749-4208-9F72-023EF96AB6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD209A8-6D29-492F-9945-84F9A0F17E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S6d1115h11,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S4c0909h08,S6d1115h08</t>
-  </si>
-  <si>
-    <t>S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S1aH6,S4c0909h02,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h04,S4aH8,S4c0909h05,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S6d1115h06,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S1b0318h21,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</t>
+    <t>S1b0318h14,S3aH2,S4c0909h12,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1aH3,S4c0909h14,S6d1115h09,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S4c0909h08,S6d1115h08,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S3aH3,S4c0909h16,S4aH2,S6d1115h07,S6d1115h15,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH2,S2aH3,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3</t>
+  </si>
+  <si>
+    <t>S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h21,S1aH6,S4c0909h02,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S6d1115h06,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S1aH6,S4c0909h02,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h04,S4aH8,S4c0909h05,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S6d1115h06,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S1b0318h21,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</v>
+        <v>S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h21,S1aH6,S4c0909h02,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S6d1115h06,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S6d1115h11,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S3aH3,S4c0909h16,S1b0318h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S4c0909h08,S6d1115h08</v>
+        <v>S1b0318h14,S3aH2,S4c0909h12,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1aH3,S4c0909h14,S6d1115h09,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S4c0909h08,S6d1115h08,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S3aH3,S4c0909h16,S4aH2,S6d1115h07,S6d1115h15,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH2,S2aH3,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273B9A6F-CC3A-4D5A-A7B3-FCEDE3CD3CC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14F91E2-9886-4804-B2BF-C2D5071C175E}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BAF4D8-F4AF-492B-989D-CCE5567DA8FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D333AC1-2790-4B7B-806C-CC654EAC7A49}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>0.13490282276723739</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>9.3706617306802395E-2</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.31582600647848219</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>8.8500694123091153E-2</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.16266774641369736</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079C8064-3831-454A-ABB8-F0D560CDBC3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0EB673-43D0-4398-B958-4A71A7305517}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD209A8-6D29-492F-9945-84F9A0F17E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52B782B-01E2-4E15-9742-4C567C7FFB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0318h14,S3aH2,S4c0909h12,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1aH3,S4c0909h14,S6d1115h09,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S4c0909h08,S6d1115h08,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S3aH3,S4c0909h16,S4aH2,S6d1115h07,S6d1115h15,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH2,S2aH3,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3</t>
-  </si>
-  <si>
-    <t>S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h21,S1aH6,S4c0909h02,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S6d1115h06,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03</t>
+    <t>S1b0318h14,S3aH2,S4c0909h12,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4c0909h08,S6d1115h08,S4aH2,S6d1115h07,S6d1115h15,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH3,S4c0909h14,S6d1115h09,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH2,S2aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2</t>
+  </si>
+  <si>
+    <t>S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h21,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S6d1115h06,S1aH6,S4c0909h02</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h21,S1aH6,S4c0909h02,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S6d1115h06,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03</v>
+        <v>S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h21,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S6d1115h06,S1aH6,S4c0909h02</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0318h14,S3aH2,S4c0909h12,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1aH3,S4c0909h14,S6d1115h09,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S4c0909h08,S6d1115h08,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S3aH3,S4c0909h16,S4aH2,S6d1115h07,S6d1115h15,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH2,S2aH3,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3</v>
+        <v>S1b0318h14,S3aH2,S4c0909h12,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4c0909h08,S6d1115h08,S4aH2,S6d1115h07,S6d1115h15,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH3,S4c0909h14,S6d1115h09,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH2,S2aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14F91E2-9886-4804-B2BF-C2D5071C175E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E437A9-E70C-4620-972C-3009183C6EC8}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D333AC1-2790-4B7B-806C-CC654EAC7A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DCC39B-A105-49EF-8EF5-7333961113E0}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.40439611291068944</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N5">
-        <v>0.16266774641369736</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>8.8500694123091153E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0EB673-43D0-4398-B958-4A71A7305517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A0DD91-48D8-4700-A797-F915635A2003}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52B782B-01E2-4E15-9742-4C567C7FFB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A507D68-9082-4CFA-8EAD-913458FC7385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0318h14,S3aH2,S4c0909h12,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4c0909h08,S6d1115h08,S4aH2,S6d1115h07,S6d1115h15,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH3,S4c0909h14,S6d1115h09,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH2,S2aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2</t>
-  </si>
-  <si>
-    <t>S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h21,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S6d1115h06,S1aH6,S4c0909h02</t>
+    <t>S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S3aH3,S4c0909h16,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S4c0909h08,S6d1115h08,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S6d1115h11</t>
+  </si>
+  <si>
+    <t>S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h04,S4aH8,S4c0909h05,S1b0318h21,S6d1115h06,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH6,S4c0909h02,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h21,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h04,S4aH8,S4c0909h05,S6d1115h06,S1aH6,S4c0909h02</v>
+        <v>S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h04,S4aH8,S4c0909h05,S1b0318h21,S6d1115h06,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH6,S4c0909h02,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0318h14,S3aH2,S4c0909h12,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4c0909h08,S6d1115h08,S4aH2,S6d1115h07,S6d1115h15,S6d1115h11,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH3,S4c0909h14,S6d1115h09,S3aH3,S4c0909h16,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH2,S2aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2</v>
+        <v>S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S3aH3,S4c0909h16,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S4c0909h08,S6d1115h08,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S6d1115h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E437A9-E70C-4620-972C-3009183C6EC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFF843-3C8F-4B13-B3FD-A5A882A5E522}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DCC39B-A105-49EF-8EF5-7333961113E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B9190B-CDBB-405A-A5AB-B3ACD96BEA33}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.16266774641369736</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>8.8500694123091153E-2</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>0.40439611291068944</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>0.13490282276723739</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>9.3706617306802395E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A0DD91-48D8-4700-A797-F915635A2003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1620D799-D8E8-4EA2-B5F4-28629CA1F3D4}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A507D68-9082-4CFA-8EAD-913458FC7385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE3469-B51B-416E-A0B4-4D40049C7A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -543,21 +543,21 @@
     <t>com_fr</t>
   </si>
   <si>
+    <t>process</t>
+  </si>
+  <si>
     <t>commodity</t>
   </si>
   <si>
-    <t>process</t>
-  </si>
-  <si>
     <t>S1aH1</t>
   </si>
   <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
     <t>elc_sol-ITA</t>
   </si>
   <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
     <t>S1aH2</t>
   </si>
   <si>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S3aH3,S4c0909h16,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S4c0909h08,S6d1115h08,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S6d1115h11</t>
-  </si>
-  <si>
-    <t>S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h04,S4aH8,S4c0909h05,S1b0318h21,S6d1115h06,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH6,S4c0909h02,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20</t>
+    <t>S1aH2,S2aH3,S3aH3,S4c0909h16,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1aH3,S4c0909h14,S6d1115h09,S4aH2,S6d1115h07,S6d1115h15,S6d1115h11,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4c0909h08,S6d1115h08,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h14,S3aH2,S4c0909h12</t>
+  </si>
+  <si>
+    <t>S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1aH6,S4c0909h02,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h21,S1b0318h04,S4aH8,S4c0909h05,S6d1115h06,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h04,S4aH8,S4c0909h05,S1b0318h21,S6d1115h06,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH6,S4c0909h02,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20</v>
+        <v>S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1aH6,S4c0909h02,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h21,S1b0318h04,S4aH8,S4c0909h05,S6d1115h06,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S4c0909h14,S6d1115h09,S1aH2,S2aH3,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S3aH3,S4c0909h16,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S4c0909h08,S6d1115h08,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1b0318h14,S3aH2,S4c0909h12,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S6d1115h11</v>
+        <v>S1aH2,S2aH3,S3aH3,S4c0909h16,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1aH3,S4c0909h14,S6d1115h09,S4aH2,S6d1115h07,S6d1115h15,S6d1115h11,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4c0909h08,S6d1115h08,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h14,S3aH2,S4c0909h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFF843-3C8F-4B13-B3FD-A5A882A5E522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04523D2-CAA3-4EC2-8556-66275CB9220F}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B9190B-CDBB-405A-A5AB-B3ACD96BEA33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F913A3-8C27-48A8-B1E7-4DDDD2A52255}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2939,16 +2939,16 @@
         <v>7.9672999999999994E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K4" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.40439611291068944</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2974,10 +2974,10 @@
         <v>1.0182999999999999E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K5" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="M5" t="s">
         <v>84</v>
@@ -3009,16 +3009,16 @@
         <v>1.4832999999999999E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K6" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>8.8500694123091153E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3044,10 +3044,10 @@
         <v>0.20507</v>
       </c>
       <c r="J7" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="M7" t="s">
         <v>87</v>
@@ -3079,16 +3079,16 @@
         <v>2.7425999999999999E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K8" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>0.13490282276723739</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3114,10 +3114,10 @@
         <v>2.299E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="M9" t="s">
         <v>76</v>
@@ -3149,10 +3149,10 @@
         <v>2.2040000000000001E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -3175,10 +3175,10 @@
         <v>6.5097000000000002E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K11" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -3201,10 +3201,10 @@
         <v>1.6739999999999999E-3</v>
       </c>
       <c r="J12" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
@@ -3227,10 +3227,10 @@
         <v>1.8799999999999999E-3</v>
       </c>
       <c r="J13" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
@@ -3253,10 +3253,10 @@
         <v>2.1549999999999998E-3</v>
       </c>
       <c r="J14" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
@@ -3279,10 +3279,10 @@
         <v>2.0939999999999999E-3</v>
       </c>
       <c r="J15" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
@@ -3305,10 +3305,10 @@
         <v>2.4559999999999998E-3</v>
       </c>
       <c r="J16" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -3331,10 +3331,10 @@
         <v>2.4559999999999998E-3</v>
       </c>
       <c r="J17" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -3357,10 +3357,10 @@
         <v>2.3410000000000002E-3</v>
       </c>
       <c r="J18" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -3383,10 +3383,10 @@
         <v>2.4559999999999998E-3</v>
       </c>
       <c r="J19" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.45">
@@ -3409,10 +3409,10 @@
         <v>2.3939999999999999E-3</v>
       </c>
       <c r="J20" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.45">
@@ -3435,10 +3435,10 @@
         <v>2.1549999999999998E-3</v>
       </c>
       <c r="J21" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">
@@ -3461,10 +3461,10 @@
         <v>2.0939999999999999E-3</v>
       </c>
       <c r="J22" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.45">
@@ -3487,10 +3487,10 @@
         <v>2.2790000000000002E-3</v>
       </c>
       <c r="J23" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
@@ -3513,10 +3513,10 @@
         <v>2.1549999999999998E-3</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
@@ -3539,10 +3539,10 @@
         <v>2.3939999999999999E-3</v>
       </c>
       <c r="J25" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
@@ -3565,10 +3565,10 @@
         <v>1.8339999999999999E-3</v>
       </c>
       <c r="J26" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K26" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
@@ -3591,10 +3591,10 @@
         <v>1.6199999999999999E-3</v>
       </c>
       <c r="J27" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K27" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
@@ -3617,10 +3617,10 @@
         <v>9.3999999999999997E-4</v>
       </c>
       <c r="J28" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K28" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.45">
@@ -3643,10 +3643,10 @@
         <v>5.6800000000000004E-4</v>
       </c>
       <c r="J29" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K29" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.45">
@@ -3669,10 +3669,10 @@
         <v>8.34E-4</v>
       </c>
       <c r="J30" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K30" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
@@ -3695,10 +3695,10 @@
         <v>8.34E-4</v>
       </c>
       <c r="J31" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
@@ -3721,10 +3721,10 @@
         <v>9.3999999999999997E-4</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
@@ -3747,10 +3747,10 @@
         <v>1.121E-3</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
@@ -3773,10 +3773,10 @@
         <v>9.3999999999999997E-4</v>
       </c>
       <c r="J34" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K34" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.45">
@@ -3799,10 +3799,10 @@
         <v>6.7100000000000005E-4</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K35" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.45">
@@ -3825,10 +3825,10 @@
         <v>6.842E-3</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K36" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
@@ -3851,10 +3851,10 @@
         <v>2.1950000000000003E-3</v>
       </c>
       <c r="J37" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K37" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
@@ -3877,10 +3877,10 @@
         <v>3.64E-3</v>
       </c>
       <c r="J38" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
@@ -3903,10 +3903,10 @@
         <v>6.4935000000000007E-2</v>
       </c>
       <c r="J39" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K39" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
@@ -3929,10 +3929,10 @@
         <v>1.0637000000000001E-2</v>
       </c>
       <c r="J40" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.45">
@@ -3955,10 +3955,10 @@
         <v>8.3940000000000004E-3</v>
       </c>
       <c r="J41" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K41" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.45">
@@ -3981,10 +3981,10 @@
         <v>6.3160000000000004E-3</v>
       </c>
       <c r="J42" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K42" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.45">
@@ -4007,10 +4007,10 @@
         <v>8.7559999999999999E-3</v>
       </c>
       <c r="J43" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K43" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.45">
@@ -4033,10 +4033,10 @@
         <v>3.2169999999999998E-3</v>
       </c>
       <c r="J44" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K44" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.45">
@@ -4059,10 +4059,10 @@
         <v>5.2099999999999998E-4</v>
       </c>
       <c r="J45" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.45">
@@ -4085,10 +4085,10 @@
         <v>6.6699999999999995E-4</v>
       </c>
       <c r="J46" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
@@ -4111,10 +4111,10 @@
         <v>5.2409999999999998E-2</v>
       </c>
       <c r="J47" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
@@ -4137,10 +4137,10 @@
         <v>1.4343E-2</v>
       </c>
       <c r="J48" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.45">
@@ -4163,10 +4163,10 @@
         <v>1.094E-2</v>
       </c>
       <c r="J49" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K49" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.45">
@@ -4189,10 +4189,10 @@
         <v>6.3619999999999996E-3</v>
       </c>
       <c r="J50" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K50" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.45">
@@ -4215,10 +4215,10 @@
         <v>5.2610000000000001E-3</v>
       </c>
       <c r="J51" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K51" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.45">
@@ -4241,10 +4241,10 @@
         <v>1.0709999999999999E-3</v>
       </c>
       <c r="J52" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K52" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.45">
@@ -4267,10 +4267,10 @@
         <v>5.5599999999999996E-4</v>
       </c>
       <c r="J53" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K53" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.45">
@@ -4293,10 +4293,10 @@
         <v>2.5249999999999999E-3</v>
       </c>
       <c r="J54" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K54" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.45">
@@ -4319,10 +4319,10 @@
         <v>3.3578999999999998E-2</v>
       </c>
       <c r="J55" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K55" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.45">
@@ -4345,10 +4345,10 @@
         <v>4.0569999999999998E-3</v>
       </c>
       <c r="J56" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.45">
@@ -4371,10 +4371,10 @@
         <v>2.382E-3</v>
       </c>
       <c r="J57" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K57" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.45">
@@ -4397,10 +4397,10 @@
         <v>1.1900000000000001E-3</v>
       </c>
       <c r="J58" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K58" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.45">
@@ -4423,10 +4423,10 @@
         <v>1.4010000000000001E-3</v>
       </c>
       <c r="J59" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K59" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.45">
@@ -4449,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K60" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.45">
@@ -4475,10 +4475,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.45">
@@ -4501,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.45">
@@ -4527,10 +4527,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K63" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.45">
@@ -4553,10 +4553,10 @@
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="J64" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K64" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.45">
@@ -4579,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K65" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.45">
@@ -4605,10 +4605,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K66" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.45">
@@ -4631,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K67" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.45">
@@ -4657,10 +4657,10 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K68" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.45">
@@ -4683,10 +4683,10 @@
         <v>4.1999999999999998E-5</v>
       </c>
       <c r="J69" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K69" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.45">
@@ -4709,10 +4709,10 @@
         <v>1.3999999999999999E-4</v>
       </c>
       <c r="J70" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K70" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.45">
@@ -4735,10 +4735,10 @@
         <v>3.0200000000000002E-4</v>
       </c>
       <c r="J71" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K71" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.45">
@@ -4761,10 +4761,10 @@
         <v>4.3399999999999998E-4</v>
       </c>
       <c r="J72" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K72" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.45">
@@ -4787,10 +4787,10 @@
         <v>5.9500000000000004E-4</v>
       </c>
       <c r="J73" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K73" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.45">
@@ -4813,10 +4813,10 @@
         <v>6.4800000000000003E-4</v>
       </c>
       <c r="J74" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K74" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.45">
@@ -4839,10 +4839,10 @@
         <v>4.3399999999999998E-4</v>
       </c>
       <c r="J75" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K75" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.45">
@@ -4865,10 +4865,10 @@
         <v>4.6099999999999998E-4</v>
       </c>
       <c r="J76" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K76" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.45">
@@ -4891,10 +4891,10 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="J77" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K77" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.45">
@@ -4917,10 +4917,10 @@
         <v>2.1699999999999999E-4</v>
       </c>
       <c r="J78" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K78" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.45">
@@ -4943,10 +4943,10 @@
         <v>8.7000000000000001E-5</v>
       </c>
       <c r="J79" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K79" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.45">
@@ -4969,10 +4969,10 @@
         <v>1.9000000000000001E-5</v>
       </c>
       <c r="J80" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K80" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.45">
@@ -4995,10 +4995,10 @@
         <v>3.4E-5</v>
       </c>
       <c r="J81" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K81" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.45">
@@ -5021,10 +5021,10 @@
         <v>2.8E-5</v>
       </c>
       <c r="J82" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K82" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.45">
@@ -5047,10 +5047,10 @@
         <v>2.0999999999999999E-5</v>
       </c>
       <c r="J83" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K83" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.45">
@@ -5073,10 +5073,10 @@
         <v>4.5700000000000003E-3</v>
       </c>
       <c r="J84" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K84" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.45">
@@ -5099,10 +5099,10 @@
         <v>8.3200000000000006E-4</v>
       </c>
       <c r="J85" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K85" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.45">
@@ -5125,10 +5125,10 @@
         <v>1.1949999999999999E-3</v>
       </c>
       <c r="J86" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K86" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.45">
@@ -5151,10 +5151,10 @@
         <v>1.5807000000000002E-2</v>
       </c>
       <c r="J87" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K87" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.45">
@@ -5177,10 +5177,10 @@
         <v>1.531E-3</v>
       </c>
       <c r="J88" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K88" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
@@ -5203,10 +5203,10 @@
         <v>9.4699999999999993E-4</v>
       </c>
       <c r="J89" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K89" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
@@ -5229,10 +5229,10 @@
         <v>6.8599999999999998E-4</v>
       </c>
       <c r="J90" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K90" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
@@ -5255,10 +5255,10 @@
         <v>2.5869999999999999E-3</v>
       </c>
       <c r="J91" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K91" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
@@ -5281,10 +5281,10 @@
         <v>6.3690999999999998E-2</v>
       </c>
       <c r="J92" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K92" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
@@ -5307,10 +5307,10 @@
         <v>6.6660000000000001E-3</v>
       </c>
       <c r="J93" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K93" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
@@ -5333,10 +5333,10 @@
         <v>5.6349999999999994E-3</v>
       </c>
       <c r="J94" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K94" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.45">
@@ -5359,10 +5359,10 @@
         <v>7.4008000000000004E-2</v>
       </c>
       <c r="J95" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K95" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.45">
@@ -5385,10 +5385,10 @@
         <v>1.0300999999999999E-2</v>
       </c>
       <c r="J96" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K96" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.45">
@@ -5411,10 +5411,10 @@
         <v>1.0467000000000001E-2</v>
       </c>
       <c r="J97" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K97" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.45">
@@ -5437,10 +5437,10 @@
         <v>1.0796E-2</v>
       </c>
       <c r="J98" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K98" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.45">
@@ -5463,10 +5463,10 @@
         <v>4.3207999999999996E-2</v>
       </c>
       <c r="J99" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K99" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.45">
@@ -5489,10 +5489,10 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K100" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.45">
@@ -5515,10 +5515,10 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K101" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.45">
@@ -5541,10 +5541,10 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K102" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.45">
@@ -5567,10 +5567,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K103" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.45">
@@ -5593,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K104" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.45">
@@ -5619,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K105" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.45">
@@ -5645,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K106" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.45">
@@ -5671,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K107" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.45">
@@ -5697,10 +5697,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K108" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.45">
@@ -5723,10 +5723,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K109" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.45">
@@ -5749,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K110" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.45">
@@ -5775,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K111" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.45">
@@ -5801,10 +5801,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K112" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.45">
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K113" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.45">
@@ -5853,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K114" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.45">
@@ -5879,10 +5879,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K115" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.45">
@@ -5905,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K116" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.45">
@@ -5931,10 +5931,10 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K117" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.45">
@@ -5957,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K118" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.45">
@@ -5983,10 +5983,10 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="J119" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K119" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.45">
@@ -6009,10 +6009,10 @@
         <v>2.0999999999999999E-5</v>
       </c>
       <c r="J120" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K120" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.45">
@@ -6035,10 +6035,10 @@
         <v>2.8E-5</v>
       </c>
       <c r="J121" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K121" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.45">
@@ -6061,10 +6061,10 @@
         <v>4.8999999999999998E-5</v>
       </c>
       <c r="J122" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K122" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.45">
@@ -6087,10 +6087,10 @@
         <v>4.1999999999999998E-5</v>
       </c>
       <c r="J123" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="K123" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1620D799-D8E8-4EA2-B5F4-28629CA1F3D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341FEF7E-6ADF-4E05-A1E6-66FA93A50810}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6128,10 +6128,10 @@
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I3" t="s">
         <v>70</v>
@@ -6140,7 +6140,7 @@
         <v>166</v>
       </c>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N3" t="s">
         <v>70</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE3469-B51B-416E-A0B4-4D40049C7A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37501BB9-FB3B-4CE0-A19E-8C74AE3F9C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S3aH3,S4c0909h16,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1aH3,S4c0909h14,S6d1115h09,S4aH2,S6d1115h07,S6d1115h15,S6d1115h11,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4c0909h08,S6d1115h08,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h14,S3aH2,S4c0909h12</t>
-  </si>
-  <si>
-    <t>S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1aH6,S4c0909h02,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h21,S1b0318h04,S4aH8,S4c0909h05,S6d1115h06,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20</t>
+    <t>S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S6d1115h11,S4c0909h08,S6d1115h08,S4aH2,S6d1115h07,S6d1115h15,S1aH2,S2aH3,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S3aH3,S4c0909h16,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h14,S3aH2,S4c0909h12,S1b0318h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14</t>
+  </si>
+  <si>
+    <t>S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S2aH1,S3aH7,S4c0909h21,S5aH8,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6aH8,S1aH6,S4c0909h02,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h06,S1b0318h04,S4aH8,S4c0909h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1aH6,S4c0909h02,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S2aH1,S3aH7,S4c0909h21,S5aH8,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h21,S1b0318h04,S4aH8,S4c0909h05,S6d1115h06,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S6d1115h02,S6d1115h22,S6d1115h23,S6aH8,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20</v>
+        <v>S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S2aH1,S3aH7,S4c0909h21,S5aH8,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6aH8,S1aH6,S4c0909h02,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h06,S1b0318h04,S4aH8,S4c0909h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S3aH3,S4c0909h16,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1aH3,S4c0909h14,S6d1115h09,S4aH2,S6d1115h07,S6d1115h15,S6d1115h11,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S4c0909h08,S6d1115h08,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1b0318h10,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h14,S3aH2,S4c0909h12</v>
+        <v>S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S6d1115h11,S4c0909h08,S6d1115h08,S4aH2,S6d1115h07,S6d1115h15,S1aH2,S2aH3,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S3aH3,S4c0909h16,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h14,S3aH2,S4c0909h12,S1b0318h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04523D2-CAA3-4EC2-8556-66275CB9220F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314B9D71-427D-4BA6-9FE7-0650C5F65050}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F913A3-8C27-48A8-B1E7-4DDDD2A52255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40124112-8A2F-446D-9111-518C663EEBB6}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>0.40439611291068944</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7">
-        <v>0.16266774641369736</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>8.8500694123091153E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>0.31582600647848219</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341FEF7E-6ADF-4E05-A1E6-66FA93A50810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1A74B4-596A-4C4A-9ABA-200636139C2C}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37501BB9-FB3B-4CE0-A19E-8C74AE3F9C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9510BF5A-8A93-4B31-B0C5-7B3AE2B55693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S6d1115h11,S4c0909h08,S6d1115h08,S4aH2,S6d1115h07,S6d1115h15,S1aH2,S2aH3,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S3aH3,S4c0909h16,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h14,S3aH2,S4c0909h12,S1b0318h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14</t>
-  </si>
-  <si>
-    <t>S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S2aH1,S3aH7,S4c0909h21,S5aH8,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6aH8,S1aH6,S4c0909h02,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h06,S1b0318h04,S4aH8,S4c0909h05</t>
+    <t>S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h14,S3aH2,S4c0909h12,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1aH2,S2aH3,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S3aH3,S4c0909h16,S1b0318h10,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S4c0909h08,S6d1115h08</t>
+  </si>
+  <si>
+    <t>S1b0318h21,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h06,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S2aH1,S3aH7,S4c0909h21,S5aH8,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6aH8,S1aH6,S4c0909h02,S1b0318h21,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S6d1115h06,S1b0318h04,S4aH8,S4c0909h05</v>
+        <v>S1b0318h21,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h06,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S6d1115h11,S4c0909h08,S6d1115h08,S4aH2,S6d1115h07,S6d1115h15,S1aH2,S2aH3,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S3aH3,S4c0909h16,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S1b0318h14,S3aH2,S4c0909h12,S1b0318h10,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14</v>
+        <v>S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h14,S3aH2,S4c0909h12,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1aH2,S2aH3,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S3aH3,S4c0909h16,S1b0318h10,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S4c0909h08,S6d1115h08</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314B9D71-427D-4BA6-9FE7-0650C5F65050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B82E7-0345-4E45-96EC-85247BEBF47B}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40124112-8A2F-446D-9111-518C663EEBB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D2A541-FC4D-43F8-A0BD-A321B62E7001}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.13490282276723739</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.31582600647848219</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.16266774641369736</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1A74B4-596A-4C4A-9ABA-200636139C2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3734E167-425A-49A7-B962-D3986FDA3CAE}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9510BF5A-8A93-4B31-B0C5-7B3AE2B55693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D2EC1-C65D-462E-A6B1-550D52A3E940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h14,S3aH2,S4c0909h12,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1aH2,S2aH3,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S3aH3,S4c0909h16,S1b0318h10,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S4c0909h08,S6d1115h08</t>
-  </si>
-  <si>
-    <t>S1b0318h21,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h06,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</t>
+    <t>S1b0318h10,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S6d1115h11,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4aH2,S6d1115h07,S6d1115h15,S4c0909h08,S6d1115h08,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH2,S2aH3,S1b0318h14,S3aH2,S4c0909h12,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH3,S4c0909h14,S6d1115h09,S3aH3,S4c0909h16</t>
+  </si>
+  <si>
+    <t>S6aH8,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h04,S4aH8,S4c0909h05,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h06,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1b0318h21,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1aH6,S4c0909h02,S6d1115h02,S6d1115h22,S6d1115h23,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0318h21,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S6d1115h06,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h04,S4aH8,S4c0909h05,S1aH6,S4c0909h02,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19,S6aH8,S6d1115h02,S6d1115h22,S6d1115h23,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22</v>
+        <v>S6aH8,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h04,S4aH8,S4c0909h05,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h06,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1b0318h21,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1aH6,S4c0909h02,S6d1115h02,S6d1115h22,S6d1115h23,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1b0318h14,S3aH2,S4c0909h12,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S4aH2,S6d1115h07,S6d1115h15,S1aH2,S2aH3,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S6d1115h11,S1aH3,S4c0909h14,S6d1115h09,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S3aH3,S4c0909h16,S1b0318h10,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S4c0909h08,S6d1115h08</v>
+        <v>S1b0318h10,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S6d1115h11,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4aH2,S6d1115h07,S6d1115h15,S4c0909h08,S6d1115h08,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH2,S2aH3,S1b0318h14,S3aH2,S4c0909h12,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH3,S4c0909h14,S6d1115h09,S3aH3,S4c0909h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B82E7-0345-4E45-96EC-85247BEBF47B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10538D18-083D-4210-BDBE-9ACCBBDCED5F}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D2A541-FC4D-43F8-A0BD-A321B62E7001}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5DD515-F092-49D9-9682-4EE97068E11F}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.16266774641369736</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>9.3706617306802395E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>0.13490282276723739</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>8.8500694123091153E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.40439611291068944</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N9">
-        <v>0.31582600647848219</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3734E167-425A-49A7-B962-D3986FDA3CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B65D52-3BBB-4944-8178-F05EC35E3D9E}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D2EC1-C65D-462E-A6B1-550D52A3E940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695AD63F-B652-4861-9C91-5444ADE260DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -276,7 +276,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>0318h01</t>
+    <t>0202h01</t>
   </si>
   <si>
     <t>S1,S2,S3,S4,S5,S6</t>
@@ -285,13 +285,16 @@
     <t>S2</t>
   </si>
   <si>
-    <t>0318h02</t>
+    <t>0202h02</t>
   </si>
   <si>
     <t>S3</t>
   </si>
   <si>
-    <t>0318h03</t>
+    <t>0202h03</t>
+  </si>
+  <si>
+    <t>S6</t>
   </si>
   <si>
     <t>S4</t>
@@ -300,217 +303,214 @@
     <t>d</t>
   </si>
   <si>
-    <t>0318h04</t>
-  </si>
-  <si>
-    <t>S6</t>
+    <t>0202h04</t>
   </si>
   <si>
     <t>S5</t>
   </si>
   <si>
-    <t>0318h05</t>
-  </si>
-  <si>
-    <t>0318h06</t>
-  </si>
-  <si>
-    <t>0318h07</t>
-  </si>
-  <si>
-    <t>0318h08</t>
-  </si>
-  <si>
-    <t>0318h09</t>
-  </si>
-  <si>
-    <t>0318h10</t>
-  </si>
-  <si>
-    <t>0318h11</t>
-  </si>
-  <si>
-    <t>0318h12</t>
-  </si>
-  <si>
-    <t>0318h13</t>
-  </si>
-  <si>
-    <t>0318h14</t>
-  </si>
-  <si>
-    <t>0318h15</t>
-  </si>
-  <si>
-    <t>0318h16</t>
-  </si>
-  <si>
-    <t>0318h17</t>
-  </si>
-  <si>
-    <t>0318h18</t>
-  </si>
-  <si>
-    <t>0318h19</t>
-  </si>
-  <si>
-    <t>0318h20</t>
-  </si>
-  <si>
-    <t>0318h21</t>
-  </si>
-  <si>
-    <t>0318h22</t>
-  </si>
-  <si>
-    <t>0318h23</t>
-  </si>
-  <si>
-    <t>0318h24</t>
-  </si>
-  <si>
-    <t>0909h01</t>
-  </si>
-  <si>
-    <t>0909h02</t>
-  </si>
-  <si>
-    <t>0909h03</t>
-  </si>
-  <si>
-    <t>0909h04</t>
-  </si>
-  <si>
-    <t>0909h05</t>
-  </si>
-  <si>
-    <t>0909h06</t>
-  </si>
-  <si>
-    <t>0909h07</t>
-  </si>
-  <si>
-    <t>0909h08</t>
-  </si>
-  <si>
-    <t>0909h09</t>
-  </si>
-  <si>
-    <t>0909h10</t>
-  </si>
-  <si>
-    <t>0909h11</t>
-  </si>
-  <si>
-    <t>0909h12</t>
-  </si>
-  <si>
-    <t>0909h13</t>
-  </si>
-  <si>
-    <t>0909h14</t>
-  </si>
-  <si>
-    <t>0909h15</t>
-  </si>
-  <si>
-    <t>0909h16</t>
-  </si>
-  <si>
-    <t>0909h17</t>
-  </si>
-  <si>
-    <t>0909h18</t>
-  </si>
-  <si>
-    <t>0909h19</t>
-  </si>
-  <si>
-    <t>0909h20</t>
-  </si>
-  <si>
-    <t>0909h21</t>
-  </si>
-  <si>
-    <t>0909h22</t>
-  </si>
-  <si>
-    <t>0909h23</t>
-  </si>
-  <si>
-    <t>0909h24</t>
-  </si>
-  <si>
-    <t>1115h01</t>
-  </si>
-  <si>
-    <t>1115h02</t>
-  </si>
-  <si>
-    <t>1115h03</t>
-  </si>
-  <si>
-    <t>1115h04</t>
-  </si>
-  <si>
-    <t>1115h05</t>
-  </si>
-  <si>
-    <t>1115h06</t>
-  </si>
-  <si>
-    <t>1115h07</t>
-  </si>
-  <si>
-    <t>1115h08</t>
-  </si>
-  <si>
-    <t>1115h09</t>
-  </si>
-  <si>
-    <t>1115h10</t>
-  </si>
-  <si>
-    <t>1115h11</t>
-  </si>
-  <si>
-    <t>1115h12</t>
-  </si>
-  <si>
-    <t>1115h13</t>
-  </si>
-  <si>
-    <t>1115h14</t>
-  </si>
-  <si>
-    <t>1115h15</t>
-  </si>
-  <si>
-    <t>1115h16</t>
-  </si>
-  <si>
-    <t>1115h17</t>
-  </si>
-  <si>
-    <t>1115h18</t>
-  </si>
-  <si>
-    <t>1115h19</t>
-  </si>
-  <si>
-    <t>1115h20</t>
-  </si>
-  <si>
-    <t>1115h21</t>
-  </si>
-  <si>
-    <t>1115h22</t>
-  </si>
-  <si>
-    <t>1115h23</t>
-  </si>
-  <si>
-    <t>1115h24</t>
+    <t>0202h05</t>
+  </si>
+  <si>
+    <t>0202h06</t>
+  </si>
+  <si>
+    <t>0202h07</t>
+  </si>
+  <si>
+    <t>0202h08</t>
+  </si>
+  <si>
+    <t>0202h09</t>
+  </si>
+  <si>
+    <t>0202h10</t>
+  </si>
+  <si>
+    <t>0202h11</t>
+  </si>
+  <si>
+    <t>0202h12</t>
+  </si>
+  <si>
+    <t>0202h13</t>
+  </si>
+  <si>
+    <t>0202h14</t>
+  </si>
+  <si>
+    <t>0202h15</t>
+  </si>
+  <si>
+    <t>0202h16</t>
+  </si>
+  <si>
+    <t>0202h17</t>
+  </si>
+  <si>
+    <t>0202h18</t>
+  </si>
+  <si>
+    <t>0202h19</t>
+  </si>
+  <si>
+    <t>0202h20</t>
+  </si>
+  <si>
+    <t>0202h21</t>
+  </si>
+  <si>
+    <t>0202h22</t>
+  </si>
+  <si>
+    <t>0202h23</t>
+  </si>
+  <si>
+    <t>0202h24</t>
+  </si>
+  <si>
+    <t>1209h01</t>
+  </si>
+  <si>
+    <t>1209h02</t>
+  </si>
+  <si>
+    <t>1209h03</t>
+  </si>
+  <si>
+    <t>1209h04</t>
+  </si>
+  <si>
+    <t>1209h05</t>
+  </si>
+  <si>
+    <t>1209h06</t>
+  </si>
+  <si>
+    <t>1209h07</t>
+  </si>
+  <si>
+    <t>1209h08</t>
+  </si>
+  <si>
+    <t>1209h09</t>
+  </si>
+  <si>
+    <t>1209h10</t>
+  </si>
+  <si>
+    <t>1209h11</t>
+  </si>
+  <si>
+    <t>1209h12</t>
+  </si>
+  <si>
+    <t>1209h13</t>
+  </si>
+  <si>
+    <t>1209h14</t>
+  </si>
+  <si>
+    <t>1209h15</t>
+  </si>
+  <si>
+    <t>1209h16</t>
+  </si>
+  <si>
+    <t>1209h17</t>
+  </si>
+  <si>
+    <t>1209h18</t>
+  </si>
+  <si>
+    <t>1209h19</t>
+  </si>
+  <si>
+    <t>1209h20</t>
+  </si>
+  <si>
+    <t>1209h21</t>
+  </si>
+  <si>
+    <t>1209h22</t>
+  </si>
+  <si>
+    <t>1209h23</t>
+  </si>
+  <si>
+    <t>1209h24</t>
+  </si>
+  <si>
+    <t>1216h01</t>
+  </si>
+  <si>
+    <t>1216h02</t>
+  </si>
+  <si>
+    <t>1216h03</t>
+  </si>
+  <si>
+    <t>1216h04</t>
+  </si>
+  <si>
+    <t>1216h05</t>
+  </si>
+  <si>
+    <t>1216h06</t>
+  </si>
+  <si>
+    <t>1216h07</t>
+  </si>
+  <si>
+    <t>1216h08</t>
+  </si>
+  <si>
+    <t>1216h09</t>
+  </si>
+  <si>
+    <t>1216h10</t>
+  </si>
+  <si>
+    <t>1216h11</t>
+  </si>
+  <si>
+    <t>1216h12</t>
+  </si>
+  <si>
+    <t>1216h13</t>
+  </si>
+  <si>
+    <t>1216h14</t>
+  </si>
+  <si>
+    <t>1216h15</t>
+  </si>
+  <si>
+    <t>1216h16</t>
+  </si>
+  <si>
+    <t>1216h17</t>
+  </si>
+  <si>
+    <t>1216h18</t>
+  </si>
+  <si>
+    <t>1216h19</t>
+  </si>
+  <si>
+    <t>1216h20</t>
+  </si>
+  <si>
+    <t>1216h21</t>
+  </si>
+  <si>
+    <t>1216h22</t>
+  </si>
+  <si>
+    <t>1216h23</t>
+  </si>
+  <si>
+    <t>1216h24</t>
   </si>
   <si>
     <t>H1</t>
@@ -555,7 +555,7 @@
     <t>IMPNRGZ</t>
   </si>
   <si>
-    <t>elc_sol-ITA</t>
+    <t>elc_spv-ITA</t>
   </si>
   <si>
     <t>S1aH2</t>
@@ -579,76 +579,76 @@
     <t>S1aH8</t>
   </si>
   <si>
-    <t>S1b0318h01</t>
-  </si>
-  <si>
-    <t>S1b0318h02</t>
-  </si>
-  <si>
-    <t>S1b0318h03</t>
-  </si>
-  <si>
-    <t>S1b0318h04</t>
-  </si>
-  <si>
-    <t>S1b0318h05</t>
-  </si>
-  <si>
-    <t>S1b0318h06</t>
-  </si>
-  <si>
-    <t>S1b0318h07</t>
-  </si>
-  <si>
-    <t>S1b0318h08</t>
-  </si>
-  <si>
-    <t>S1b0318h09</t>
-  </si>
-  <si>
-    <t>S1b0318h10</t>
-  </si>
-  <si>
-    <t>S1b0318h11</t>
-  </si>
-  <si>
-    <t>S1b0318h12</t>
-  </si>
-  <si>
-    <t>S1b0318h13</t>
-  </si>
-  <si>
-    <t>S1b0318h14</t>
-  </si>
-  <si>
-    <t>S1b0318h15</t>
-  </si>
-  <si>
-    <t>S1b0318h16</t>
-  </si>
-  <si>
-    <t>S1b0318h17</t>
-  </si>
-  <si>
-    <t>S1b0318h18</t>
-  </si>
-  <si>
-    <t>S1b0318h19</t>
-  </si>
-  <si>
-    <t>S1b0318h20</t>
-  </si>
-  <si>
-    <t>S1b0318h21</t>
-  </si>
-  <si>
-    <t>S1b0318h22</t>
-  </si>
-  <si>
-    <t>S1b0318h23</t>
-  </si>
-  <si>
-    <t>S1b0318h24</t>
+    <t>S1b0202h01</t>
+  </si>
+  <si>
+    <t>S1b0202h02</t>
+  </si>
+  <si>
+    <t>S1b0202h03</t>
+  </si>
+  <si>
+    <t>S1b0202h04</t>
+  </si>
+  <si>
+    <t>S1b0202h05</t>
+  </si>
+  <si>
+    <t>S1b0202h06</t>
+  </si>
+  <si>
+    <t>S1b0202h07</t>
+  </si>
+  <si>
+    <t>S1b0202h08</t>
+  </si>
+  <si>
+    <t>S1b0202h09</t>
+  </si>
+  <si>
+    <t>S1b0202h10</t>
+  </si>
+  <si>
+    <t>S1b0202h11</t>
+  </si>
+  <si>
+    <t>S1b0202h12</t>
+  </si>
+  <si>
+    <t>S1b0202h13</t>
+  </si>
+  <si>
+    <t>S1b0202h14</t>
+  </si>
+  <si>
+    <t>S1b0202h15</t>
+  </si>
+  <si>
+    <t>S1b0202h16</t>
+  </si>
+  <si>
+    <t>S1b0202h17</t>
+  </si>
+  <si>
+    <t>S1b0202h18</t>
+  </si>
+  <si>
+    <t>S1b0202h19</t>
+  </si>
+  <si>
+    <t>S1b0202h20</t>
+  </si>
+  <si>
+    <t>S1b0202h21</t>
+  </si>
+  <si>
+    <t>S1b0202h22</t>
+  </si>
+  <si>
+    <t>S1b0202h23</t>
+  </si>
+  <si>
+    <t>S1b0202h24</t>
   </si>
   <si>
     <t>S2aH1</t>
@@ -723,78 +723,6 @@
     <t>S4aH8</t>
   </si>
   <si>
-    <t>S4c0909h01</t>
-  </si>
-  <si>
-    <t>S4c0909h02</t>
-  </si>
-  <si>
-    <t>S4c0909h03</t>
-  </si>
-  <si>
-    <t>S4c0909h04</t>
-  </si>
-  <si>
-    <t>S4c0909h05</t>
-  </si>
-  <si>
-    <t>S4c0909h06</t>
-  </si>
-  <si>
-    <t>S4c0909h07</t>
-  </si>
-  <si>
-    <t>S4c0909h08</t>
-  </si>
-  <si>
-    <t>S4c0909h09</t>
-  </si>
-  <si>
-    <t>S4c0909h10</t>
-  </si>
-  <si>
-    <t>S4c0909h11</t>
-  </si>
-  <si>
-    <t>S4c0909h12</t>
-  </si>
-  <si>
-    <t>S4c0909h13</t>
-  </si>
-  <si>
-    <t>S4c0909h14</t>
-  </si>
-  <si>
-    <t>S4c0909h15</t>
-  </si>
-  <si>
-    <t>S4c0909h16</t>
-  </si>
-  <si>
-    <t>S4c0909h17</t>
-  </si>
-  <si>
-    <t>S4c0909h18</t>
-  </si>
-  <si>
-    <t>S4c0909h19</t>
-  </si>
-  <si>
-    <t>S4c0909h20</t>
-  </si>
-  <si>
-    <t>S4c0909h21</t>
-  </si>
-  <si>
-    <t>S4c0909h22</t>
-  </si>
-  <si>
-    <t>S4c0909h23</t>
-  </si>
-  <si>
-    <t>S4c0909h24</t>
-  </si>
-  <si>
     <t>S5aH1</t>
   </si>
   <si>
@@ -843,76 +771,148 @@
     <t>S6aH8</t>
   </si>
   <si>
-    <t>S6d1115h01</t>
-  </si>
-  <si>
-    <t>S6d1115h02</t>
-  </si>
-  <si>
-    <t>S6d1115h03</t>
-  </si>
-  <si>
-    <t>S6d1115h04</t>
-  </si>
-  <si>
-    <t>S6d1115h05</t>
-  </si>
-  <si>
-    <t>S6d1115h06</t>
-  </si>
-  <si>
-    <t>S6d1115h07</t>
-  </si>
-  <si>
-    <t>S6d1115h08</t>
-  </si>
-  <si>
-    <t>S6d1115h09</t>
-  </si>
-  <si>
-    <t>S6d1115h10</t>
-  </si>
-  <si>
-    <t>S6d1115h11</t>
-  </si>
-  <si>
-    <t>S6d1115h12</t>
-  </si>
-  <si>
-    <t>S6d1115h13</t>
-  </si>
-  <si>
-    <t>S6d1115h14</t>
-  </si>
-  <si>
-    <t>S6d1115h15</t>
-  </si>
-  <si>
-    <t>S6d1115h16</t>
-  </si>
-  <si>
-    <t>S6d1115h17</t>
-  </si>
-  <si>
-    <t>S6d1115h18</t>
-  </si>
-  <si>
-    <t>S6d1115h19</t>
-  </si>
-  <si>
-    <t>S6d1115h20</t>
-  </si>
-  <si>
-    <t>S6d1115h21</t>
-  </si>
-  <si>
-    <t>S6d1115h22</t>
-  </si>
-  <si>
-    <t>S6d1115h23</t>
-  </si>
-  <si>
-    <t>S6d1115h24</t>
+    <t>S6c1209h01</t>
+  </si>
+  <si>
+    <t>S6c1209h02</t>
+  </si>
+  <si>
+    <t>S6c1209h03</t>
+  </si>
+  <si>
+    <t>S6c1209h04</t>
+  </si>
+  <si>
+    <t>S6c1209h05</t>
+  </si>
+  <si>
+    <t>S6c1209h06</t>
+  </si>
+  <si>
+    <t>S6c1209h07</t>
+  </si>
+  <si>
+    <t>S6c1209h08</t>
+  </si>
+  <si>
+    <t>S6c1209h09</t>
+  </si>
+  <si>
+    <t>S6c1209h10</t>
+  </si>
+  <si>
+    <t>S6c1209h11</t>
+  </si>
+  <si>
+    <t>S6c1209h12</t>
+  </si>
+  <si>
+    <t>S6c1209h13</t>
+  </si>
+  <si>
+    <t>S6c1209h14</t>
+  </si>
+  <si>
+    <t>S6c1209h15</t>
+  </si>
+  <si>
+    <t>S6c1209h16</t>
+  </si>
+  <si>
+    <t>S6c1209h17</t>
+  </si>
+  <si>
+    <t>S6c1209h18</t>
+  </si>
+  <si>
+    <t>S6c1209h19</t>
+  </si>
+  <si>
+    <t>S6c1209h20</t>
+  </si>
+  <si>
+    <t>S6c1209h21</t>
+  </si>
+  <si>
+    <t>S6c1209h22</t>
+  </si>
+  <si>
+    <t>S6c1209h23</t>
+  </si>
+  <si>
+    <t>S6c1209h24</t>
+  </si>
+  <si>
+    <t>S6d1216h01</t>
+  </si>
+  <si>
+    <t>S6d1216h02</t>
+  </si>
+  <si>
+    <t>S6d1216h03</t>
+  </si>
+  <si>
+    <t>S6d1216h04</t>
+  </si>
+  <si>
+    <t>S6d1216h05</t>
+  </si>
+  <si>
+    <t>S6d1216h06</t>
+  </si>
+  <si>
+    <t>S6d1216h07</t>
+  </si>
+  <si>
+    <t>S6d1216h08</t>
+  </si>
+  <si>
+    <t>S6d1216h09</t>
+  </si>
+  <si>
+    <t>S6d1216h10</t>
+  </si>
+  <si>
+    <t>S6d1216h11</t>
+  </si>
+  <si>
+    <t>S6d1216h12</t>
+  </si>
+  <si>
+    <t>S6d1216h13</t>
+  </si>
+  <si>
+    <t>S6d1216h14</t>
+  </si>
+  <si>
+    <t>S6d1216h15</t>
+  </si>
+  <si>
+    <t>S6d1216h16</t>
+  </si>
+  <si>
+    <t>S6d1216h17</t>
+  </si>
+  <si>
+    <t>S6d1216h18</t>
+  </si>
+  <si>
+    <t>S6d1216h19</t>
+  </si>
+  <si>
+    <t>S6d1216h20</t>
+  </si>
+  <si>
+    <t>S6d1216h21</t>
+  </si>
+  <si>
+    <t>S6d1216h22</t>
+  </si>
+  <si>
+    <t>S6d1216h23</t>
+  </si>
+  <si>
+    <t>S6d1216h24</t>
   </si>
   <si>
     <t>~TFM_DINS-AT</t>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0318h10,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S6d1115h11,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4aH2,S6d1115h07,S6d1115h15,S4c0909h08,S6d1115h08,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH2,S2aH3,S1b0318h14,S3aH2,S4c0909h12,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH3,S4c0909h14,S6d1115h09,S3aH3,S4c0909h16</t>
-  </si>
-  <si>
-    <t>S6aH8,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h04,S4aH8,S4c0909h05,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h06,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1b0318h21,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1aH6,S4c0909h02,S6d1115h02,S6d1115h22,S6d1115h23,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19</t>
+    <t>S4aH2,S6c1209h09,S6c1209h10,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S1b0202h15,S3aH3,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1aH6,S6d1216h14,S4aH5,S1aH3,S1b0202h09,S6aH5,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S3aH7,S6c1209h07,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2</t>
+  </si>
+  <si>
+    <t>S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S1b0202h19,S3aH1,S6c1209h01,S1b0202h01,S6d1216h21,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S6c1209h20,S6d1216h05,S6aH8,S6c1209h21,S6d1216h22,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S6d1216h01,S6d1216h20,S1b0202h24,S3aH8,S6c1209h04,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S6aH8,S1b0318h01,S2aH8,S4c0909h19,S4c0909h24,S1aH1,S1b0318h03,S1b0318h22,S2aH7,S4c0909h20,S1b0318h04,S4aH8,S4c0909h05,S1b0318h05,S1b0318h19,S1b0318h20,S4aH1,S4c0909h03,S4c0909h04,S6aH1,S6d1115h21,S6d1115h24,S6d1115h06,S2aH1,S3aH7,S4c0909h21,S5aH8,S1b0318h02,S1b0318h23,S2aH6,S3aH1,S4c0909h06,S4c0909h22,S1b0318h21,S3aH8,S4c0909h01,S6d1115h01,S6d1115h04,S6d1115h20,S1aH8,S1b0318h24,S5aH1,S6aH7,S6d1115h03,S1aH6,S4c0909h02,S6d1115h02,S6d1115h22,S6d1115h23,S1aH7,S3aH6,S4aH7,S4c0909h23,S5aH6,S5aH7,S6aH6,S1b0318h06,S4aH6,S6d1115h05,S6d1115h19</v>
+        <v>S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S1b0202h19,S3aH1,S6c1209h01,S1b0202h01,S6d1216h21,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S6c1209h20,S6d1216h05,S6aH8,S6c1209h21,S6d1216h22,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S6d1216h01,S6d1216h20,S1b0202h24,S3aH8,S6c1209h04,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0318h10,S1b0318h09,S1b0318h12,S1b0318h16,S6d1115h18,S6d1115h11,S1b0318h17,S4c0909h15,S6aH5,S6d1115h14,S1aH4,S1b0318h11,S1b0318h15,S2aH2,S6d1115h12,S6d1115h13,S1b0318h07,S3aH4,S4aH3,S4aH4,S4c0909h09,S4c0909h18,S4aH2,S6d1115h07,S6d1115h15,S4c0909h08,S6d1115h08,S1b0318h08,S5aH4,S6aH3,S6aH4,S6d1115h16,S6d1115h17,S1aH2,S2aH3,S1b0318h14,S3aH2,S4c0909h12,S1b0318h13,S3aH5,S4c0909h11,S5aH3,S1aH5,S1b0318h18,S2aH4,S2aH5,S4c0909h10,S5aH2,S5aH5,S6aH2,S4aH5,S4c0909h07,S4c0909h13,S4c0909h17,S6d1115h10,S1aH3,S4c0909h14,S6d1115h09,S3aH3,S4c0909h16</v>
+        <v>S4aH2,S6c1209h09,S6c1209h10,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S1b0202h15,S3aH3,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1aH6,S6d1216h14,S4aH5,S1aH3,S1b0202h09,S6aH5,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S3aH7,S6c1209h07,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10538D18-083D-4210-BDBE-9ACCBBDCED5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA760F1E-8EE9-48CE-A005-B492E5C588F4}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>90</v>
@@ -2609,7 +2609,7 @@
         <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.45">
@@ -2617,7 +2617,7 @@
         <v>134</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.45">
@@ -2625,7 +2625,7 @@
         <v>135</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.45">
@@ -2633,7 +2633,7 @@
         <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.45">
@@ -2641,7 +2641,7 @@
         <v>137</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.45">
@@ -2649,7 +2649,7 @@
         <v>138</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.45">
@@ -2657,7 +2657,7 @@
         <v>139</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.45">
@@ -2665,7 +2665,7 @@
         <v>140</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.45">
@@ -2673,7 +2673,7 @@
         <v>141</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.45">
@@ -2681,7 +2681,7 @@
         <v>142</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.45">
@@ -2689,7 +2689,7 @@
         <v>143</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.45">
@@ -2697,7 +2697,7 @@
         <v>144</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.45">
@@ -2705,7 +2705,7 @@
         <v>145</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.45">
@@ -2713,7 +2713,7 @@
         <v>146</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.45">
@@ -2721,7 +2721,7 @@
         <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.45">
@@ -2729,7 +2729,7 @@
         <v>148</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.45">
@@ -2737,7 +2737,7 @@
         <v>149</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.45">
@@ -2745,7 +2745,7 @@
         <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.45">
@@ -2753,7 +2753,7 @@
         <v>151</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.45">
@@ -2761,7 +2761,7 @@
         <v>152</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.45">
@@ -2769,7 +2769,7 @@
         <v>153</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.45">
@@ -2777,7 +2777,7 @@
         <v>154</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.45">
@@ -2785,7 +2785,7 @@
         <v>155</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.45">
@@ -2793,7 +2793,7 @@
         <v>156</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.45">
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5DD515-F092-49D9-9682-4EE97068E11F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FAD4BC-5E45-4A88-AA00-5EFB2CE70DD2}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2924,7 +2924,7 @@
         <v>169</v>
       </c>
       <c r="C4">
-        <v>2.0292700000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>170</v>
@@ -2936,7 +2936,7 @@
         <v>169</v>
       </c>
       <c r="I4">
-        <v>7.9672999999999994E-2</v>
+        <v>2.9419000000000001E-2</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>0.40439611291068944</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2959,7 +2959,7 @@
         <v>172</v>
       </c>
       <c r="C5">
-        <v>8.1849799999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>170</v>
@@ -2971,7 +2971,7 @@
         <v>172</v>
       </c>
       <c r="I5">
-        <v>1.0182999999999999E-2</v>
+        <v>4.5130000000000005E-3</v>
       </c>
       <c r="J5" t="s">
         <v>170</v>
@@ -2980,10 +2980,10 @@
         <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.13490282276723739</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -2994,7 +2994,7 @@
         <v>173</v>
       </c>
       <c r="C6">
-        <v>2.121288E-2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>170</v>
@@ -3006,7 +3006,7 @@
         <v>173</v>
       </c>
       <c r="I6">
-        <v>1.4832999999999999E-2</v>
+        <v>4.8419999999999999E-3</v>
       </c>
       <c r="J6" t="s">
         <v>170</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>8.8500694123091153E-2</v>
+        <v>0.2511684405367885</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3029,7 +3029,7 @@
         <v>174</v>
       </c>
       <c r="C7">
-        <v>0.20627216000000001</v>
+        <v>3.7916310000000002E-2</v>
       </c>
       <c r="D7" t="s">
         <v>170</v>
@@ -3041,7 +3041,7 @@
         <v>174</v>
       </c>
       <c r="I7">
-        <v>0.20507</v>
+        <v>2.743E-2</v>
       </c>
       <c r="J7" t="s">
         <v>170</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.31582600647848219</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3064,7 +3064,7 @@
         <v>175</v>
       </c>
       <c r="C8">
-        <v>2.2761409999999999E-2</v>
+        <v>4.6807029999999999E-2</v>
       </c>
       <c r="D8" t="s">
         <v>170</v>
@@ -3076,7 +3076,7 @@
         <v>175</v>
       </c>
       <c r="I8">
-        <v>2.7425999999999999E-2</v>
+        <v>4.1530999999999998E-2</v>
       </c>
       <c r="J8" t="s">
         <v>170</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>0.16266774641369736</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3099,7 +3099,7 @@
         <v>176</v>
       </c>
       <c r="C9">
-        <v>1.0838790000000001E-2</v>
+        <v>1.332318E-2</v>
       </c>
       <c r="D9" t="s">
         <v>170</v>
@@ -3111,7 +3111,7 @@
         <v>176</v>
       </c>
       <c r="I9">
-        <v>2.299E-2</v>
+        <v>1.3122E-2</v>
       </c>
       <c r="J9" t="s">
         <v>170</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>9.3706617306802395E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -3134,7 +3134,7 @@
         <v>177</v>
       </c>
       <c r="C10">
-        <v>2.65687E-3</v>
+        <v>1.3264E-2</v>
       </c>
       <c r="D10" t="s">
         <v>170</v>
@@ -3146,7 +3146,7 @@
         <v>177</v>
       </c>
       <c r="I10">
-        <v>2.2040000000000001E-2</v>
+        <v>1.2957999999999999E-2</v>
       </c>
       <c r="J10" t="s">
         <v>170</v>
@@ -3160,7 +3160,7 @@
         <v>178</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.262078E-2</v>
       </c>
       <c r="D11" t="s">
         <v>170</v>
@@ -3172,7 +3172,7 @@
         <v>178</v>
       </c>
       <c r="I11">
-        <v>6.5097000000000002E-2</v>
+        <v>5.8104000000000003E-2</v>
       </c>
       <c r="J11" t="s">
         <v>170</v>
@@ -3198,7 +3198,7 @@
         <v>179</v>
       </c>
       <c r="I12">
-        <v>1.6739999999999999E-3</v>
+        <v>1.27E-4</v>
       </c>
       <c r="J12" t="s">
         <v>170</v>
@@ -3224,7 +3224,7 @@
         <v>180</v>
       </c>
       <c r="I13">
-        <v>1.8799999999999999E-3</v>
+        <v>2.1699999999999999E-4</v>
       </c>
       <c r="J13" t="s">
         <v>170</v>
@@ -3250,7 +3250,7 @@
         <v>181</v>
       </c>
       <c r="I14">
-        <v>2.1549999999999998E-3</v>
+        <v>2.8299999999999999E-4</v>
       </c>
       <c r="J14" t="s">
         <v>170</v>
@@ -3276,7 +3276,7 @@
         <v>182</v>
       </c>
       <c r="I15">
-        <v>2.0939999999999999E-3</v>
+        <v>2.8299999999999999E-4</v>
       </c>
       <c r="J15" t="s">
         <v>170</v>
@@ -3302,7 +3302,7 @@
         <v>183</v>
       </c>
       <c r="I16">
-        <v>2.4559999999999998E-3</v>
+        <v>2.63E-4</v>
       </c>
       <c r="J16" t="s">
         <v>170</v>
@@ -3328,7 +3328,7 @@
         <v>184</v>
       </c>
       <c r="I17">
-        <v>2.4559999999999998E-3</v>
+        <v>2.63E-4</v>
       </c>
       <c r="J17" t="s">
         <v>170</v>
@@ -3354,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="I18">
-        <v>2.3410000000000002E-3</v>
+        <v>3.0200000000000002E-4</v>
       </c>
       <c r="J18" t="s">
         <v>170</v>
@@ -3380,7 +3380,7 @@
         <v>186</v>
       </c>
       <c r="I19">
-        <v>2.4559999999999998E-3</v>
+        <v>2.63E-4</v>
       </c>
       <c r="J19" t="s">
         <v>170</v>
@@ -3394,7 +3394,7 @@
         <v>187</v>
       </c>
       <c r="C20">
-        <v>5.8100000000000003E-6</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>170</v>
@@ -3406,7 +3406,7 @@
         <v>187</v>
       </c>
       <c r="I20">
-        <v>2.3939999999999999E-3</v>
+        <v>2.8299999999999999E-4</v>
       </c>
       <c r="J20" t="s">
         <v>170</v>
@@ -3420,7 +3420,7 @@
         <v>188</v>
       </c>
       <c r="C21">
-        <v>4.1659999999999998E-5</v>
+        <v>9.0699999999999996E-6</v>
       </c>
       <c r="D21" t="s">
         <v>170</v>
@@ -3432,7 +3432,7 @@
         <v>188</v>
       </c>
       <c r="I21">
-        <v>2.1549999999999998E-3</v>
+        <v>3.0200000000000002E-4</v>
       </c>
       <c r="J21" t="s">
         <v>170</v>
@@ -3446,7 +3446,7 @@
         <v>189</v>
       </c>
       <c r="C22">
-        <v>2.5719000000000002E-4</v>
+        <v>3.3880000000000001E-5</v>
       </c>
       <c r="D22" t="s">
         <v>170</v>
@@ -3458,7 +3458,7 @@
         <v>189</v>
       </c>
       <c r="I22">
-        <v>2.0939999999999999E-3</v>
+        <v>3.0200000000000002E-4</v>
       </c>
       <c r="J22" t="s">
         <v>170</v>
@@ -3472,7 +3472,7 @@
         <v>190</v>
       </c>
       <c r="C23">
-        <v>8.365E-5</v>
+        <v>4.3630000000000001E-5</v>
       </c>
       <c r="D23" t="s">
         <v>170</v>
@@ -3484,7 +3484,7 @@
         <v>190</v>
       </c>
       <c r="I23">
-        <v>2.2790000000000002E-3</v>
+        <v>3.79E-4</v>
       </c>
       <c r="J23" t="s">
         <v>170</v>
@@ -3498,7 +3498,7 @@
         <v>191</v>
       </c>
       <c r="C24">
-        <v>2.4839999999999999E-5</v>
+        <v>1.3066999999999999E-4</v>
       </c>
       <c r="D24" t="s">
         <v>170</v>
@@ -3510,7 +3510,7 @@
         <v>191</v>
       </c>
       <c r="I24">
-        <v>2.1549999999999998E-3</v>
+        <v>6.4800000000000003E-4</v>
       </c>
       <c r="J24" t="s">
         <v>170</v>
@@ -3524,7 +3524,7 @@
         <v>192</v>
       </c>
       <c r="C25">
-        <v>7.3449999999999996E-5</v>
+        <v>3.3956999999999998E-4</v>
       </c>
       <c r="D25" t="s">
         <v>170</v>
@@ -3536,7 +3536,7 @@
         <v>192</v>
       </c>
       <c r="I25">
-        <v>2.3939999999999999E-3</v>
+        <v>6.7100000000000005E-4</v>
       </c>
       <c r="J25" t="s">
         <v>170</v>
@@ -3550,7 +3550,7 @@
         <v>193</v>
       </c>
       <c r="C26">
-        <v>5.9530000000000001E-5</v>
+        <v>2.8479999999999998E-5</v>
       </c>
       <c r="D26" t="s">
         <v>170</v>
@@ -3562,7 +3562,7 @@
         <v>193</v>
       </c>
       <c r="I26">
-        <v>1.8339999999999999E-3</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="J26" t="s">
         <v>170</v>
@@ -3576,7 +3576,7 @@
         <v>194</v>
       </c>
       <c r="C27">
-        <v>1.5569999999999998E-5</v>
+        <v>1.173E-5</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -3588,7 +3588,7 @@
         <v>194</v>
       </c>
       <c r="I27">
-        <v>1.6199999999999999E-3</v>
+        <v>8.34E-4</v>
       </c>
       <c r="J27" t="s">
         <v>170</v>
@@ -3602,7 +3602,7 @@
         <v>195</v>
       </c>
       <c r="C28">
-        <v>1.517E-5</v>
+        <v>1.5290000000000001E-5</v>
       </c>
       <c r="D28" t="s">
         <v>170</v>
@@ -3614,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="I28">
-        <v>9.3999999999999997E-4</v>
+        <v>1.0059999999999999E-3</v>
       </c>
       <c r="J28" t="s">
         <v>170</v>
@@ -3628,7 +3628,7 @@
         <v>196</v>
       </c>
       <c r="C29">
-        <v>3.0719999999999997E-5</v>
+        <v>3.2993999999999998E-4</v>
       </c>
       <c r="D29" t="s">
         <v>170</v>
@@ -3640,7 +3640,7 @@
         <v>196</v>
       </c>
       <c r="I29">
-        <v>5.6800000000000004E-4</v>
+        <v>1.567E-3</v>
       </c>
       <c r="J29" t="s">
         <v>170</v>
@@ -3654,7 +3654,7 @@
         <v>197</v>
       </c>
       <c r="C30">
-        <v>1.4304000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>170</v>
@@ -3666,7 +3666,7 @@
         <v>197</v>
       </c>
       <c r="I30">
-        <v>8.34E-4</v>
+        <v>1.384E-3</v>
       </c>
       <c r="J30" t="s">
         <v>170</v>
@@ -3692,7 +3692,7 @@
         <v>198</v>
       </c>
       <c r="I31">
-        <v>8.34E-4</v>
+        <v>1.4289999999999999E-3</v>
       </c>
       <c r="J31" t="s">
         <v>170</v>
@@ -3718,7 +3718,7 @@
         <v>199</v>
       </c>
       <c r="I32">
-        <v>9.3999999999999997E-4</v>
+        <v>1.6739999999999999E-3</v>
       </c>
       <c r="J32" t="s">
         <v>170</v>
@@ -3744,7 +3744,7 @@
         <v>200</v>
       </c>
       <c r="I33">
-        <v>1.121E-3</v>
+        <v>1.255E-3</v>
       </c>
       <c r="J33" t="s">
         <v>170</v>
@@ -3770,7 +3770,7 @@
         <v>201</v>
       </c>
       <c r="I34">
-        <v>9.3999999999999997E-4</v>
+        <v>1.041E-3</v>
       </c>
       <c r="J34" t="s">
         <v>170</v>
@@ -3796,7 +3796,7 @@
         <v>202</v>
       </c>
       <c r="I35">
-        <v>6.7100000000000005E-4</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="J35" t="s">
         <v>170</v>
@@ -3810,7 +3810,7 @@
         <v>203</v>
       </c>
       <c r="C36">
-        <v>3.6771199999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>170</v>
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="I36">
-        <v>6.842E-3</v>
+        <v>2.7674000000000001E-2</v>
       </c>
       <c r="J36" t="s">
         <v>170</v>
@@ -3836,7 +3836,7 @@
         <v>204</v>
       </c>
       <c r="C37">
-        <v>5.4420300000000005E-3</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>170</v>
@@ -3848,7 +3848,7 @@
         <v>204</v>
       </c>
       <c r="I37">
-        <v>2.1950000000000003E-3</v>
+        <v>6.2069999999999998E-3</v>
       </c>
       <c r="J37" t="s">
         <v>170</v>
@@ -3862,7 +3862,7 @@
         <v>205</v>
       </c>
       <c r="C38">
-        <v>7.5417000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>170</v>
@@ -3874,7 +3874,7 @@
         <v>205</v>
       </c>
       <c r="I38">
-        <v>3.64E-3</v>
+        <v>6.7120000000000001E-3</v>
       </c>
       <c r="J38" t="s">
         <v>170</v>
@@ -3888,7 +3888,7 @@
         <v>206</v>
       </c>
       <c r="C39">
-        <v>5.5116609999999996E-2</v>
+        <v>2.0362669999999999E-2</v>
       </c>
       <c r="D39" t="s">
         <v>170</v>
@@ -3900,7 +3900,7 @@
         <v>206</v>
       </c>
       <c r="I39">
-        <v>6.4935000000000007E-2</v>
+        <v>3.3651E-2</v>
       </c>
       <c r="J39" t="s">
         <v>170</v>
@@ -3914,7 +3914,7 @@
         <v>207</v>
       </c>
       <c r="C40">
-        <v>7.4167499999999997E-3</v>
+        <v>1.99253E-2</v>
       </c>
       <c r="D40" t="s">
         <v>170</v>
@@ -3926,7 +3926,7 @@
         <v>207</v>
       </c>
       <c r="I40">
-        <v>1.0637000000000001E-2</v>
+        <v>4.2037999999999999E-2</v>
       </c>
       <c r="J40" t="s">
         <v>170</v>
@@ -3940,7 +3940,7 @@
         <v>208</v>
       </c>
       <c r="C41">
-        <v>6.0972500000000002E-3</v>
+        <v>5.5497999999999997E-3</v>
       </c>
       <c r="D41" t="s">
         <v>170</v>
@@ -3952,7 +3952,7 @@
         <v>208</v>
       </c>
       <c r="I41">
-        <v>8.3940000000000004E-3</v>
+        <v>1.4614E-2</v>
       </c>
       <c r="J41" t="s">
         <v>170</v>
@@ -3966,7 +3966,7 @@
         <v>209</v>
       </c>
       <c r="C42">
-        <v>3.6303400000000001E-3</v>
+        <v>5.2241700000000002E-3</v>
       </c>
       <c r="D42" t="s">
         <v>170</v>
@@ -3978,7 +3978,7 @@
         <v>209</v>
       </c>
       <c r="I42">
-        <v>6.3160000000000004E-3</v>
+        <v>1.2118E-2</v>
       </c>
       <c r="J42" t="s">
         <v>170</v>
@@ -3992,7 +3992,7 @@
         <v>210</v>
       </c>
       <c r="C43">
-        <v>2.4509999999999999E-4</v>
+        <v>7.6078199999999995E-3</v>
       </c>
       <c r="D43" t="s">
         <v>170</v>
@@ -4004,7 +4004,7 @@
         <v>210</v>
       </c>
       <c r="I43">
-        <v>8.7559999999999999E-3</v>
+        <v>5.1251999999999999E-2</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -4018,7 +4018,7 @@
         <v>211</v>
       </c>
       <c r="C44">
-        <v>1.9229050000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>170</v>
@@ -4030,7 +4030,7 @@
         <v>211</v>
       </c>
       <c r="I44">
-        <v>3.2169999999999998E-3</v>
+        <v>2.0642999999999998E-2</v>
       </c>
       <c r="J44" t="s">
         <v>170</v>
@@ -4044,7 +4044,7 @@
         <v>212</v>
       </c>
       <c r="C45">
-        <v>2.5591550000000001E-2</v>
+        <v>2.40267E-3</v>
       </c>
       <c r="D45" t="s">
         <v>170</v>
@@ -4056,7 +4056,7 @@
         <v>212</v>
       </c>
       <c r="I45">
-        <v>5.2099999999999998E-4</v>
+        <v>1.565E-3</v>
       </c>
       <c r="J45" t="s">
         <v>170</v>
@@ -4070,7 +4070,7 @@
         <v>213</v>
       </c>
       <c r="C46">
-        <v>2.9378020000000001E-2</v>
+        <v>1.1377470000000001E-2</v>
       </c>
       <c r="D46" t="s">
         <v>170</v>
@@ -4082,7 +4082,7 @@
         <v>213</v>
       </c>
       <c r="I46">
-        <v>6.6699999999999995E-4</v>
+        <v>2.088E-3</v>
       </c>
       <c r="J46" t="s">
         <v>170</v>
@@ -4096,7 +4096,7 @@
         <v>214</v>
       </c>
       <c r="C47">
-        <v>0.21793377</v>
+        <v>9.6706120000000007E-2</v>
       </c>
       <c r="D47" t="s">
         <v>170</v>
@@ -4108,7 +4108,7 @@
         <v>214</v>
       </c>
       <c r="I47">
-        <v>5.2409999999999998E-2</v>
+        <v>3.3432000000000003E-2</v>
       </c>
       <c r="J47" t="s">
         <v>170</v>
@@ -4122,7 +4122,7 @@
         <v>215</v>
       </c>
       <c r="C48">
-        <v>2.804154E-2</v>
+        <v>8.2144410000000001E-2</v>
       </c>
       <c r="D48" t="s">
         <v>170</v>
@@ -4134,7 +4134,7 @@
         <v>215</v>
       </c>
       <c r="I48">
-        <v>1.4343E-2</v>
+        <v>5.6165E-2</v>
       </c>
       <c r="J48" t="s">
         <v>170</v>
@@ -4148,7 +4148,7 @@
         <v>216</v>
       </c>
       <c r="C49">
-        <v>2.319475E-2</v>
+        <v>2.701017E-2</v>
       </c>
       <c r="D49" t="s">
         <v>170</v>
@@ -4160,7 +4160,7 @@
         <v>216</v>
       </c>
       <c r="I49">
-        <v>1.094E-2</v>
+        <v>2.3106000000000002E-2</v>
       </c>
       <c r="J49" t="s">
         <v>170</v>
@@ -4174,7 +4174,7 @@
         <v>217</v>
       </c>
       <c r="C50">
-        <v>1.6031750000000001E-2</v>
+        <v>2.4789430000000001E-2</v>
       </c>
       <c r="D50" t="s">
         <v>170</v>
@@ -4186,7 +4186,7 @@
         <v>217</v>
       </c>
       <c r="I50">
-        <v>6.3619999999999996E-3</v>
+        <v>2.2585999999999998E-2</v>
       </c>
       <c r="J50" t="s">
         <v>170</v>
@@ -4200,7 +4200,7 @@
         <v>218</v>
       </c>
       <c r="C51">
-        <v>4.0968000000000003E-3</v>
+        <v>5.8721809999999999E-2</v>
       </c>
       <c r="D51" t="s">
         <v>170</v>
@@ -4212,7 +4212,7 @@
         <v>218</v>
       </c>
       <c r="I51">
-        <v>5.2610000000000001E-3</v>
+        <v>7.3165000000000008E-2</v>
       </c>
       <c r="J51" t="s">
         <v>170</v>
@@ -4226,7 +4226,7 @@
         <v>219</v>
       </c>
       <c r="C52">
-        <v>1.1604300000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
         <v>170</v>
@@ -4238,7 +4238,7 @@
         <v>219</v>
       </c>
       <c r="I52">
-        <v>1.0709999999999999E-3</v>
+        <v>1.325E-3</v>
       </c>
       <c r="J52" t="s">
         <v>170</v>
@@ -4252,7 +4252,7 @@
         <v>220</v>
       </c>
       <c r="C53">
-        <v>6.3792099999999997E-3</v>
+        <v>7.5604999999999997E-4</v>
       </c>
       <c r="D53" t="s">
         <v>170</v>
@@ -4264,7 +4264,7 @@
         <v>220</v>
       </c>
       <c r="I53">
-        <v>5.5599999999999996E-4</v>
+        <v>1.5000000000000001E-4</v>
       </c>
       <c r="J53" t="s">
         <v>170</v>
@@ -4278,7 +4278,7 @@
         <v>221</v>
       </c>
       <c r="C54">
-        <v>8.1938600000000007E-3</v>
+        <v>1.0399250000000001E-2</v>
       </c>
       <c r="D54" t="s">
         <v>170</v>
@@ -4290,7 +4290,7 @@
         <v>221</v>
       </c>
       <c r="I54">
-        <v>2.5249999999999999E-3</v>
+        <v>1.05E-4</v>
       </c>
       <c r="J54" t="s">
         <v>170</v>
@@ -4304,7 +4304,7 @@
         <v>222</v>
       </c>
       <c r="C55">
-        <v>6.4089809999999997E-2</v>
+        <v>7.9117930000000003E-2</v>
       </c>
       <c r="D55" t="s">
         <v>170</v>
@@ -4316,7 +4316,7 @@
         <v>222</v>
       </c>
       <c r="I55">
-        <v>3.3578999999999998E-2</v>
+        <v>1.751E-3</v>
       </c>
       <c r="J55" t="s">
         <v>170</v>
@@ -4330,7 +4330,7 @@
         <v>223</v>
       </c>
       <c r="C56">
-        <v>7.7831799999999998E-3</v>
+        <v>6.4058130000000005E-2</v>
       </c>
       <c r="D56" t="s">
         <v>170</v>
@@ -4342,7 +4342,7 @@
         <v>223</v>
       </c>
       <c r="I56">
-        <v>4.0569999999999998E-3</v>
+        <v>1.2234999999999999E-2</v>
       </c>
       <c r="J56" t="s">
         <v>170</v>
@@ -4356,7 +4356,7 @@
         <v>224</v>
       </c>
       <c r="C57">
-        <v>5.63942E-3</v>
+        <v>2.1140280000000001E-2</v>
       </c>
       <c r="D57" t="s">
         <v>170</v>
@@ -4368,7 +4368,7 @@
         <v>224</v>
       </c>
       <c r="I57">
-        <v>2.382E-3</v>
+        <v>9.6460000000000001E-3</v>
       </c>
       <c r="J57" t="s">
         <v>170</v>
@@ -4382,7 +4382,7 @@
         <v>225</v>
       </c>
       <c r="C58">
-        <v>6.7601999999999994E-4</v>
+        <v>1.9299319999999998E-2</v>
       </c>
       <c r="D58" t="s">
         <v>170</v>
@@ -4394,7 +4394,7 @@
         <v>225</v>
       </c>
       <c r="I58">
-        <v>1.1900000000000001E-3</v>
+        <v>1.0571000000000001E-2</v>
       </c>
       <c r="J58" t="s">
         <v>170</v>
@@ -4408,7 +4408,7 @@
         <v>226</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4.5904760000000003E-2</v>
       </c>
       <c r="D59" t="s">
         <v>170</v>
@@ -4420,7 +4420,7 @@
         <v>226</v>
       </c>
       <c r="I59">
-        <v>1.4010000000000001E-3</v>
+        <v>2.2728999999999999E-2</v>
       </c>
       <c r="J59" t="s">
         <v>170</v>
@@ -4446,7 +4446,7 @@
         <v>227</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>6.96E-4</v>
       </c>
       <c r="J60" t="s">
         <v>170</v>
@@ -4472,7 +4472,7 @@
         <v>228</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1.1999999999999999E-4</v>
       </c>
       <c r="J61" t="s">
         <v>170</v>
@@ -4486,7 +4486,7 @@
         <v>229</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1.1604300000000001E-3</v>
       </c>
       <c r="D62" t="s">
         <v>170</v>
@@ -4498,7 +4498,7 @@
         <v>229</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2.5900000000000001E-4</v>
       </c>
       <c r="J62" t="s">
         <v>170</v>
@@ -4512,7 +4512,7 @@
         <v>230</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>3.3238879999999998E-2</v>
       </c>
       <c r="D63" t="s">
         <v>170</v>
@@ -4524,7 +4524,7 @@
         <v>230</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1.2739E-2</v>
       </c>
       <c r="J63" t="s">
         <v>170</v>
@@ -4538,7 +4538,7 @@
         <v>231</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>2.850921E-2</v>
       </c>
       <c r="D64" t="s">
         <v>170</v>
@@ -4550,7 +4550,7 @@
         <v>231</v>
       </c>
       <c r="I64">
-        <v>3.9999999999999998E-6</v>
+        <v>1.5626999999999999E-2</v>
       </c>
       <c r="J64" t="s">
         <v>170</v>
@@ -4564,7 +4564,7 @@
         <v>232</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>9.7350000000000006E-3</v>
       </c>
       <c r="D65" t="s">
         <v>170</v>
@@ -4576,7 +4576,7 @@
         <v>232</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>5.5579999999999996E-3</v>
       </c>
       <c r="J65" t="s">
         <v>170</v>
@@ -4590,7 +4590,7 @@
         <v>233</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>8.8576799999999997E-3</v>
       </c>
       <c r="D66" t="s">
         <v>170</v>
@@ -4602,7 +4602,7 @@
         <v>233</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>5.7920000000000003E-3</v>
       </c>
       <c r="J66" t="s">
         <v>170</v>
@@ -4616,7 +4616,7 @@
         <v>234</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1.4311920000000001E-2</v>
       </c>
       <c r="D67" t="s">
         <v>170</v>
@@ -4628,7 +4628,7 @@
         <v>234</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>9.7190000000000002E-3</v>
       </c>
       <c r="J67" t="s">
         <v>170</v>
@@ -4642,7 +4642,7 @@
         <v>235</v>
       </c>
       <c r="C68">
-        <v>6.2500000000000003E-6</v>
+        <v>0</v>
       </c>
       <c r="D68" t="s">
         <v>170</v>
@@ -4654,7 +4654,7 @@
         <v>235</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>5.3066000000000002E-2</v>
       </c>
       <c r="J68" t="s">
         <v>170</v>
@@ -4668,7 +4668,7 @@
         <v>236</v>
       </c>
       <c r="C69">
-        <v>4.015E-5</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>170</v>
@@ -4680,7 +4680,7 @@
         <v>236</v>
       </c>
       <c r="I69">
-        <v>4.1999999999999998E-5</v>
+        <v>7.8700000000000003E-3</v>
       </c>
       <c r="J69" t="s">
         <v>170</v>
@@ -4694,7 +4694,7 @@
         <v>237</v>
       </c>
       <c r="C70">
-        <v>1.1425E-4</v>
+        <v>0</v>
       </c>
       <c r="D70" t="s">
         <v>170</v>
@@ -4706,7 +4706,7 @@
         <v>237</v>
       </c>
       <c r="I70">
-        <v>1.3999999999999999E-4</v>
+        <v>7.1850000000000004E-3</v>
       </c>
       <c r="J70" t="s">
         <v>170</v>
@@ -4720,7 +4720,7 @@
         <v>238</v>
       </c>
       <c r="C71">
-        <v>3.3126999999999999E-4</v>
+        <v>5.6591879999999997E-2</v>
       </c>
       <c r="D71" t="s">
         <v>170</v>
@@ -4732,7 +4732,7 @@
         <v>238</v>
       </c>
       <c r="I71">
-        <v>3.0200000000000002E-4</v>
+        <v>3.1364000000000003E-2</v>
       </c>
       <c r="J71" t="s">
         <v>170</v>
@@ -4746,7 +4746,7 @@
         <v>239</v>
       </c>
       <c r="C72">
-        <v>3.8003000000000001E-4</v>
+        <v>6.6352010000000003E-2</v>
       </c>
       <c r="D72" t="s">
         <v>170</v>
@@ -4758,7 +4758,7 @@
         <v>239</v>
       </c>
       <c r="I72">
-        <v>4.3399999999999998E-4</v>
+        <v>4.2834999999999998E-2</v>
       </c>
       <c r="J72" t="s">
         <v>170</v>
@@ -4772,7 +4772,7 @@
         <v>240</v>
       </c>
       <c r="C73">
-        <v>3.6418000000000003E-4</v>
+        <v>2.0358169999999998E-2</v>
       </c>
       <c r="D73" t="s">
         <v>170</v>
@@ -4784,7 +4784,7 @@
         <v>240</v>
       </c>
       <c r="I73">
-        <v>5.9500000000000004E-4</v>
+        <v>1.6201E-2</v>
       </c>
       <c r="J73" t="s">
         <v>170</v>
@@ -4798,7 +4798,7 @@
         <v>241</v>
       </c>
       <c r="C74">
-        <v>2.1923999999999999E-4</v>
+        <v>1.661582E-2</v>
       </c>
       <c r="D74" t="s">
         <v>170</v>
@@ -4810,7 +4810,7 @@
         <v>241</v>
       </c>
       <c r="I74">
-        <v>6.4800000000000003E-4</v>
+        <v>1.3715999999999999E-2</v>
       </c>
       <c r="J74" t="s">
         <v>170</v>
@@ -4824,7 +4824,7 @@
         <v>242</v>
       </c>
       <c r="C75">
-        <v>1.8919999999999999E-4</v>
+        <v>1.206716E-2</v>
       </c>
       <c r="D75" t="s">
         <v>170</v>
@@ -4836,7 +4836,7 @@
         <v>242</v>
       </c>
       <c r="I75">
-        <v>4.3399999999999998E-4</v>
+        <v>8.0660999999999997E-2</v>
       </c>
       <c r="J75" t="s">
         <v>170</v>
@@ -4850,7 +4850,7 @@
         <v>243</v>
       </c>
       <c r="C76">
-        <v>3.3319999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="D76" t="s">
         <v>170</v>
@@ -4862,7 +4862,7 @@
         <v>243</v>
       </c>
       <c r="I76">
-        <v>4.6099999999999998E-4</v>
+        <v>1.1E-5</v>
       </c>
       <c r="J76" t="s">
         <v>170</v>
@@ -4876,7 +4876,7 @@
         <v>244</v>
       </c>
       <c r="C77">
-        <v>1.0323E-4</v>
+        <v>0</v>
       </c>
       <c r="D77" t="s">
         <v>170</v>
@@ -4888,7 +4888,7 @@
         <v>244</v>
       </c>
       <c r="I77">
-        <v>2.8299999999999999E-4</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="J77" t="s">
         <v>170</v>
@@ -4902,7 +4902,7 @@
         <v>245</v>
       </c>
       <c r="C78">
-        <v>1.0305E-4</v>
+        <v>0</v>
       </c>
       <c r="D78" t="s">
         <v>170</v>
@@ -4914,7 +4914,7 @@
         <v>245</v>
       </c>
       <c r="I78">
-        <v>2.1699999999999999E-4</v>
+        <v>1.1E-5</v>
       </c>
       <c r="J78" t="s">
         <v>170</v>
@@ -4928,7 +4928,7 @@
         <v>246</v>
       </c>
       <c r="C79">
-        <v>7.0199999999999997E-6</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>170</v>
@@ -4940,7 +4940,7 @@
         <v>246</v>
       </c>
       <c r="I79">
-        <v>8.7000000000000001E-5</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="J79" t="s">
         <v>170</v>
@@ -4966,7 +4966,7 @@
         <v>247</v>
       </c>
       <c r="I80">
-        <v>1.9000000000000001E-5</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="J80" t="s">
         <v>170</v>
@@ -4992,7 +4992,7 @@
         <v>248</v>
       </c>
       <c r="I81">
-        <v>3.4E-5</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="J81" t="s">
         <v>170</v>
@@ -5018,7 +5018,7 @@
         <v>249</v>
       </c>
       <c r="I82">
-        <v>2.8E-5</v>
+        <v>1.1E-5</v>
       </c>
       <c r="J82" t="s">
         <v>170</v>
@@ -5044,7 +5044,7 @@
         <v>250</v>
       </c>
       <c r="I83">
-        <v>2.0999999999999999E-5</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="J83" t="s">
         <v>170</v>
@@ -5070,7 +5070,7 @@
         <v>251</v>
       </c>
       <c r="I84">
-        <v>4.5700000000000003E-3</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="J84" t="s">
         <v>170</v>
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="C85">
-        <v>3.0495299999999999E-3</v>
+        <v>8.5470000000000007E-5</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -5096,7 +5096,7 @@
         <v>252</v>
       </c>
       <c r="I85">
-        <v>8.3200000000000006E-4</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>170</v>
@@ -5110,7 +5110,7 @@
         <v>253</v>
       </c>
       <c r="C86">
-        <v>5.5271699999999997E-3</v>
+        <v>2.1395E-4</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -5122,7 +5122,7 @@
         <v>253</v>
       </c>
       <c r="I86">
-        <v>1.1949999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>170</v>
@@ -5136,7 +5136,7 @@
         <v>254</v>
       </c>
       <c r="C87">
-        <v>5.1801559999999996E-2</v>
+        <v>3.5827999999999999E-4</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -5148,7 +5148,7 @@
         <v>254</v>
       </c>
       <c r="I87">
-        <v>1.5807000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>170</v>
@@ -5162,7 +5162,7 @@
         <v>255</v>
       </c>
       <c r="C88">
-        <v>5.3388200000000002E-3</v>
+        <v>4.1475000000000003E-4</v>
       </c>
       <c r="D88" t="s">
         <v>170</v>
@@ -5174,7 +5174,7 @@
         <v>255</v>
       </c>
       <c r="I88">
-        <v>1.531E-3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>170</v>
@@ -5188,7 +5188,7 @@
         <v>256</v>
       </c>
       <c r="C89">
-        <v>1.07004E-3</v>
+        <v>3.7001999999999998E-4</v>
       </c>
       <c r="D89" t="s">
         <v>170</v>
@@ -5200,7 +5200,7 @@
         <v>256</v>
       </c>
       <c r="I89">
-        <v>9.4699999999999993E-4</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>170</v>
@@ -5214,7 +5214,7 @@
         <v>257</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>2.1645E-4</v>
       </c>
       <c r="D90" t="s">
         <v>170</v>
@@ -5226,7 +5226,7 @@
         <v>257</v>
       </c>
       <c r="I90">
-        <v>6.8599999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>170</v>
@@ -5240,7 +5240,7 @@
         <v>258</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1.6401E-4</v>
       </c>
       <c r="D91" t="s">
         <v>170</v>
@@ -5252,7 +5252,7 @@
         <v>258</v>
       </c>
       <c r="I91">
-        <v>2.5869999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>170</v>
@@ -5266,7 +5266,7 @@
         <v>259</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>9.9510000000000001E-5</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -5278,7 +5278,7 @@
         <v>259</v>
       </c>
       <c r="I92">
-        <v>6.3690999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>170</v>
@@ -5292,7 +5292,7 @@
         <v>260</v>
       </c>
       <c r="C93">
-        <v>6.9079999999999999E-4</v>
+        <v>9.6210000000000002E-5</v>
       </c>
       <c r="D93" t="s">
         <v>170</v>
@@ -5304,7 +5304,7 @@
         <v>260</v>
       </c>
       <c r="I93">
-        <v>6.6660000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>170</v>
@@ -5318,7 +5318,7 @@
         <v>261</v>
       </c>
       <c r="C94">
-        <v>8.7109800000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D94" t="s">
         <v>170</v>
@@ -5330,7 +5330,7 @@
         <v>261</v>
       </c>
       <c r="I94">
-        <v>5.6349999999999994E-3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>170</v>
@@ -5344,7 +5344,7 @@
         <v>262</v>
       </c>
       <c r="C95">
-        <v>9.4399780000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D95" t="s">
         <v>170</v>
@@ -5356,7 +5356,7 @@
         <v>262</v>
       </c>
       <c r="I95">
-        <v>7.4008000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>170</v>
@@ -5370,7 +5370,7 @@
         <v>263</v>
       </c>
       <c r="C96">
-        <v>5.8707799999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="D96" t="s">
         <v>170</v>
@@ -5382,7 +5382,7 @@
         <v>263</v>
       </c>
       <c r="I96">
-        <v>1.0300999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>170</v>
@@ -5408,7 +5408,7 @@
         <v>264</v>
       </c>
       <c r="I97">
-        <v>1.0467000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>170</v>
@@ -5434,7 +5434,7 @@
         <v>265</v>
       </c>
       <c r="I98">
-        <v>1.0796E-2</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="J98" t="s">
         <v>170</v>
@@ -5460,7 +5460,7 @@
         <v>266</v>
       </c>
       <c r="I99">
-        <v>4.3207999999999996E-2</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="J99" t="s">
         <v>170</v>
@@ -5486,7 +5486,7 @@
         <v>267</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1.1E-5</v>
       </c>
       <c r="J100" t="s">
         <v>170</v>
@@ -5512,7 +5512,7 @@
         <v>268</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="J101" t="s">
         <v>170</v>
@@ -5538,7 +5538,7 @@
         <v>269</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="J102" t="s">
         <v>170</v>
@@ -5564,7 +5564,7 @@
         <v>270</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="J103" t="s">
         <v>170</v>
@@ -5590,7 +5590,7 @@
         <v>271</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="J104" t="s">
         <v>170</v>
@@ -5616,7 +5616,7 @@
         <v>272</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="J105" t="s">
         <v>170</v>
@@ -5642,7 +5642,7 @@
         <v>273</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1.1E-5</v>
       </c>
       <c r="J106" t="s">
         <v>170</v>
@@ -5668,7 +5668,7 @@
         <v>274</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="J107" t="s">
         <v>170</v>
@@ -5694,7 +5694,7 @@
         <v>275</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="J108" t="s">
         <v>170</v>
@@ -5708,7 +5708,7 @@
         <v>276</v>
       </c>
       <c r="C109">
-        <v>6.6769999999999999E-5</v>
+        <v>1.9436E-4</v>
       </c>
       <c r="D109" t="s">
         <v>170</v>
@@ -5720,7 +5720,7 @@
         <v>276</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="J109" t="s">
         <v>170</v>
@@ -5734,7 +5734,7 @@
         <v>277</v>
       </c>
       <c r="C110">
-        <v>3.7870000000000002E-5</v>
+        <v>3.3356999999999999E-4</v>
       </c>
       <c r="D110" t="s">
         <v>170</v>
@@ -5760,7 +5760,7 @@
         <v>278</v>
       </c>
       <c r="C111">
-        <v>5.2030000000000002E-5</v>
+        <v>3.8454E-4</v>
       </c>
       <c r="D111" t="s">
         <v>170</v>
@@ -5786,7 +5786,7 @@
         <v>279</v>
       </c>
       <c r="C112">
-        <v>3.3420000000000002E-5</v>
+        <v>3.8435999999999999E-4</v>
       </c>
       <c r="D112" t="s">
         <v>170</v>
@@ -5812,7 +5812,7 @@
         <v>280</v>
       </c>
       <c r="C113">
-        <v>4.6419999999999999E-5</v>
+        <v>3.9183000000000002E-4</v>
       </c>
       <c r="D113" t="s">
         <v>170</v>
@@ -5838,7 +5838,7 @@
         <v>281</v>
       </c>
       <c r="C114">
-        <v>3.82E-5</v>
+        <v>3.7409999999999999E-4</v>
       </c>
       <c r="D114" t="s">
         <v>170</v>
@@ -5864,7 +5864,7 @@
         <v>282</v>
       </c>
       <c r="C115">
-        <v>4.3800000000000001E-5</v>
+        <v>3.4467999999999999E-4</v>
       </c>
       <c r="D115" t="s">
         <v>170</v>
@@ -5890,7 +5890,7 @@
         <v>283</v>
       </c>
       <c r="C116">
-        <v>3.5679999999999997E-5</v>
+        <v>2.8624999999999999E-4</v>
       </c>
       <c r="D116" t="s">
         <v>170</v>
@@ -5916,7 +5916,7 @@
         <v>284</v>
       </c>
       <c r="C117">
-        <v>2.0600000000000002E-6</v>
+        <v>1.1833E-4</v>
       </c>
       <c r="D117" t="s">
         <v>170</v>
@@ -5980,7 +5980,7 @@
         <v>286</v>
       </c>
       <c r="I119">
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>170</v>
@@ -6006,7 +6006,7 @@
         <v>287</v>
       </c>
       <c r="I120">
-        <v>2.0999999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>170</v>
@@ -6032,7 +6032,7 @@
         <v>288</v>
       </c>
       <c r="I121">
-        <v>2.8E-5</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>170</v>
@@ -6058,7 +6058,7 @@
         <v>289</v>
       </c>
       <c r="I122">
-        <v>4.8999999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>170</v>
@@ -6084,7 +6084,7 @@
         <v>290</v>
       </c>
       <c r="I123">
-        <v>4.1999999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>170</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B65D52-3BBB-4944-8178-F05EC35E3D9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B8999D-F683-422E-B2EE-E14A0788A7B7}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6151,10 +6151,10 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4">
-        <v>0.10867579908675799</v>
+        <v>3.9726027397260277E-2</v>
       </c>
       <c r="C4">
-        <v>6.02351888223156E-2</v>
+        <v>8.4979572218216795E-3</v>
       </c>
       <c r="D4" t="s">
         <v>169</v>
@@ -6169,7 +6169,7 @@
         <v>169</v>
       </c>
       <c r="J4">
-        <v>9.5637272593812869E-2</v>
+        <v>3.323545561424586E-2</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -6178,15 +6178,15 @@
         <v>169</v>
       </c>
       <c r="O4">
-        <v>0.34306087678729402</v>
+        <v>0.24441819749666838</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>1.3584474885844749E-2</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C5">
-        <v>1.7356570453057541E-2</v>
+        <v>9.8053352559480909E-3</v>
       </c>
       <c r="D5" t="s">
         <v>172</v>
@@ -6201,7 +6201,7 @@
         <v>172</v>
       </c>
       <c r="J5">
-        <v>1.5977714799382259E-2</v>
+        <v>7.4504214747789345E-3</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -6210,15 +6210,15 @@
         <v>172</v>
       </c>
       <c r="O5">
-        <v>9.8190184102597167E-2</v>
+        <v>6.0774433985864018E-2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>1.3584474885844749E-2</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C6">
-        <v>1.719878344893884E-2</v>
+        <v>1.1055034847392457E-2</v>
       </c>
       <c r="D6" t="s">
         <v>173</v>
@@ -6233,7 +6233,7 @@
         <v>173</v>
       </c>
       <c r="J6">
-        <v>1.6194151819239718E-2</v>
+        <v>7.9697914747064707E-3</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -6242,15 +6242,15 @@
         <v>173</v>
       </c>
       <c r="O6">
-        <v>9.7574764638716394E-2</v>
+        <v>4.4763868067430712E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>9.5091324200913235E-2</v>
+        <v>2.6484018264840183E-2</v>
       </c>
       <c r="C7">
-        <v>0.13301444447206823</v>
+        <v>3.3165104542177366E-2</v>
       </c>
       <c r="D7" t="s">
         <v>174</v>
@@ -6265,7 +6265,7 @@
         <v>174</v>
       </c>
       <c r="J7">
-        <v>0.11156415422733415</v>
+        <v>3.3328713837854587E-2</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -6274,15 +6274,15 @@
         <v>174</v>
       </c>
       <c r="O7">
-        <v>0.14211670053086101</v>
+        <v>5.1015599517519439E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>1.3584474885844749E-2</v>
+        <v>1.9863013698630139E-2</v>
       </c>
       <c r="C8">
-        <v>2.6429323189883069E-2</v>
+        <v>2.5628454698389813E-2</v>
       </c>
       <c r="D8" t="s">
         <v>175</v>
@@ -6297,7 +6297,7 @@
         <v>175</v>
       </c>
       <c r="J8">
-        <v>1.6466664594003436E-2</v>
+        <v>2.4625694790542274E-2</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -6306,15 +6306,15 @@
         <v>175</v>
       </c>
       <c r="O8">
-        <v>0.11192032394396034</v>
+        <v>6.4399419750212239E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>1.3584474885844749E-2</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C9">
-        <v>2.0512310535431628E-2</v>
+        <v>9.9975967315549183E-3</v>
       </c>
       <c r="D9" t="s">
         <v>176</v>
@@ -6329,7 +6329,7 @@
         <v>176</v>
       </c>
       <c r="J9">
-        <v>1.6578489448932997E-2</v>
+        <v>8.2396835010989395E-3</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -6338,15 +6338,15 @@
         <v>176</v>
       </c>
       <c r="O9">
-        <v>0.10484358756883161</v>
+        <v>6.4022714539394343E-2</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>1.3584474885844749E-2</v>
+        <v>6.6210045662100456E-3</v>
       </c>
       <c r="C10">
-        <v>1.8539972983947824E-2</v>
+        <v>1.2881518865657292E-2</v>
       </c>
       <c r="D10" t="s">
         <v>177</v>
@@ -6361,7 +6361,7 @@
         <v>177</v>
       </c>
       <c r="J10">
-        <v>1.6201435847664102E-2</v>
+        <v>8.5053703152051692E-3</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -6370,15 +6370,15 @@
         <v>177</v>
       </c>
       <c r="O10">
-        <v>8.3643403365467162E-2</v>
+        <v>6.000768651165167E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>5.4337899543378997E-2</v>
+        <v>4.6347031963470321E-2</v>
       </c>
       <c r="C11">
-        <v>3.2740803354631261E-2</v>
+        <v>4.7873107426099501E-2</v>
       </c>
       <c r="D11" t="s">
         <v>178</v>
@@ -6393,7 +6393,7 @@
         <v>178</v>
       </c>
       <c r="J11">
-        <v>5.4843073587669842E-2</v>
+        <v>5.3880977182176069E-2</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -6402,7 +6402,7 @@
         <v>178</v>
       </c>
       <c r="O11">
-        <v>0.15333944224485196</v>
+        <v>0.15192825054436621</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -6425,7 +6425,7 @@
         <v>179</v>
       </c>
       <c r="J12">
-        <v>9.7656024168503314E-5</v>
+        <v>9.4838184132964588E-5</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -6457,7 +6457,7 @@
         <v>180</v>
       </c>
       <c r="J13">
-        <v>9.1731180429496098E-5</v>
+        <v>8.8624232049278322E-5</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -6489,7 +6489,7 @@
         <v>181</v>
       </c>
       <c r="J14">
-        <v>9.0522181897201848E-5</v>
+        <v>8.5582962449407696E-5</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -6521,7 +6521,7 @@
         <v>182</v>
       </c>
       <c r="J15">
-        <v>9.0409542282391824E-5</v>
+        <v>8.5710620679525724E-5</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -6553,7 +6553,7 @@
         <v>183</v>
       </c>
       <c r="J16">
-        <v>9.4686092991345684E-5</v>
+        <v>8.6251290830613849E-5</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -6585,7 +6585,7 @@
         <v>184</v>
       </c>
       <c r="J17">
-        <v>1.1030920756549591E-4</v>
+        <v>9.7616627964945175E-5</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -6617,7 +6617,7 @@
         <v>185</v>
       </c>
       <c r="J18">
-        <v>1.2797860847536157E-4</v>
+        <v>1.0350017051185539E-4</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -6649,7 +6649,7 @@
         <v>186</v>
       </c>
       <c r="J19">
-        <v>1.4066182910297016E-4</v>
+        <v>1.153573672975238E-4</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -6681,7 +6681,7 @@
         <v>187</v>
       </c>
       <c r="J20">
-        <v>1.4648905184247535E-4</v>
+        <v>1.2044492323310986E-4</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -6713,7 +6713,7 @@
         <v>188</v>
       </c>
       <c r="J21">
-        <v>1.4790455633525464E-4</v>
+        <v>1.2244239906907426E-4</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -6745,7 +6745,7 @@
         <v>189</v>
       </c>
       <c r="J22">
-        <v>1.4695838357085044E-4</v>
+        <v>1.2351998471742348E-4</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -6777,7 +6777,7 @@
         <v>190</v>
       </c>
       <c r="J23">
-        <v>1.4695838357085044E-4</v>
+        <v>1.2240860718463128E-4</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
@@ -6809,7 +6809,7 @@
         <v>191</v>
       </c>
       <c r="J24">
-        <v>1.4684949860986743E-4</v>
+        <v>1.2126343776739603E-4</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -6841,7 +6841,7 @@
         <v>192</v>
       </c>
       <c r="J25">
-        <v>1.4642897738124334E-4</v>
+        <v>1.2044867788693686E-4</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -6873,7 +6873,7 @@
         <v>193</v>
       </c>
       <c r="J26">
-        <v>1.462712819205093E-4</v>
+        <v>1.2044867788693686E-4</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -6905,7 +6905,7 @@
         <v>194</v>
       </c>
       <c r="J27">
-        <v>1.462712819205093E-4</v>
+        <v>1.2116957142172102E-4</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
@@ -6937,7 +6937,7 @@
         <v>195</v>
       </c>
       <c r="J28">
-        <v>1.4993206940183506E-4</v>
+        <v>1.2568641997560295E-4</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
@@ -6969,7 +6969,7 @@
         <v>196</v>
       </c>
       <c r="J29">
-        <v>1.5034508132280512E-4</v>
+        <v>1.2820203803969347E-4</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
@@ -7001,7 +7001,7 @@
         <v>197</v>
       </c>
       <c r="J30">
-        <v>1.5034508132280512E-4</v>
+        <v>1.2839352538487049E-4</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
@@ -7033,7 +7033,7 @@
         <v>198</v>
       </c>
       <c r="J31">
-        <v>1.4507730200352304E-4</v>
+        <v>1.2751869104317933E-4</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
@@ -7065,7 +7065,7 @@
         <v>199</v>
       </c>
       <c r="J32">
-        <v>1.331562761027956E-4</v>
+        <v>1.2463136225021571E-4</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -7097,7 +7097,7 @@
         <v>200</v>
       </c>
       <c r="J33">
-        <v>1.259435861011271E-4</v>
+        <v>1.2189046495650517E-4</v>
       </c>
       <c r="M33" t="s">
         <v>14</v>
@@ -7129,7 +7129,7 @@
         <v>201</v>
       </c>
       <c r="J34">
-        <v>1.1636921884227515E-4</v>
+        <v>1.1644997156118104E-4</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
@@ -7161,7 +7161,7 @@
         <v>202</v>
       </c>
       <c r="J35">
-        <v>1.0377235525268757E-4</v>
+        <v>9.9985814529782665E-5</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
@@ -7175,10 +7175,10 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36">
-        <v>2.8310502283105023E-2</v>
+        <v>2.1232876712328767E-2</v>
       </c>
       <c r="C36">
-        <v>1.5691519777241876E-2</v>
+        <v>4.5420116185598634E-3</v>
       </c>
       <c r="D36" t="s">
         <v>203</v>
@@ -7193,7 +7193,7 @@
         <v>203</v>
       </c>
       <c r="J36">
-        <v>2.222437365295438E-2</v>
+        <v>1.7233774972471562E-2</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
@@ -7202,7 +7202,7 @@
         <v>203</v>
       </c>
       <c r="O36">
-        <v>0.25570294585394771</v>
+        <v>0.18411223266929411</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.45">
@@ -7210,7 +7210,7 @@
         <v>3.5388127853881279E-3</v>
       </c>
       <c r="C37">
-        <v>4.521459529788099E-3</v>
+        <v>5.240782636799844E-3</v>
       </c>
       <c r="D37" t="s">
         <v>204</v>
@@ -7225,7 +7225,7 @@
         <v>204</v>
       </c>
       <c r="J37">
-        <v>3.6118323566833345E-3</v>
+        <v>3.5907938943877814E-3</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
@@ -7234,7 +7234,7 @@
         <v>204</v>
       </c>
       <c r="O37">
-        <v>5.8125160979488832E-2</v>
+        <v>0.10284472523922794</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.45">
@@ -7242,7 +7242,7 @@
         <v>3.5388127853881279E-3</v>
       </c>
       <c r="C38">
-        <v>4.4803553522445696E-3</v>
+        <v>5.9087255218821738E-3</v>
       </c>
       <c r="D38" t="s">
         <v>205</v>
@@ -7257,7 +7257,7 @@
         <v>205</v>
       </c>
       <c r="J38">
-        <v>3.6327607971150372E-3</v>
+        <v>3.9245676009928418E-3</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
@@ -7266,15 +7266,15 @@
         <v>205</v>
       </c>
       <c r="O38">
-        <v>4.6029864070935567E-2</v>
+        <v>9.6611285097571775E-2</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B39">
-        <v>2.4771689497716895E-2</v>
+        <v>1.4155251141552512E-2</v>
       </c>
       <c r="C39">
-        <v>3.4650821669194247E-2</v>
+        <v>1.7726176565646522E-2</v>
       </c>
       <c r="D39" t="s">
         <v>206</v>
@@ -7289,7 +7289,7 @@
         <v>206</v>
       </c>
       <c r="J39">
-        <v>2.5283085567897406E-2</v>
+        <v>1.6484277145423363E-2</v>
       </c>
       <c r="M39" t="s">
         <v>14</v>
@@ -7298,15 +7298,15 @@
         <v>206</v>
       </c>
       <c r="O39">
-        <v>5.4498886504424027E-2</v>
+        <v>9.269653544612444E-2</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B40">
-        <v>3.5388127853881279E-3</v>
+        <v>1.0616438356164383E-2</v>
       </c>
       <c r="C40">
-        <v>6.8849497385409693E-3</v>
+        <v>1.3697967166380762E-2</v>
       </c>
       <c r="D40" t="s">
         <v>207</v>
@@ -7321,7 +7321,7 @@
         <v>207</v>
       </c>
       <c r="J40">
-        <v>3.6148473437064162E-3</v>
+        <v>1.2152693805622157E-2</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
@@ -7330,7 +7330,7 @@
         <v>207</v>
       </c>
       <c r="O40">
-        <v>4.7914601537705437E-2</v>
+        <v>0.10160600853318824</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.45">
@@ -7353,7 +7353,7 @@
         <v>208</v>
       </c>
       <c r="J41">
-        <v>3.6407281725359328E-3</v>
+        <v>4.044930538725006E-3</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
@@ -7362,7 +7362,7 @@
         <v>208</v>
       </c>
       <c r="O41">
-        <v>4.9480570788225542E-2</v>
+        <v>9.9303173045867998E-2</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.45">
@@ -7370,7 +7370,7 @@
         <v>3.5388127853881279E-3</v>
       </c>
       <c r="C42">
-        <v>4.8297408613645603E-3</v>
+        <v>6.8849497385409693E-3</v>
       </c>
       <c r="D42" t="s">
         <v>209</v>
@@ -7385,7 +7385,7 @@
         <v>209</v>
       </c>
       <c r="J42">
-        <v>3.6289723514035927E-3</v>
+        <v>4.1221074481390067E-3</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
@@ -7394,15 +7394,15 @@
         <v>209</v>
       </c>
       <c r="O42">
-        <v>4.3997435752649805E-2</v>
+        <v>0.10502466320124371</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B43">
-        <v>1.4155251141552512E-2</v>
+        <v>2.4771689497716895E-2</v>
       </c>
       <c r="C43">
-        <v>8.5291168402820937E-3</v>
+        <v>2.5587350520846285E-2</v>
       </c>
       <c r="D43" t="s">
         <v>210</v>
@@ -7417,7 +7417,7 @@
         <v>210</v>
       </c>
       <c r="J43">
-        <v>1.2656213119754718E-2</v>
+        <v>2.6960003629715377E-2</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
@@ -7426,15 +7426,15 @@
         <v>210</v>
       </c>
       <c r="O43">
-        <v>0.13587286881185201</v>
+        <v>0.17364177036303841</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B44">
-        <v>8.4018264840182655E-2</v>
+        <v>6.2328767123287672E-2</v>
       </c>
       <c r="C44">
-        <v>4.6568381274395249E-2</v>
+        <v>1.3333001848030566E-2</v>
       </c>
       <c r="D44" t="s">
         <v>211</v>
@@ -7449,7 +7449,7 @@
         <v>211</v>
       </c>
       <c r="J44">
-        <v>6.8733981194657193E-2</v>
+        <v>4.6688308582243071E-2</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
@@ -7458,15 +7458,15 @@
         <v>211</v>
       </c>
       <c r="O44">
-        <v>0.31908500262902662</v>
+        <v>0.18160832031206042</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B45">
-        <v>1.0502283105022832E-2</v>
+        <v>1.0388127853881279E-2</v>
       </c>
       <c r="C45">
-        <v>1.3418525056145329E-2</v>
+        <v>1.5384232901573727E-2</v>
       </c>
       <c r="D45" t="s">
         <v>212</v>
@@ -7481,7 +7481,7 @@
         <v>212</v>
       </c>
       <c r="J45">
-        <v>1.1143904596471854E-2</v>
+        <v>9.3225806737747847E-3</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
@@ -7490,15 +7490,15 @@
         <v>212</v>
       </c>
       <c r="O45">
-        <v>0.11248562913077342</v>
+        <v>0.12958949699955613</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B46">
-        <v>1.0502283105022832E-2</v>
+        <v>1.0388127853881279E-2</v>
       </c>
       <c r="C46">
-        <v>1.3296538464725824E-2</v>
+        <v>1.7344968467460573E-2</v>
       </c>
       <c r="D46" t="s">
         <v>213</v>
@@ -7513,7 +7513,7 @@
         <v>213</v>
       </c>
       <c r="J46">
-        <v>1.1332587215240122E-2</v>
+        <v>1.0144575772158583E-2</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
@@ -7522,15 +7522,15 @@
         <v>213</v>
       </c>
       <c r="O46">
-        <v>0.1080926438499783</v>
+        <v>0.1225604369126978</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B47">
-        <v>7.3515981735159816E-2</v>
+        <v>4.1552511415525115E-2</v>
       </c>
       <c r="C47">
-        <v>0.102834696566641</v>
+        <v>5.2034905402381731E-2</v>
       </c>
       <c r="D47" t="s">
         <v>214</v>
@@ -7545,7 +7545,7 @@
         <v>214</v>
       </c>
       <c r="J47">
-        <v>8.0264521171134848E-2</v>
+        <v>4.3024764183885324E-2</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
@@ -7554,15 +7554,15 @@
         <v>214</v>
       </c>
       <c r="O47">
-        <v>0.12190236576881874</v>
+        <v>0.10962205204872255</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B48">
-        <v>1.0502283105022832E-2</v>
+        <v>3.1164383561643836E-2</v>
       </c>
       <c r="C48">
-        <v>2.0432754062766744E-2</v>
+        <v>4.021016168195643E-2</v>
       </c>
       <c r="D48" t="s">
         <v>215</v>
@@ -7577,7 +7577,7 @@
         <v>215</v>
       </c>
       <c r="J48">
-        <v>1.1328089139955375E-2</v>
+        <v>3.2088260581189562E-2</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
@@ -7586,15 +7586,15 @@
         <v>215</v>
       </c>
       <c r="O48">
-        <v>0.10525892719121965</v>
+        <v>0.11111548744311817</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B49">
-        <v>1.0502283105022832E-2</v>
+        <v>1.0388127853881279E-2</v>
       </c>
       <c r="C49">
-        <v>1.585825688453538E-2</v>
+        <v>1.5685884527094778E-2</v>
       </c>
       <c r="D49" t="s">
         <v>216</v>
@@ -7609,7 +7609,7 @@
         <v>216</v>
       </c>
       <c r="J49">
-        <v>1.1283784224796766E-2</v>
+        <v>1.0674518877262954E-2</v>
       </c>
       <c r="M49" t="s">
         <v>14</v>
@@ -7618,15 +7618,15 @@
         <v>216</v>
       </c>
       <c r="O49">
-        <v>9.8950746721504945E-2</v>
+        <v>0.11348384556414692</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B50">
-        <v>1.0502283105022832E-2</v>
+        <v>1.0388127853881279E-2</v>
       </c>
       <c r="C50">
-        <v>1.4333424491791596E-2</v>
+        <v>2.0210658909910584E-2</v>
       </c>
       <c r="D50" t="s">
         <v>217</v>
@@ -7641,7 +7641,7 @@
         <v>217</v>
       </c>
       <c r="J50">
-        <v>1.118136477770384E-2</v>
+        <v>1.0721339410485652E-2</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
@@ -7650,15 +7650,15 @@
         <v>217</v>
       </c>
       <c r="O50">
-        <v>0.1017212696744576</v>
+        <v>0.12094819316718164</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B51">
-        <v>4.2009132420091327E-2</v>
+        <v>7.2716894977168947E-2</v>
       </c>
       <c r="C51">
-        <v>2.5312217719546861E-2</v>
+        <v>7.5111254754742313E-2</v>
       </c>
       <c r="D51" t="s">
         <v>218</v>
@@ -7673,7 +7673,7 @@
         <v>218</v>
       </c>
       <c r="J51">
-        <v>4.0440764557710715E-2</v>
+        <v>6.9839023984401463E-2</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
@@ -7682,15 +7682,15 @@
         <v>218</v>
       </c>
       <c r="O51">
-        <v>0.21366778637469874</v>
+        <v>0.187193915264251</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B52">
-        <v>2.6484018264840183E-2</v>
+        <v>4.2465753424657533E-2</v>
       </c>
       <c r="C52">
-        <v>1.4679163662581112E-2</v>
+        <v>9.084023237119725E-3</v>
       </c>
       <c r="D52" t="s">
         <v>219</v>
@@ -7705,7 +7705,7 @@
         <v>219</v>
       </c>
       <c r="J52">
-        <v>2.0926491484631451E-2</v>
+        <v>3.347809782294308E-2</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
@@ -7714,15 +7714,15 @@
         <v>219</v>
       </c>
       <c r="O52">
-        <v>0.25794471552147735</v>
+        <v>0.16128706166777662</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B53">
-        <v>3.3105022831050228E-3</v>
+        <v>7.0776255707762558E-3</v>
       </c>
       <c r="C53">
-        <v>4.2297524633501575E-3</v>
+        <v>1.0481565273599685E-2</v>
       </c>
       <c r="D53" t="s">
         <v>220</v>
@@ -7737,7 +7737,7 @@
         <v>220</v>
       </c>
       <c r="J53">
-        <v>3.3789692311667137E-3</v>
+        <v>6.5008960478040818E-3</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
@@ -7746,15 +7746,15 @@
         <v>220</v>
       </c>
       <c r="O53">
-        <v>6.9782073606969641E-2</v>
+        <v>0.11018694794458894</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B54">
-        <v>3.3105022831050228E-3</v>
+        <v>7.0776255707762558E-3</v>
       </c>
       <c r="C54">
-        <v>4.1913001682287914E-3</v>
+        <v>1.1817451043764349E-2</v>
       </c>
       <c r="D54" t="s">
         <v>221</v>
@@ -7769,7 +7769,7 @@
         <v>221</v>
       </c>
       <c r="J54">
-        <v>3.4132905217993275E-3</v>
+        <v>7.1428367219140577E-3</v>
       </c>
       <c r="M54" t="s">
         <v>14</v>
@@ -7778,15 +7778,15 @@
         <v>221</v>
       </c>
       <c r="O54">
-        <v>6.8392584217816799E-2</v>
+        <v>0.11946822915964916</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B55">
-        <v>2.3173515981735161E-2</v>
+        <v>2.8310502283105023E-2</v>
       </c>
       <c r="C55">
-        <v>3.241528478731074E-2</v>
+        <v>3.5452353131293045E-2</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -7801,7 +7801,7 @@
         <v>222</v>
       </c>
       <c r="J55">
-        <v>2.401825135772577E-2</v>
+        <v>3.1475091027151472E-2</v>
       </c>
       <c r="M55" t="s">
         <v>14</v>
@@ -7810,15 +7810,15 @@
         <v>222</v>
       </c>
       <c r="O55">
-        <v>8.7831265622266841E-2</v>
+        <v>9.5473321208822348E-2</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B56">
-        <v>3.3105022831050228E-3</v>
+        <v>2.1232876712328767E-2</v>
       </c>
       <c r="C56">
-        <v>6.4407594328286487E-3</v>
+        <v>2.7395934332761527E-2</v>
       </c>
       <c r="D56" t="s">
         <v>223</v>
@@ -7833,7 +7833,7 @@
         <v>223</v>
       </c>
       <c r="J56">
-        <v>3.4109814096957222E-3</v>
+        <v>2.3930082069865879E-2</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
@@ -7842,15 +7842,15 @@
         <v>223</v>
       </c>
       <c r="O56">
-        <v>7.695056286306623E-2</v>
+        <v>9.3590619157332577E-2</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B57">
-        <v>3.3105022831050228E-3</v>
+        <v>7.0776255707762558E-3</v>
       </c>
       <c r="C57">
-        <v>4.9987983657774574E-3</v>
+        <v>1.0687086161317328E-2</v>
       </c>
       <c r="D57" t="s">
         <v>224</v>
@@ -7865,7 +7865,7 @@
         <v>224</v>
       </c>
       <c r="J57">
-        <v>3.4153217895197354E-3</v>
+        <v>7.910396849113998E-3</v>
       </c>
       <c r="M57" t="s">
         <v>14</v>
@@ -7874,15 +7874,15 @@
         <v>224</v>
       </c>
       <c r="O57">
-        <v>6.3602885305229506E-2</v>
+        <v>8.7207789916946998E-2</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B58">
-        <v>3.3105022831050228E-3</v>
+        <v>7.0776255707762558E-3</v>
       </c>
       <c r="C58">
-        <v>4.5181446767603951E-3</v>
+        <v>1.376989947708193E-2</v>
       </c>
       <c r="D58" t="s">
         <v>225</v>
@@ -7897,7 +7897,7 @@
         <v>225</v>
       </c>
       <c r="J58">
-        <v>3.3920729730229464E-3</v>
+        <v>7.9030189543439419E-3</v>
       </c>
       <c r="M58" t="s">
         <v>14</v>
@@ -7906,15 +7906,15 @@
         <v>225</v>
       </c>
       <c r="O58">
-        <v>5.8839102639275387E-2</v>
+        <v>8.5486864648772087E-2</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B59">
-        <v>1.3242009132420091E-2</v>
+        <v>4.954337899543379E-2</v>
       </c>
       <c r="C59">
-        <v>7.9788512376832502E-3</v>
+        <v>5.1174701041692569E-2</v>
       </c>
       <c r="D59" t="s">
         <v>226</v>
@@ -7929,7 +7929,7 @@
         <v>226</v>
       </c>
       <c r="J59">
-        <v>1.2073654315254628E-2</v>
+        <v>5.1262359402727414E-2</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
@@ -7938,15 +7938,15 @@
         <v>226</v>
       </c>
       <c r="O59">
-        <v>0.15280096443499747</v>
+        <v>0.14609653289670033</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B60">
-        <v>1.1415525114155251E-4</v>
+        <v>2.0547945205479451E-2</v>
       </c>
       <c r="C60">
-        <v>2.1546544680075254E-5</v>
+        <v>4.3954951147353507E-3</v>
       </c>
       <c r="D60" t="s">
         <v>227</v>
@@ -7961,7 +7961,7 @@
         <v>227</v>
       </c>
       <c r="J60">
-        <v>8.8236645643375786E-5</v>
+        <v>1.5380279853562341E-2</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
@@ -7970,15 +7970,15 @@
         <v>227</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.12693651119786309</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B61">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C61">
-        <v>1.4916838624667481E-5</v>
+        <v>5.0717251323869452E-3</v>
       </c>
       <c r="D61" t="s">
         <v>228</v>
@@ -7993,7 +7993,7 @@
         <v>228</v>
       </c>
       <c r="J61">
-        <v>8.6272961691854382E-5</v>
+        <v>3.0193657869407461E-3</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
@@ -8002,15 +8002,15 @@
         <v>228</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>7.6132873246628652E-2</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B62">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C62">
-        <v>1.6574265138519424E-5</v>
+        <v>5.7181214727892006E-3</v>
       </c>
       <c r="D62" t="s">
         <v>229</v>
@@ -8025,7 +8025,7 @@
         <v>229</v>
       </c>
       <c r="J62">
-        <v>8.5747310156074263E-5</v>
+        <v>3.293789680502405E-3</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
@@ -8034,15 +8034,15 @@
         <v>229</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>8.0067961524600051E-2</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B63">
-        <v>1.1415525114155251E-4</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="C63">
-        <v>1.4585353321897093E-5</v>
+        <v>1.7154364418367603E-2</v>
       </c>
       <c r="D63" t="s">
         <v>230</v>
@@ -8057,7 +8057,7 @@
         <v>230</v>
       </c>
       <c r="J63">
-        <v>8.5946306808905301E-5</v>
+        <v>1.4171103177544537E-2</v>
       </c>
       <c r="M63" t="s">
         <v>14</v>
@@ -8066,15 +8066,15 @@
         <v>230</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>8.4070287392908449E-2</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B64">
-        <v>1.1415525114155251E-4</v>
+        <v>1.0273972602739725E-2</v>
       </c>
       <c r="C64">
-        <v>2.1215059377304864E-5</v>
+        <v>1.3256097257787832E-2</v>
       </c>
       <c r="D64" t="s">
         <v>231</v>
@@ -8089,7 +8089,7 @@
         <v>231</v>
       </c>
       <c r="J64">
-        <v>9.0662152015618267E-5</v>
+        <v>1.0684444439256757E-2</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
@@ -8098,15 +8098,15 @@
         <v>231</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>8.4884244899621653E-2</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B65">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C65">
-        <v>5.7678442682047593E-5</v>
+        <v>5.1711707232180593E-3</v>
       </c>
       <c r="D65" t="s">
         <v>232</v>
@@ -8121,7 +8121,7 @@
         <v>232</v>
       </c>
       <c r="J65">
-        <v>9.9797224776711153E-5</v>
+        <v>3.5435342344591883E-3</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
@@ -8130,15 +8130,15 @@
         <v>232</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>7.4527974724206247E-2</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B66">
-        <v>1.1415525114155251E-4</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="C66">
-        <v>1.6905750441289813E-4</v>
+        <v>6.662854585684809E-3</v>
       </c>
       <c r="D66" t="s">
         <v>233</v>
@@ -8153,7 +8153,7 @@
         <v>233</v>
       </c>
       <c r="J66">
-        <v>1.103177647999673E-4</v>
+        <v>3.5562437376635862E-3</v>
       </c>
       <c r="M66" t="s">
         <v>14</v>
@@ -8162,15 +8162,15 @@
         <v>233</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>7.5617800540017877E-2</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B67">
-        <v>1.1415525114155251E-4</v>
+        <v>2.3972602739726026E-2</v>
       </c>
       <c r="C67">
-        <v>1.9060404909297337E-4</v>
+        <v>2.4761952116948018E-2</v>
       </c>
       <c r="D67" t="s">
         <v>234</v>
@@ -8185,7 +8185,7 @@
         <v>234</v>
       </c>
       <c r="J67">
-        <v>1.1996347048153229E-4</v>
+        <v>2.310523313296069E-2</v>
       </c>
       <c r="M67" t="s">
         <v>14</v>
@@ -8194,15 +8194,15 @@
         <v>234</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.13588515057549277</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B68">
-        <v>1.1415525114155251E-4</v>
+        <v>6.1643835616438353E-2</v>
       </c>
       <c r="C68">
-        <v>1.4585353321897094E-4</v>
+        <v>1.3186485344206054E-2</v>
       </c>
       <c r="D68" t="s">
         <v>235</v>
@@ -8217,7 +8217,7 @@
         <v>235</v>
       </c>
       <c r="J68">
-        <v>1.2475065411095827E-4</v>
+        <v>4.8167345894840605E-2</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
@@ -8226,15 +8226,15 @@
         <v>235</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.26626121495407085</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B69">
-        <v>1.1415525114155251E-4</v>
+        <v>1.0273972602739725E-2</v>
       </c>
       <c r="C69">
-        <v>1.4452759200788939E-4</v>
+        <v>1.5215175397160829E-2</v>
       </c>
       <c r="D69" t="s">
         <v>236</v>
@@ -8249,7 +8249,7 @@
         <v>236</v>
       </c>
       <c r="J69">
-        <v>1.2549032091487743E-4</v>
+        <v>9.9246701316758733E-3</v>
       </c>
       <c r="M69" t="s">
         <v>14</v>
@@ -8258,15 +8258,15 @@
         <v>236</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.17478904211468205</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B70">
-        <v>1.1415525114155251E-4</v>
+        <v>1.0273972602739725E-2</v>
       </c>
       <c r="C70">
-        <v>1.408812536774151E-4</v>
+        <v>1.7154364418367599E-2</v>
       </c>
       <c r="D70" t="s">
         <v>237</v>
@@ -8281,7 +8281,7 @@
         <v>237</v>
       </c>
       <c r="J70">
-        <v>1.2843396951524603E-4</v>
+        <v>1.0722211169684415E-2</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
@@ -8290,15 +8290,15 @@
         <v>237</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.14877515541559494</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B71">
-        <v>1.1415525114155251E-4</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="C71">
-        <v>1.4054976837464471E-4</v>
+        <v>5.1463093255102815E-2</v>
       </c>
       <c r="D71" t="s">
         <v>238</v>
@@ -8313,7 +8313,7 @@
         <v>238</v>
       </c>
       <c r="J71">
-        <v>1.2819742632414496E-4</v>
+        <v>4.5670172084857366E-2</v>
       </c>
       <c r="M71" t="s">
         <v>14</v>
@@ -8322,15 +8322,15 @@
         <v>238</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.14711315932462621</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B72">
-        <v>1.1415525114155251E-4</v>
+        <v>3.0821917808219176E-2</v>
       </c>
       <c r="C72">
-        <v>1.4253868019126702E-4</v>
+        <v>3.9768291773363502E-2</v>
       </c>
       <c r="D72" t="s">
         <v>239</v>
@@ -8345,7 +8345,7 @@
         <v>239</v>
       </c>
       <c r="J72">
-        <v>1.286817766678281E-4</v>
+        <v>3.3821722462533461E-2</v>
       </c>
       <c r="M72" t="s">
         <v>14</v>
@@ -8354,15 +8354,15 @@
         <v>239</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.13692850589148886</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B73">
-        <v>1.1415525114155251E-4</v>
+        <v>1.0273972602739725E-2</v>
       </c>
       <c r="C73">
-        <v>1.4883690094390442E-4</v>
+        <v>1.5513512169654176E-2</v>
       </c>
       <c r="D73" t="s">
         <v>240</v>
@@ -8377,7 +8377,7 @@
         <v>240</v>
       </c>
       <c r="J73">
-        <v>1.287718883596761E-4</v>
+        <v>1.1298073691093004E-2</v>
       </c>
       <c r="M73" t="s">
         <v>14</v>
@@ -8386,15 +8386,15 @@
         <v>240</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.1339250869957993</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B74">
-        <v>1.1415525114155251E-4</v>
+        <v>1.0273972602739725E-2</v>
       </c>
       <c r="C74">
-        <v>1.5049432745775637E-4</v>
+        <v>1.9988563757054423E-2</v>
       </c>
       <c r="D74" t="s">
         <v>241</v>
@@ -8409,7 +8409,7 @@
         <v>241</v>
       </c>
       <c r="J74">
-        <v>1.278182062876179E-4</v>
+        <v>1.1524479316861151E-2</v>
       </c>
       <c r="M74" t="s">
         <v>14</v>
@@ -8418,15 +8418,15 @@
         <v>241</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.13908427169450377</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B75">
-        <v>1.1415525114155251E-4</v>
+        <v>7.1917808219178078E-2</v>
       </c>
       <c r="C75">
-        <v>1.7237235744060203E-4</v>
+        <v>7.4285856350844046E-2</v>
       </c>
       <c r="D75" t="s">
         <v>242</v>
@@ -8441,7 +8441,7 @@
         <v>242</v>
       </c>
       <c r="J75">
-        <v>1.2602723641213853E-4</v>
+        <v>7.5419566969395183E-2</v>
       </c>
       <c r="M75" t="s">
         <v>14</v>
@@ -8450,7 +8450,7 @@
         <v>242</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.22507307721375902</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.45">
@@ -8458,7 +8458,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C76">
-        <v>2.2209515285616027E-4</v>
+        <v>2.1546544680075254E-5</v>
       </c>
       <c r="D76" t="s">
         <v>243</v>
@@ -8473,7 +8473,7 @@
         <v>243</v>
       </c>
       <c r="J76">
-        <v>1.2664299963976666E-4</v>
+        <v>9.4180086462825584E-5</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
@@ -8490,7 +8490,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C77">
-        <v>2.2209515285616027E-4</v>
+        <v>1.4916838624667481E-5</v>
       </c>
       <c r="D77" t="s">
         <v>244</v>
@@ -8505,7 +8505,7 @@
         <v>244</v>
       </c>
       <c r="J77">
-        <v>1.2619244118052656E-4</v>
+        <v>8.9377884218091576E-5</v>
       </c>
       <c r="M77" t="s">
         <v>14</v>
@@ -8522,7 +8522,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C78">
-        <v>1.7237235744060203E-4</v>
+        <v>1.6574265138519424E-5</v>
       </c>
       <c r="D78" t="s">
         <v>245</v>
@@ -8537,7 +8537,7 @@
         <v>245</v>
       </c>
       <c r="J78">
-        <v>1.2586954095140452E-4</v>
+        <v>8.816888568579734E-5</v>
       </c>
       <c r="M78" t="s">
         <v>14</v>
@@ -8554,7 +8554,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C79">
-        <v>1.5579809230208258E-4</v>
+        <v>1.4585353321897093E-5</v>
       </c>
       <c r="D79" t="s">
         <v>246</v>
@@ -8569,7 +8569,7 @@
         <v>246</v>
       </c>
       <c r="J79">
-        <v>1.244277538818362E-4</v>
+        <v>8.816888568579734E-5</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
@@ -8586,7 +8586,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C80">
-        <v>1.093901499142282E-4</v>
+        <v>2.1215059377304864E-5</v>
       </c>
       <c r="D80" t="s">
         <v>247</v>
@@ -8601,7 +8601,7 @@
         <v>247</v>
       </c>
       <c r="J80">
-        <v>1.2311737969621293E-4</v>
+        <v>9.3691981465315481E-5</v>
       </c>
       <c r="M80" t="s">
         <v>14</v>
@@ -8618,7 +8618,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C81">
-        <v>7.9556472664893237E-5</v>
+        <v>5.7678442682047593E-5</v>
       </c>
       <c r="D81" t="s">
         <v>248</v>
@@ -8633,7 +8633,7 @@
         <v>248</v>
       </c>
       <c r="J81">
-        <v>1.1831517745147895E-4</v>
+        <v>1.1594956935177605E-4</v>
       </c>
       <c r="M81" t="s">
         <v>14</v>
@@ -8650,7 +8650,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C82">
-        <v>5.6352501470966035E-5</v>
+        <v>1.6905750441289813E-4</v>
       </c>
       <c r="D82" t="s">
         <v>249</v>
@@ -8665,7 +8665,7 @@
         <v>249</v>
       </c>
       <c r="J82">
-        <v>1.0144927246059148E-4</v>
+        <v>1.3471908383295292E-4</v>
       </c>
       <c r="M82" t="s">
         <v>14</v>
@@ -8682,7 +8682,7 @@
         <v>1.1415525114155251E-4</v>
       </c>
       <c r="C83">
-        <v>2.9833677249334962E-5</v>
+        <v>1.9060404909297337E-4</v>
       </c>
       <c r="D83" t="s">
         <v>250</v>
@@ -8697,7 +8697,7 @@
         <v>250</v>
       </c>
       <c r="J83">
-        <v>9.3831079845606923E-5</v>
+        <v>1.409743371087362E-4</v>
       </c>
       <c r="M83" t="s">
         <v>14</v>
@@ -8711,10 +8711,10 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B84">
-        <v>2.8310502283105023E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C84">
-        <v>1.5691519777241876E-2</v>
+        <v>1.4585353321897094E-4</v>
       </c>
       <c r="D84" t="s">
         <v>251</v>
@@ -8729,7 +8729,7 @@
         <v>251</v>
       </c>
       <c r="J84">
-        <v>2.2208885187742982E-2</v>
+        <v>1.469217087707054E-4</v>
       </c>
       <c r="M84" t="s">
         <v>14</v>
@@ -8738,15 +8738,15 @@
         <v>251</v>
       </c>
       <c r="O84">
-        <v>0.2702741534185984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B85">
-        <v>3.5388127853881279E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C85">
-        <v>4.521459529788099E-3</v>
+        <v>1.4452759200788939E-4</v>
       </c>
       <c r="D85" t="s">
         <v>252</v>
@@ -8761,7 +8761,7 @@
         <v>252</v>
       </c>
       <c r="J85">
-        <v>3.6092106048767536E-3</v>
+        <v>1.4798052114991964E-4</v>
       </c>
       <c r="M85" t="s">
         <v>14</v>
@@ -8770,15 +8770,15 @@
         <v>252</v>
       </c>
       <c r="O85">
-        <v>6.6028529342583964E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B86">
-        <v>3.5388127853881279E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C86">
-        <v>4.4803553522445696E-3</v>
+        <v>1.408812536774151E-4</v>
       </c>
       <c r="D86" t="s">
         <v>253</v>
@@ -8793,7 +8793,7 @@
         <v>253</v>
       </c>
       <c r="J86">
-        <v>3.6518409444285206E-3</v>
+        <v>1.4583661381470218E-4</v>
       </c>
       <c r="M86" t="s">
         <v>14</v>
@@ -8802,15 +8802,15 @@
         <v>253</v>
       </c>
       <c r="O86">
-        <v>4.5602597788904742E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B87">
-        <v>2.4771689497716895E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C87">
-        <v>3.4650821669194247E-2</v>
+        <v>1.4054976837464471E-4</v>
       </c>
       <c r="D87" t="s">
         <v>254</v>
@@ -8825,7 +8825,7 @@
         <v>254</v>
       </c>
       <c r="J87">
-        <v>2.5395372730508004E-2</v>
+        <v>1.4373776232540875E-4</v>
       </c>
       <c r="M87" t="s">
         <v>14</v>
@@ -8834,15 +8834,15 @@
         <v>254</v>
       </c>
       <c r="O87">
-        <v>4.8022446350836301E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B88">
-        <v>3.5388127853881279E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C88">
-        <v>6.8849497385409693E-3</v>
+        <v>1.4253868019126702E-4</v>
       </c>
       <c r="D88" t="s">
         <v>255</v>
@@ -8857,7 +8857,7 @@
         <v>255</v>
       </c>
       <c r="J88">
-        <v>3.6356396131650122E-3</v>
+        <v>1.4323463871259066E-4</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
@@ -8866,15 +8866,15 @@
         <v>255</v>
       </c>
       <c r="O88">
-        <v>4.6773277388272305E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B89">
-        <v>3.5388127853881279E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C89">
-        <v>5.3435430806586613E-3</v>
+        <v>1.4883690094390442E-4</v>
       </c>
       <c r="D89" t="s">
         <v>256</v>
@@ -8889,7 +8889,7 @@
         <v>256</v>
       </c>
       <c r="J89">
-        <v>3.6598308477723781E-3</v>
+        <v>1.4178158768154135E-4</v>
       </c>
       <c r="M89" t="s">
         <v>14</v>
@@ -8898,15 +8898,15 @@
         <v>256</v>
       </c>
       <c r="O89">
-        <v>4.8932354988667104E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B90">
-        <v>3.5388127853881279E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C90">
-        <v>4.8297408613645603E-3</v>
+        <v>1.5049432745775637E-4</v>
       </c>
       <c r="D90" t="s">
         <v>257</v>
@@ -8921,7 +8921,7 @@
         <v>257</v>
       </c>
       <c r="J90">
-        <v>3.6504892690508001E-3</v>
+        <v>1.4162389222080734E-4</v>
       </c>
       <c r="M90" t="s">
         <v>14</v>
@@ -8930,15 +8930,15 @@
         <v>257</v>
       </c>
       <c r="O90">
-        <v>5.1191834035870798E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91">
-        <v>1.4155251141552512E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C91">
-        <v>8.5291168402820937E-3</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D91" t="s">
         <v>258</v>
@@ -8953,7 +8953,7 @@
         <v>258</v>
       </c>
       <c r="J91">
-        <v>1.2860939115238251E-2</v>
+        <v>1.4207820533387443E-4</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
@@ -8962,15 +8962,15 @@
         <v>258</v>
       </c>
       <c r="O91">
-        <v>0.15790657199061053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92">
-        <v>5.4794520547945202E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C92">
-        <v>3.0370683439822986E-2</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D92" t="s">
         <v>259</v>
@@ -8985,7 +8985,7 @@
         <v>259</v>
       </c>
       <c r="J92">
-        <v>4.7516658854555714E-2</v>
+        <v>1.4678654123293338E-4</v>
       </c>
       <c r="M92" t="s">
         <v>14</v>
@@ -8994,15 +8994,15 @@
         <v>259</v>
       </c>
       <c r="O92">
-        <v>0.33106447714683584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93">
-        <v>6.8493150684931503E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C93">
-        <v>8.7512119931382575E-3</v>
+        <v>2.2209515285616027E-4</v>
       </c>
       <c r="D93" t="s">
         <v>260</v>
@@ -9017,7 +9017,7 @@
         <v>260</v>
       </c>
       <c r="J93">
-        <v>7.8654625762837101E-3</v>
+        <v>1.5042104613747015E-4</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
@@ -9026,15 +9026,15 @@
         <v>260</v>
       </c>
       <c r="O93">
-        <v>0.10552172782905189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94">
-        <v>6.8493150684931503E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C94">
-        <v>8.6716555204733627E-3</v>
+        <v>1.7237235744060203E-4</v>
       </c>
       <c r="D94" t="s">
         <v>261</v>
@@ -9049,7 +9049,7 @@
         <v>261</v>
       </c>
       <c r="J94">
-        <v>8.0370577654852986E-3</v>
+        <v>1.5084156736609424E-4</v>
       </c>
       <c r="M94" t="s">
         <v>14</v>
@@ -9058,15 +9058,15 @@
         <v>261</v>
       </c>
       <c r="O94">
-        <v>9.7709071623431454E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B95">
-        <v>4.7945205479452052E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C95">
-        <v>6.7066106456504987E-2</v>
+        <v>1.5579809230208258E-4</v>
       </c>
       <c r="D95" t="s">
         <v>262</v>
@@ -9081,7 +9081,7 @@
         <v>262</v>
       </c>
       <c r="J95">
-        <v>5.5134656503326926E-2</v>
+        <v>1.4557378804681213E-4</v>
       </c>
       <c r="M95" t="s">
         <v>14</v>
@@ -9090,15 +9090,15 @@
         <v>262</v>
       </c>
       <c r="O95">
-        <v>0.11676306554011973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B96">
-        <v>6.8493150684931503E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C96">
-        <v>1.3325709171369611E-2</v>
+        <v>1.093901499142282E-4</v>
       </c>
       <c r="D96" t="s">
         <v>263</v>
@@ -9113,7 +9113,7 @@
         <v>263</v>
       </c>
       <c r="J96">
-        <v>8.2460605707652974E-3</v>
+        <v>1.3310082803351557E-4</v>
       </c>
       <c r="M96" t="s">
         <v>14</v>
@@ -9122,15 +9122,15 @@
         <v>263</v>
       </c>
       <c r="O96">
-        <v>8.8039528875173634E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B97">
-        <v>6.8493150684931503E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C97">
-        <v>1.0342341446436122E-2</v>
+        <v>7.9556472664893237E-5</v>
       </c>
       <c r="D97" t="s">
         <v>264</v>
@@ -9145,7 +9145,7 @@
         <v>264</v>
       </c>
       <c r="J97">
-        <v>8.3052902348862354E-3</v>
+        <v>1.2568914137901606E-4</v>
       </c>
       <c r="M97" t="s">
         <v>14</v>
@@ -9154,15 +9154,15 @@
         <v>264</v>
       </c>
       <c r="O97">
-        <v>8.8465412279955302E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B98">
-        <v>6.8493150684931503E-3</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C98">
-        <v>9.347885538124958E-3</v>
+        <v>5.6352501470966035E-5</v>
       </c>
       <c r="D98" t="s">
         <v>265</v>
@@ -9177,7 +9177,7 @@
         <v>265</v>
       </c>
       <c r="J98">
-        <v>8.1097103170377632E-3</v>
+        <v>1.1588198558289005E-4</v>
       </c>
       <c r="M98" t="s">
         <v>14</v>
@@ -9186,15 +9186,15 @@
         <v>265</v>
       </c>
       <c r="O98">
-        <v>7.162805207436107E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B99">
-        <v>2.7397260273972601E-2</v>
+        <v>1.1415525114155251E-4</v>
       </c>
       <c r="C99">
-        <v>1.6507968077965344E-2</v>
+        <v>2.9833677249334962E-5</v>
       </c>
       <c r="D99" t="s">
         <v>266</v>
@@ -9209,7 +9209,7 @@
         <v>266</v>
       </c>
       <c r="J99">
-        <v>2.7920633529583759E-2</v>
+        <v>1.0040530250799286E-4</v>
       </c>
       <c r="M99" t="s">
         <v>14</v>
@@ -9218,7 +9218,7 @@
         <v>266</v>
       </c>
       <c r="O99">
-        <v>0.12432585612950642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.45">
@@ -9241,7 +9241,7 @@
         <v>267</v>
       </c>
       <c r="J100">
-        <v>9.5087715240819892E-5</v>
+        <v>9.371450938827748E-5</v>
       </c>
       <c r="M100" t="s">
         <v>14</v>
@@ -9273,7 +9273,7 @@
         <v>268</v>
       </c>
       <c r="J101">
-        <v>8.9305548347238709E-5</v>
+        <v>8.9561862255614638E-5</v>
       </c>
       <c r="M101" t="s">
         <v>14</v>
@@ -9305,7 +9305,7 @@
         <v>269</v>
       </c>
       <c r="J102">
-        <v>8.7345619049544317E-5</v>
+        <v>8.9554352947960629E-5</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
@@ -9337,7 +9337,7 @@
         <v>270</v>
       </c>
       <c r="J103">
-        <v>8.7345619049544317E-5</v>
+        <v>8.9197660834395553E-5</v>
       </c>
       <c r="M103" t="s">
         <v>14</v>
@@ -9369,7 +9369,7 @@
         <v>271</v>
       </c>
       <c r="J104">
-        <v>8.9485771730934746E-5</v>
+        <v>9.5422876879562839E-5</v>
       </c>
       <c r="M104" t="s">
         <v>14</v>
@@ -9401,7 +9401,7 @@
         <v>272</v>
       </c>
       <c r="J105">
-        <v>9.9593299833220813E-5</v>
+        <v>1.2009470717678492E-4</v>
       </c>
       <c r="M105" t="s">
         <v>14</v>
@@ -9433,7 +9433,7 @@
         <v>273</v>
       </c>
       <c r="J106">
-        <v>1.1424020441235083E-4</v>
+        <v>1.3439993825765787E-4</v>
       </c>
       <c r="M106" t="s">
         <v>14</v>
@@ -9465,7 +9465,7 @@
         <v>274</v>
       </c>
       <c r="J107">
-        <v>1.2458427570573796E-4</v>
+        <v>1.4112827791564321E-4</v>
       </c>
       <c r="M107" t="s">
         <v>14</v>
@@ -9497,7 +9497,7 @@
         <v>275</v>
       </c>
       <c r="J108">
-        <v>1.331035852392027E-4</v>
+        <v>1.4727464623044351E-4</v>
       </c>
       <c r="M108" t="s">
         <v>14</v>
@@ -9529,7 +9529,7 @@
         <v>276</v>
       </c>
       <c r="J109">
-        <v>1.3692957748891649E-4</v>
+        <v>1.4936223375825591E-4</v>
       </c>
       <c r="M109" t="s">
         <v>14</v>
@@ -9561,7 +9561,7 @@
         <v>277</v>
       </c>
       <c r="J110">
-        <v>1.359270849171073E-4</v>
+        <v>1.4661382715689135E-4</v>
       </c>
       <c r="M110" t="s">
         <v>14</v>
@@ -9593,7 +9593,7 @@
         <v>278</v>
       </c>
       <c r="J111">
-        <v>1.359270849171073E-4</v>
+        <v>1.4431597901476688E-4</v>
       </c>
       <c r="M111" t="s">
         <v>14</v>
@@ -9625,7 +9625,7 @@
         <v>279</v>
       </c>
       <c r="J112">
-        <v>1.3538266011219217E-4</v>
+        <v>1.4178158768154135E-4</v>
       </c>
       <c r="M112" t="s">
         <v>14</v>
@@ -9657,7 +9657,7 @@
         <v>280</v>
       </c>
       <c r="J113">
-        <v>1.3504474126776209E-4</v>
+        <v>1.4017084118975805E-4</v>
       </c>
       <c r="M113" t="s">
         <v>14</v>
@@ -9689,7 +9689,7 @@
         <v>281</v>
       </c>
       <c r="J114">
-        <v>1.3488329115320105E-4</v>
+        <v>1.3910827415671682E-4</v>
       </c>
       <c r="M114" t="s">
         <v>14</v>
@@ -9721,7 +9721,7 @@
         <v>282</v>
       </c>
       <c r="J115">
-        <v>1.3463923865444601E-4</v>
+        <v>1.4162389222080734E-4</v>
       </c>
       <c r="M115" t="s">
         <v>14</v>
@@ -9753,7 +9753,7 @@
         <v>283</v>
       </c>
       <c r="J116">
-        <v>1.356454858800822E-4</v>
+        <v>1.4640356654257929E-4</v>
       </c>
       <c r="M116" t="s">
         <v>14</v>
@@ -9785,7 +9785,7 @@
         <v>284</v>
       </c>
       <c r="J117">
-        <v>1.3530756703565217E-4</v>
+        <v>1.5042104613747015E-4</v>
       </c>
       <c r="M117" t="s">
         <v>14</v>
@@ -9817,7 +9817,7 @@
         <v>285</v>
       </c>
       <c r="J118">
-        <v>1.3530756703565217E-4</v>
+        <v>1.5212190432110147E-4</v>
       </c>
       <c r="M118" t="s">
         <v>14</v>
@@ -9849,7 +9849,7 @@
         <v>286</v>
       </c>
       <c r="J119">
-        <v>1.3481570738431504E-4</v>
+        <v>1.4618955127444026E-4</v>
       </c>
       <c r="M119" t="s">
         <v>14</v>
@@ -9881,7 +9881,7 @@
         <v>287</v>
       </c>
       <c r="J120">
-        <v>1.3180072036123342E-4</v>
+        <v>1.327854371120475E-4</v>
       </c>
       <c r="M120" t="s">
         <v>14</v>
@@ -9913,7 +9913,7 @@
         <v>288</v>
       </c>
       <c r="J121">
-        <v>1.2404736020847683E-4</v>
+        <v>1.2571917860963204E-4</v>
       </c>
       <c r="M121" t="s">
         <v>14</v>
@@ -9945,7 +9945,7 @@
         <v>289</v>
       </c>
       <c r="J122">
-        <v>1.165305432468213E-4</v>
+        <v>1.1588198558289005E-4</v>
       </c>
       <c r="M122" t="s">
         <v>14</v>
@@ -9977,7 +9977,7 @@
         <v>290</v>
       </c>
       <c r="J123">
-        <v>9.8192813955749533E-5</v>
+        <v>9.9996045240849772E-5</v>
       </c>
       <c r="M123" t="s">
         <v>14</v>
@@ -9997,7 +9997,7 @@
         <v>169</v>
       </c>
       <c r="J124">
-        <v>0.10720843994635389</v>
+        <v>3.8883072243937528E-2</v>
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.45">
@@ -10008,7 +10008,7 @@
         <v>172</v>
       </c>
       <c r="J125">
-        <v>1.3722722140802175E-2</v>
+        <v>6.6333221179365161E-3</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.45">
@@ -10019,7 +10019,7 @@
         <v>173</v>
       </c>
       <c r="J126">
-        <v>1.3740027563234516E-2</v>
+        <v>6.6748488274308085E-3</v>
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.45">
@@ -10030,7 +10030,7 @@
         <v>174</v>
       </c>
       <c r="J127">
-        <v>9.6036679370113939E-2</v>
+        <v>2.6815295258065447E-2</v>
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.45">
@@ -10041,7 +10041,7 @@
         <v>175</v>
       </c>
       <c r="J128">
-        <v>1.3761816574599585E-2</v>
+        <v>2.0081820540796842E-2</v>
       </c>
     </row>
     <row r="129" spans="8:10" x14ac:dyDescent="0.45">
@@ -10052,7 +10052,7 @@
         <v>176</v>
       </c>
       <c r="J129">
-        <v>1.3770757634471255E-2</v>
+        <v>6.6964282944319631E-3</v>
       </c>
     </row>
     <row r="130" spans="8:10" x14ac:dyDescent="0.45">
@@ -10063,7 +10063,7 @@
         <v>177</v>
       </c>
       <c r="J130">
-        <v>1.3740609964475192E-2</v>
+        <v>6.7176715297890171E-3</v>
       </c>
     </row>
     <row r="131" spans="8:10" x14ac:dyDescent="0.45">
@@ -10074,7 +10074,7 @@
         <v>178</v>
       </c>
       <c r="J131">
-        <v>5.4165865364275985E-2</v>
+        <v>4.6571420813907964E-2</v>
       </c>
     </row>
     <row r="132" spans="8:10" x14ac:dyDescent="0.45">
@@ -10085,7 +10085,7 @@
         <v>179</v>
       </c>
       <c r="J132">
-        <v>1.1248886422709304E-4</v>
+        <v>1.116364783766897E-4</v>
       </c>
     </row>
     <row r="133" spans="8:10" x14ac:dyDescent="0.45">
@@ -10096,7 +10096,7 @@
         <v>180</v>
       </c>
       <c r="J133">
-        <v>1.1201513785710024E-4</v>
+        <v>1.1113963608116495E-4</v>
       </c>
     </row>
     <row r="134" spans="8:10" x14ac:dyDescent="0.45">
@@ -10107,7 +10107,7 @@
         <v>181</v>
       </c>
       <c r="J134">
-        <v>1.119184712594211E-4</v>
+        <v>1.1089646855284164E-4</v>
       </c>
     </row>
     <row r="135" spans="8:10" x14ac:dyDescent="0.45">
@@ -10118,7 +10118,7 @@
         <v>182</v>
       </c>
       <c r="J135">
-        <v>1.1190946505466839E-4</v>
+        <v>1.1090667558489471E-4</v>
       </c>
     </row>
     <row r="136" spans="8:10" x14ac:dyDescent="0.45">
@@ -10129,7 +10129,7 @@
         <v>183</v>
       </c>
       <c r="J136">
-        <v>1.1225140062844645E-4</v>
+        <v>1.1094990536770774E-4</v>
       </c>
     </row>
     <row r="137" spans="8:10" x14ac:dyDescent="0.45">
@@ -10140,7 +10140,7 @@
         <v>184</v>
       </c>
       <c r="J137">
-        <v>1.1350056122764799E-4</v>
+        <v>1.1185863142725666E-4</v>
       </c>
     </row>
     <row r="138" spans="8:10" x14ac:dyDescent="0.45">
@@ -10151,7 +10151,7 @@
         <v>185</v>
       </c>
       <c r="J138">
-        <v>1.1491333454652384E-4</v>
+        <v>1.1232905552217346E-4</v>
       </c>
     </row>
     <row r="139" spans="8:10" x14ac:dyDescent="0.45">
@@ -10162,7 +10162,7 @@
         <v>186</v>
       </c>
       <c r="J139">
-        <v>1.1592743320167953E-4</v>
+        <v>1.1327710867580924E-4</v>
       </c>
     </row>
     <row r="140" spans="8:10" x14ac:dyDescent="0.45">
@@ -10173,7 +10173,7 @@
         <v>187</v>
       </c>
       <c r="J140">
-        <v>1.1639335419421998E-4</v>
+        <v>1.1368388892380685E-4</v>
       </c>
     </row>
     <row r="141" spans="8:10" x14ac:dyDescent="0.45">
@@ -10184,7 +10184,7 @@
         <v>188</v>
       </c>
       <c r="J141">
-        <v>1.165065321672791E-4</v>
+        <v>1.1384359895475499E-4</v>
       </c>
     </row>
     <row r="142" spans="8:10" x14ac:dyDescent="0.45">
@@ -10195,7 +10195,7 @@
         <v>189</v>
       </c>
       <c r="J142">
-        <v>1.1643088004735627E-4</v>
+        <v>1.1392975831355598E-4</v>
       </c>
     </row>
     <row r="143" spans="8:10" x14ac:dyDescent="0.45">
@@ -10206,7 +10206,7 @@
         <v>190</v>
       </c>
       <c r="J143">
-        <v>1.1643088004735627E-4</v>
+        <v>1.1384089709332918E-4</v>
       </c>
     </row>
     <row r="144" spans="8:10" x14ac:dyDescent="0.45">
@@ -10217,7 +10217,7 @@
         <v>191</v>
       </c>
       <c r="J144">
-        <v>1.1642217404942866E-4</v>
+        <v>1.1374933401167658E-4</v>
       </c>
     </row>
     <row r="145" spans="8:10" x14ac:dyDescent="0.45">
@@ -10228,7 +10228,7 @@
         <v>192</v>
       </c>
       <c r="J145">
-        <v>1.1638855088501852E-4</v>
+        <v>1.1368418913063195E-4</v>
       </c>
     </row>
     <row r="146" spans="8:10" x14ac:dyDescent="0.45">
@@ -10239,7 +10239,7 @@
         <v>193</v>
       </c>
       <c r="J146">
-        <v>1.1637594219836472E-4</v>
+        <v>1.1368418913063195E-4</v>
       </c>
     </row>
     <row r="147" spans="8:10" x14ac:dyDescent="0.45">
@@ -10250,7 +10250,7 @@
         <v>194</v>
       </c>
       <c r="J147">
-        <v>1.1637594219836472E-4</v>
+        <v>1.1374182884104931E-4</v>
       </c>
     </row>
     <row r="148" spans="8:10" x14ac:dyDescent="0.45">
@@ -10261,7 +10261,7 @@
         <v>195</v>
       </c>
       <c r="J148">
-        <v>1.1666864385282795E-4</v>
+        <v>1.1410297765163318E-4</v>
       </c>
     </row>
     <row r="149" spans="8:10" x14ac:dyDescent="0.45">
@@ -10272,7 +10272,7 @@
         <v>196</v>
       </c>
       <c r="J149">
-        <v>1.167016666035879E-4</v>
+        <v>1.1430411622444381E-4</v>
       </c>
     </row>
     <row r="150" spans="8:10" x14ac:dyDescent="0.45">
@@ -10283,7 +10283,7 @@
         <v>197</v>
       </c>
       <c r="J150">
-        <v>1.167016666035879E-4</v>
+        <v>1.1431942677252342E-4</v>
       </c>
     </row>
     <row r="151" spans="8:10" x14ac:dyDescent="0.45">
@@ -10294,7 +10294,7 @@
         <v>198</v>
       </c>
       <c r="J151">
-        <v>1.1628047642798593E-4</v>
+        <v>1.1424947858227733E-4</v>
       </c>
     </row>
     <row r="152" spans="8:10" x14ac:dyDescent="0.45">
@@ -10305,7 +10305,7 @@
         <v>199</v>
       </c>
       <c r="J152">
-        <v>1.1532731975832365E-4</v>
+        <v>1.1401861953378276E-4</v>
       </c>
     </row>
     <row r="153" spans="8:10" x14ac:dyDescent="0.45">
@@ -10316,7 +10316,7 @@
         <v>200</v>
       </c>
       <c r="J153">
-        <v>1.147506224473248E-4</v>
+        <v>1.137994685514667E-4</v>
       </c>
     </row>
     <row r="154" spans="8:10" x14ac:dyDescent="0.45">
@@ -10327,7 +10327,7 @@
         <v>201</v>
       </c>
       <c r="J154">
-        <v>1.1398509504334406E-4</v>
+        <v>1.1336446886191057E-4</v>
       </c>
     </row>
     <row r="155" spans="8:10" x14ac:dyDescent="0.45">
@@ -10338,7 +10338,7 @@
         <v>202</v>
       </c>
       <c r="J155">
-        <v>1.1297790114516545E-4</v>
+        <v>1.1204806193388877E-4</v>
       </c>
     </row>
     <row r="156" spans="8:10" x14ac:dyDescent="0.45">
@@ -10349,7 +10349,7 @@
         <v>203</v>
       </c>
       <c r="J156">
-        <v>2.7983468776096226E-2</v>
+        <v>2.0848550103668536E-2</v>
       </c>
     </row>
     <row r="157" spans="8:10" x14ac:dyDescent="0.45">
@@ -10360,7 +10360,7 @@
         <v>204</v>
       </c>
       <c r="J157">
-        <v>3.5645997010911043E-3</v>
+        <v>3.5322065290743893E-3</v>
       </c>
     </row>
     <row r="158" spans="8:10" x14ac:dyDescent="0.45">
@@ -10371,7 +10371,7 @@
         <v>205</v>
       </c>
       <c r="J158">
-        <v>3.5662730539341592E-3</v>
+        <v>3.5588937149976336E-3</v>
       </c>
     </row>
     <row r="159" spans="8:10" x14ac:dyDescent="0.45">
@@ -10382,7 +10382,7 @@
         <v>206</v>
       </c>
       <c r="J159">
-        <v>2.4952218621908665E-2</v>
+        <v>1.4298420757168629E-2</v>
       </c>
     </row>
     <row r="160" spans="8:10" x14ac:dyDescent="0.45">
@@ -10393,7 +10393,7 @@
         <v>207</v>
       </c>
       <c r="J160">
-        <v>3.5648407671716523E-3</v>
+        <v>1.070698372171071E-2</v>
       </c>
     </row>
     <row r="161" spans="8:10" x14ac:dyDescent="0.45">
@@ -10404,7 +10404,7 @@
         <v>208</v>
       </c>
       <c r="J161">
-        <v>3.566910092817001E-3</v>
+        <v>3.5685174451895595E-3</v>
       </c>
     </row>
     <row r="162" spans="8:10" x14ac:dyDescent="0.45">
@@ -10415,7 +10415,7 @@
         <v>209</v>
       </c>
       <c r="J162">
-        <v>3.5659701452476428E-3</v>
+        <v>3.5746881964792946E-3</v>
       </c>
     </row>
     <row r="163" spans="8:10" x14ac:dyDescent="0.45">
@@ -10426,7 +10426,7 @@
         <v>210</v>
       </c>
       <c r="J163">
-        <v>1.4115188440730076E-2</v>
+        <v>2.4871321003141395E-2</v>
       </c>
     </row>
     <row r="164" spans="8:10" x14ac:dyDescent="0.45">
@@ -10437,7 +10437,7 @@
         <v>211</v>
       </c>
       <c r="J164">
-        <v>8.2948743360627811E-2</v>
+        <v>6.1381323935204707E-2</v>
       </c>
     </row>
     <row r="165" spans="8:10" x14ac:dyDescent="0.45">
@@ -10448,7 +10448,7 @@
         <v>212</v>
       </c>
       <c r="J165">
-        <v>1.0572652993133327E-2</v>
+        <v>1.0353448402637768E-2</v>
       </c>
     </row>
     <row r="166" spans="8:10" x14ac:dyDescent="0.45">
@@ -10459,7 +10459,7 @@
         <v>213</v>
       </c>
       <c r="J166">
-        <v>1.0587739286714601E-2</v>
+        <v>1.0419171782234352E-2</v>
       </c>
     </row>
     <row r="167" spans="8:10" x14ac:dyDescent="0.45">
@@ -10470,7 +10470,7 @@
         <v>214</v>
       </c>
       <c r="J167">
-        <v>7.4189046589179769E-2</v>
+        <v>4.1872296192236702E-2</v>
       </c>
     </row>
     <row r="168" spans="8:10" x14ac:dyDescent="0.45">
@@ -10481,7 +10481,7 @@
         <v>215</v>
       </c>
       <c r="J168">
-        <v>1.0587379638938143E-2</v>
+        <v>3.1389805086661081E-2</v>
       </c>
     </row>
     <row r="169" spans="8:10" x14ac:dyDescent="0.45">
@@ -10492,7 +10492,7 @@
         <v>216</v>
       </c>
       <c r="J169">
-        <v>1.0583837198402075E-2</v>
+        <v>1.04615438741481E-2</v>
       </c>
     </row>
     <row r="170" spans="8:10" x14ac:dyDescent="0.45">
@@ -10503,7 +10503,7 @@
         <v>217</v>
       </c>
       <c r="J170">
-        <v>1.0575648156627255E-2</v>
+        <v>1.0465287453256979E-2</v>
       </c>
     </row>
     <row r="171" spans="8:10" x14ac:dyDescent="0.45">
@@ -10514,7 +10514,7 @@
         <v>218</v>
       </c>
       <c r="J171">
-        <v>4.196000590412733E-2</v>
+        <v>7.2840413660586648E-2</v>
       </c>
     </row>
     <row r="172" spans="8:10" x14ac:dyDescent="0.45">
@@ -10525,7 +10525,7 @@
         <v>219</v>
       </c>
       <c r="J172">
-        <v>2.6166023506772287E-2</v>
+        <v>4.1751828962274959E-2</v>
       </c>
     </row>
     <row r="173" spans="8:10" x14ac:dyDescent="0.45">
@@ -10536,7 +10536,7 @@
         <v>220</v>
       </c>
       <c r="J173">
-        <v>3.3317719268905412E-3</v>
+        <v>7.0322946053977039E-3</v>
       </c>
     </row>
     <row r="174" spans="8:10" x14ac:dyDescent="0.45">
@@ -10547,7 +10547,7 @@
         <v>221</v>
       </c>
       <c r="J174">
-        <v>3.334516117478693E-3</v>
+        <v>7.0836215666970756E-3</v>
       </c>
     </row>
     <row r="175" spans="8:10" x14ac:dyDescent="0.45">
@@ -10558,7 +10558,7 @@
         <v>222</v>
       </c>
       <c r="J175">
-        <v>2.3351624719967622E-2</v>
+        <v>2.8566657819522185E-2</v>
       </c>
     </row>
     <row r="176" spans="8:10" x14ac:dyDescent="0.45">
@@ -10569,7 +10569,7 @@
         <v>223</v>
       </c>
       <c r="J176">
-        <v>3.3343314902812625E-3</v>
+        <v>2.1450880199169194E-2</v>
       </c>
     </row>
     <row r="177" spans="8:10" x14ac:dyDescent="0.45">
@@ -10580,7 +10580,7 @@
         <v>224</v>
       </c>
       <c r="J177">
-        <v>3.3346785293710672E-3</v>
+        <v>7.1449925477434992E-3</v>
       </c>
     </row>
     <row r="178" spans="8:10" x14ac:dyDescent="0.45">
@@ -10591,7 +10591,7 @@
         <v>225</v>
       </c>
       <c r="J178">
-        <v>3.3328196487101068E-3</v>
+        <v>7.1444026413321968E-3</v>
       </c>
     </row>
     <row r="179" spans="8:10" x14ac:dyDescent="0.45">
@@ -10602,7 +10602,7 @@
         <v>226</v>
       </c>
       <c r="J179">
-        <v>1.3211773462735705E-2</v>
+        <v>4.9686295511816206E-2</v>
       </c>
     </row>
     <row r="180" spans="8:10" x14ac:dyDescent="0.45">
@@ -10613,7 +10613,7 @@
         <v>227</v>
       </c>
       <c r="J180">
-        <v>1.1262757073541294E-4</v>
+        <v>2.0232799562279597E-2</v>
       </c>
     </row>
     <row r="181" spans="8:10" x14ac:dyDescent="0.45">
@@ -10624,7 +10624,7 @@
         <v>228</v>
       </c>
       <c r="J181">
-        <v>1.1247056256589061E-4</v>
+        <v>3.4085920283564606E-3</v>
       </c>
     </row>
     <row r="182" spans="8:10" x14ac:dyDescent="0.45">
@@ -10635,7 +10635,7 @@
         <v>229</v>
       </c>
       <c r="J182">
-        <v>1.1242853361037795E-4</v>
+        <v>3.4305338449954997E-3</v>
       </c>
     </row>
     <row r="183" spans="8:10" x14ac:dyDescent="0.45">
@@ -10646,7 +10646,7 @@
         <v>230</v>
       </c>
       <c r="J183">
-        <v>1.1244444457210773E-4</v>
+        <v>1.38017670415782E-2</v>
       </c>
     </row>
     <row r="184" spans="8:10" x14ac:dyDescent="0.45">
@@ -10657,7 +10657,7 @@
         <v>231</v>
       </c>
       <c r="J184">
-        <v>1.1282150434442139E-4</v>
+        <v>1.0355812172391453E-2</v>
       </c>
     </row>
     <row r="185" spans="8:10" x14ac:dyDescent="0.45">
@@ -10668,7 +10668,7 @@
         <v>232</v>
       </c>
       <c r="J185">
-        <v>1.1355190754986657E-4</v>
+        <v>3.4505024021732186E-3</v>
       </c>
     </row>
     <row r="186" spans="8:10" x14ac:dyDescent="0.45">
@@ -10679,7 +10679,7 @@
         <v>233</v>
       </c>
       <c r="J186">
-        <v>1.1439308707377014E-4</v>
+        <v>3.4515186022761497E-3</v>
       </c>
     </row>
     <row r="187" spans="8:10" x14ac:dyDescent="0.45">
@@ -10690,7 +10690,7 @@
         <v>234</v>
       </c>
       <c r="J187">
-        <v>1.1516431840742759E-4</v>
+        <v>2.401763119790357E-2</v>
       </c>
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.45">
@@ -10701,7 +10701,7 @@
         <v>235</v>
       </c>
       <c r="J188">
-        <v>1.1554708210941796E-4</v>
+        <v>6.0562401944826205E-2</v>
       </c>
     </row>
     <row r="189" spans="8:10" x14ac:dyDescent="0.45">
@@ -10712,7 +10712,7 @@
         <v>236</v>
       </c>
       <c r="J189">
-        <v>1.1560622285396081E-4</v>
+        <v>1.0245392391542601E-2</v>
       </c>
     </row>
     <row r="190" spans="8:10" x14ac:dyDescent="0.45">
@@ -10723,7 +10723,7 @@
         <v>237</v>
       </c>
       <c r="J190">
-        <v>1.1584158500483174E-4</v>
+        <v>1.0309160524087374E-2</v>
       </c>
     </row>
     <row r="191" spans="8:10" x14ac:dyDescent="0.45">
@@ -10734,7 +10734,7 @@
         <v>238</v>
       </c>
       <c r="J191">
-        <v>1.1582267197485105E-4</v>
+        <v>4.1459025705758129E-2</v>
       </c>
     </row>
     <row r="192" spans="8:10" x14ac:dyDescent="0.45">
@@ -10745,7 +10745,7 @@
         <v>239</v>
       </c>
       <c r="J192">
-        <v>1.1586139865528772E-4</v>
+        <v>3.105981574283026E-2</v>
       </c>
     </row>
     <row r="193" spans="8:10" x14ac:dyDescent="0.45">
@@ -10756,7 +10756,7 @@
         <v>240</v>
       </c>
       <c r="J193">
-        <v>1.1586860361908987E-4</v>
+        <v>1.0355204145471978E-2</v>
       </c>
     </row>
     <row r="194" spans="8:10" x14ac:dyDescent="0.45">
@@ -10767,7 +10767,7 @@
         <v>241</v>
       </c>
       <c r="J194">
-        <v>1.1579235108551692E-4</v>
+        <v>1.0373306617024933E-2</v>
       </c>
     </row>
     <row r="195" spans="8:10" x14ac:dyDescent="0.45">
@@ -10778,7 +10778,7 @@
         <v>242</v>
       </c>
       <c r="J195">
-        <v>1.1564915242994874E-4</v>
+        <v>7.2193234724440641E-2</v>
       </c>
     </row>
     <row r="196" spans="8:10" x14ac:dyDescent="0.45">
@@ -10789,7 +10789,7 @@
         <v>243</v>
       </c>
       <c r="J196">
-        <v>1.1569838634926356E-4</v>
+        <v>1.1193214689081537E-4</v>
       </c>
     </row>
     <row r="197" spans="8:10" x14ac:dyDescent="0.45">
@@ -10800,7 +10800,7 @@
         <v>244</v>
       </c>
       <c r="J197">
-        <v>1.1566236153025271E-4</v>
+        <v>1.1154818236152463E-4</v>
       </c>
     </row>
     <row r="198" spans="8:10" x14ac:dyDescent="0.45">
@@ -10811,7 +10811,7 @@
         <v>245</v>
       </c>
       <c r="J198">
-        <v>1.1563654374329494E-4</v>
+        <v>1.1145151576384549E-4</v>
       </c>
     </row>
     <row r="199" spans="8:10" x14ac:dyDescent="0.45">
@@ -10822,7 +10822,7 @@
         <v>246</v>
       </c>
       <c r="J199">
-        <v>1.1552126432246019E-4</v>
+        <v>1.1145151576384549E-4</v>
       </c>
     </row>
     <row r="200" spans="8:10" x14ac:dyDescent="0.45">
@@ -10833,7 +10833,7 @@
         <v>247</v>
       </c>
       <c r="J200">
-        <v>1.1541649214050361E-4</v>
+        <v>1.1189312000355361E-4</v>
       </c>
     </row>
     <row r="201" spans="8:10" x14ac:dyDescent="0.45">
@@ -10844,7 +10844,7 @@
         <v>248</v>
       </c>
       <c r="J201">
-        <v>1.1503252761121288E-4</v>
+        <v>1.1367274606269005E-4</v>
       </c>
     </row>
     <row r="202" spans="8:10" x14ac:dyDescent="0.45">
@@ -10855,7 +10855,7 @@
         <v>249</v>
       </c>
       <c r="J202">
-        <v>1.1368399855290638E-4</v>
+        <v>1.1517347998131742E-4</v>
       </c>
     </row>
     <row r="203" spans="8:10" x14ac:dyDescent="0.45">
@@ -10866,7 +10866,7 @@
         <v>250</v>
       </c>
       <c r="J203">
-        <v>1.1307487890479777E-4</v>
+        <v>1.1567362455191817E-4</v>
       </c>
     </row>
     <row r="204" spans="8:10" x14ac:dyDescent="0.45">
@@ -10877,7 +10877,7 @@
         <v>251</v>
       </c>
       <c r="J204">
-        <v>2.7973110049534431E-2</v>
+        <v>1.1614915216286151E-4</v>
       </c>
     </row>
     <row r="205" spans="8:10" x14ac:dyDescent="0.45">
@@ -10888,7 +10888,7 @@
         <v>252</v>
       </c>
       <c r="J205">
-        <v>3.5632500349994482E-3</v>
+        <v>1.1623381048753703E-4</v>
       </c>
     </row>
     <row r="206" spans="8:10" x14ac:dyDescent="0.45">
@@ -10899,7 +10899,7 @@
         <v>253</v>
       </c>
       <c r="J206">
-        <v>3.5666585832915261E-3</v>
+        <v>1.1606239239041035E-4</v>
       </c>
     </row>
     <row r="207" spans="8:10" x14ac:dyDescent="0.45">
@@ -10910,7 +10910,7 @@
         <v>254</v>
       </c>
       <c r="J207">
-        <v>2.4953216355539272E-2</v>
+        <v>1.1589457677518478E-4</v>
       </c>
     </row>
     <row r="208" spans="8:10" x14ac:dyDescent="0.45">
@@ -10921,7 +10921,7 @@
         <v>255</v>
       </c>
       <c r="J208">
-        <v>3.5653631908412605E-3</v>
+        <v>1.1585434906062264E-4</v>
       </c>
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.45">
@@ -10932,7 +10932,7 @@
         <v>256</v>
       </c>
       <c r="J209">
-        <v>3.5672974234153185E-3</v>
+        <v>1.1573816901931263E-4</v>
       </c>
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.45">
@@ -10943,7 +10943,7 @@
         <v>257</v>
       </c>
       <c r="J210">
-        <v>3.5665505088344936E-3</v>
+        <v>1.1572556033265883E-4</v>
       </c>
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.45">
@@ -10954,7 +10954,7 @@
         <v>258</v>
       </c>
       <c r="J211">
-        <v>1.4126997331370813E-2</v>
+        <v>1.1576188535849476E-4</v>
       </c>
     </row>
     <row r="212" spans="8:10" x14ac:dyDescent="0.45">
@@ -10965,7 +10965,7 @@
         <v>259</v>
       </c>
       <c r="J212">
-        <v>5.404726581876388E-2</v>
+        <v>1.1613834471715824E-4</v>
       </c>
     </row>
     <row r="213" spans="8:10" x14ac:dyDescent="0.45">
@@ -10976,7 +10976,7 @@
         <v>260</v>
       </c>
       <c r="J213">
-        <v>6.9098937644493886E-3</v>
+        <v>1.1642894492384582E-4</v>
       </c>
     </row>
     <row r="214" spans="8:10" x14ac:dyDescent="0.45">
@@ -10987,7 +10987,7 @@
         <v>261</v>
       </c>
       <c r="J214">
-        <v>6.9236138167696739E-3</v>
+        <v>1.1646256808825599E-4</v>
       </c>
     </row>
     <row r="215" spans="8:10" x14ac:dyDescent="0.45">
@@ -10998,7 +10998,7 @@
         <v>262</v>
       </c>
       <c r="J215">
-        <v>4.837536646065678E-2</v>
+        <v>1.1604137791265402E-4</v>
       </c>
     </row>
     <row r="216" spans="8:10" x14ac:dyDescent="0.45">
@@ -11009,7 +11009,7 @@
         <v>263</v>
       </c>
       <c r="J216">
-        <v>6.9403248296883357E-3</v>
+        <v>1.1504409083970341E-4</v>
       </c>
     </row>
     <row r="217" spans="8:10" x14ac:dyDescent="0.45">
@@ -11020,7 +11020,7 @@
         <v>264</v>
       </c>
       <c r="J217">
-        <v>6.9450605923541383E-3</v>
+        <v>1.1445148256697478E-4</v>
       </c>
     </row>
     <row r="218" spans="8:10" x14ac:dyDescent="0.45">
@@ -11031,7 +11031,7 @@
         <v>265</v>
       </c>
       <c r="J218">
-        <v>6.9294228188351743E-3</v>
+        <v>1.1366734233983842E-4</v>
       </c>
     </row>
     <row r="219" spans="8:10" x14ac:dyDescent="0.45">
@@ -11042,7 +11042,7 @@
         <v>266</v>
       </c>
       <c r="J219">
-        <v>2.7356433789886156E-2</v>
+        <v>1.1242988980681541E-4</v>
       </c>
     </row>
     <row r="220" spans="8:10" x14ac:dyDescent="0.45">
@@ -11053,7 +11053,7 @@
         <v>267</v>
       </c>
       <c r="J220">
-        <v>1.1258712987400499E-4</v>
+        <v>1.1189492124450415E-4</v>
       </c>
     </row>
     <row r="221" spans="8:10" x14ac:dyDescent="0.45">
@@ -11064,7 +11064,7 @@
         <v>268</v>
       </c>
       <c r="J221">
-        <v>1.1212481136336564E-4</v>
+        <v>1.1156289249595408E-4</v>
       </c>
     </row>
     <row r="222" spans="8:10" x14ac:dyDescent="0.45">
@@ -11075,7 +11075,7 @@
         <v>269</v>
       </c>
       <c r="J222">
-        <v>1.1196810340066839E-4</v>
+        <v>1.115622920823039E-4</v>
       </c>
     </row>
     <row r="223" spans="8:10" x14ac:dyDescent="0.45">
@@ -11086,7 +11086,7 @@
         <v>270</v>
       </c>
       <c r="J223">
-        <v>1.1196810340066839E-4</v>
+        <v>1.115337724339203E-4</v>
       </c>
     </row>
     <row r="224" spans="8:10" x14ac:dyDescent="0.45">
@@ -11097,7 +11097,7 @@
         <v>271</v>
       </c>
       <c r="J224">
-        <v>1.1213922129096998E-4</v>
+        <v>1.1203151534992033E-4</v>
       </c>
     </row>
     <row r="225" spans="8:10" x14ac:dyDescent="0.45">
@@ -11108,7 +11108,7 @@
         <v>272</v>
       </c>
       <c r="J225">
-        <v>1.1294737806411359E-4</v>
+        <v>1.1400417439758993E-4</v>
       </c>
     </row>
     <row r="226" spans="8:10" x14ac:dyDescent="0.45">
@@ -11119,7 +11119,7 @@
         <v>273</v>
       </c>
       <c r="J226">
-        <v>1.1411848488879157E-4</v>
+        <v>1.1514796240118472E-4</v>
       </c>
     </row>
     <row r="227" spans="8:10" x14ac:dyDescent="0.45">
@@ -11130,7 +11130,7 @@
         <v>274</v>
       </c>
       <c r="J227">
-        <v>1.1494555469191589E-4</v>
+        <v>1.1568593303174688E-4</v>
       </c>
     </row>
     <row r="228" spans="8:10" x14ac:dyDescent="0.45">
@@ -11141,7 +11141,7 @@
         <v>275</v>
       </c>
       <c r="J228">
-        <v>1.1562672397804621E-4</v>
+        <v>1.1617737160442003E-4</v>
       </c>
     </row>
     <row r="229" spans="8:10" x14ac:dyDescent="0.45">
@@ -11152,7 +11152,7 @@
         <v>276</v>
       </c>
       <c r="J229">
-        <v>1.1593263473281343E-4</v>
+        <v>1.1634428659917034E-4</v>
       </c>
     </row>
     <row r="230" spans="8:10" x14ac:dyDescent="0.45">
@@ -11163,7 +11163,7 @@
         <v>277</v>
       </c>
       <c r="J230">
-        <v>1.1585247951051428E-4</v>
+        <v>1.161245352032041E-4</v>
       </c>
     </row>
     <row r="231" spans="8:10" x14ac:dyDescent="0.45">
@@ -11174,7 +11174,7 @@
         <v>278</v>
       </c>
       <c r="J231">
-        <v>1.1585247951051428E-4</v>
+        <v>1.159408086262487E-4</v>
       </c>
     </row>
     <row r="232" spans="8:10" x14ac:dyDescent="0.45">
@@ -11185,7 +11185,7 @@
         <v>279</v>
       </c>
       <c r="J232">
-        <v>1.1580894952087615E-4</v>
+        <v>1.1573816901931263E-4</v>
       </c>
     </row>
     <row r="233" spans="8:10" x14ac:dyDescent="0.45">
@@ -11196,7 +11196,7 @@
         <v>280</v>
       </c>
       <c r="J233">
-        <v>1.1578193090661802E-4</v>
+        <v>1.1560938029134881E-4</v>
       </c>
     </row>
     <row r="234" spans="8:10" x14ac:dyDescent="0.45">
@@ -11207,7 +11207,7 @@
         <v>281</v>
       </c>
       <c r="J234">
-        <v>1.1576902201313912E-4</v>
+        <v>1.155244217598482E-4</v>
       </c>
     </row>
     <row r="235" spans="8:10" x14ac:dyDescent="0.45">
@@ -11218,7 +11218,7 @@
         <v>282</v>
       </c>
       <c r="J235">
-        <v>1.1574950856950822E-4</v>
+        <v>1.1572556033265883E-4</v>
       </c>
     </row>
     <row r="236" spans="8:10" x14ac:dyDescent="0.45">
@@ -11229,7 +11229,7 @@
         <v>283</v>
       </c>
       <c r="J236">
-        <v>1.1582996399863248E-4</v>
+        <v>1.1610772362099901E-4</v>
       </c>
     </row>
     <row r="237" spans="8:10" x14ac:dyDescent="0.45">
@@ -11240,7 +11240,7 @@
         <v>284</v>
       </c>
       <c r="J237">
-        <v>1.1580294538437434E-4</v>
+        <v>1.1642894492384585E-4</v>
       </c>
     </row>
     <row r="238" spans="8:10" x14ac:dyDescent="0.45">
@@ -11251,7 +11251,7 @@
         <v>285</v>
       </c>
       <c r="J238">
-        <v>1.1580294538437434E-4</v>
+        <v>1.1656493861561183E-4</v>
       </c>
     </row>
     <row r="239" spans="8:10" x14ac:dyDescent="0.45">
@@ -11262,7 +11262,7 @@
         <v>286</v>
       </c>
       <c r="J239">
-        <v>1.1576361829028748E-4</v>
+        <v>1.1609061183196887E-4</v>
       </c>
     </row>
     <row r="240" spans="8:10" x14ac:dyDescent="0.45">
@@ -11273,7 +11273,7 @@
         <v>287</v>
       </c>
       <c r="J240">
-        <v>1.1552255220973983E-4</v>
+        <v>1.1501887346639581E-4</v>
       </c>
     </row>
     <row r="241" spans="8:10" x14ac:dyDescent="0.45">
@@ -11284,7 +11284,7 @@
         <v>288</v>
       </c>
       <c r="J241">
-        <v>1.1490262511592795E-4</v>
+        <v>1.144538842215755E-4</v>
       </c>
     </row>
     <row r="242" spans="8:10" x14ac:dyDescent="0.45">
@@ -11295,7 +11295,7 @@
         <v>289</v>
       </c>
       <c r="J242">
-        <v>1.1430161105209678E-4</v>
+        <v>1.1366734233983842E-4</v>
       </c>
     </row>
     <row r="243" spans="8:10" x14ac:dyDescent="0.45">
@@ -11306,7 +11306,7 @@
         <v>290</v>
       </c>
       <c r="J243">
-        <v>1.1283540091835483E-4</v>
+        <v>1.1239716726288055E-4</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695AD63F-B652-4861-9C91-5444ADE260DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0395E-2778-49CD-8016-DDEC03D1EE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH2,S6c1209h09,S6c1209h10,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S1b0202h15,S3aH3,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1aH6,S6d1216h14,S4aH5,S1aH3,S1b0202h09,S6aH5,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S3aH7,S6c1209h07,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2</t>
-  </si>
-  <si>
-    <t>S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S1b0202h19,S3aH1,S6c1209h01,S1b0202h01,S6d1216h21,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S6c1209h20,S6d1216h05,S6aH8,S6c1209h21,S6d1216h22,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S6d1216h01,S6d1216h20,S1b0202h24,S3aH8,S6c1209h04,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23</t>
+    <t>S4aH5,S1aH3,S4aH2,S6c1209h09,S6c1209h10,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1b0202h15,S3aH3,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S3aH7,S6c1209h07,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h09,S6aH5,S1aH6,S6d1216h14,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10</t>
+  </si>
+  <si>
+    <t>S6c1209h21,S6d1216h22,S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S6c1209h20,S6d1216h05,S1b0202h24,S3aH8,S6c1209h04,S1b0202h01,S6d1216h21,S6d1216h01,S6d1216h20,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S6aH8,S1b0202h19,S3aH1,S6c1209h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S1b0202h19,S3aH1,S6c1209h01,S1b0202h01,S6d1216h21,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S6c1209h20,S6d1216h05,S6aH8,S6c1209h21,S6d1216h22,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S6d1216h01,S6d1216h20,S1b0202h24,S3aH8,S6c1209h04,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23</v>
+        <v>S6c1209h21,S6d1216h22,S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S6c1209h20,S6d1216h05,S1b0202h24,S3aH8,S6c1209h04,S1b0202h01,S6d1216h21,S6d1216h01,S6d1216h20,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S6aH8,S1b0202h19,S3aH1,S6c1209h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH2,S6c1209h09,S6c1209h10,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S1b0202h15,S3aH3,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1aH6,S6d1216h14,S4aH5,S1aH3,S1b0202h09,S6aH5,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S3aH7,S6c1209h07,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2</v>
+        <v>S4aH5,S1aH3,S4aH2,S6c1209h09,S6c1209h10,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1b0202h15,S3aH3,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S3aH7,S6c1209h07,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h09,S6aH5,S1aH6,S6d1216h14,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA760F1E-8EE9-48CE-A005-B492E5C588F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A504D0F6-3003-4179-8BFB-44A6C0104A9A}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FAD4BC-5E45-4A88-AA00-5EFB2CE70DD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF7E011-048A-4A59-A2A3-20D4D6E2891B}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.25252198056455344</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.37937297547431742</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.2511684405367885</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>7.5520592318371119E-2</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>9.3706617306802395E-2</v>
+        <v>0.25116844053678855</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N9">
-        <v>0.14770939379916706</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B8999D-F683-422E-B2EE-E14A0788A7B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40C61F3-DBE5-47D1-A374-7123B419D085}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0395E-2778-49CD-8016-DDEC03D1EE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1209FCC0-38B8-4018-A60A-450C5F901303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH5,S1aH3,S4aH2,S6c1209h09,S6c1209h10,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1b0202h15,S3aH3,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S3aH7,S6c1209h07,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h09,S6aH5,S1aH6,S6d1216h14,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10</t>
-  </si>
-  <si>
-    <t>S6c1209h21,S6d1216h22,S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S6c1209h20,S6d1216h05,S1b0202h24,S3aH8,S6c1209h04,S1b0202h01,S6d1216h21,S6d1216h01,S6d1216h20,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S6aH8,S1b0202h19,S3aH1,S6c1209h01</t>
+    <t>S4aH2,S6c1209h09,S6c1209h10,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH3,S3aH7,S6c1209h07,S1b0202h09,S6aH5,S1aH6,S6d1216h14,S1b0202h14,S2aH6,S3aH5,S5aH3,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h15,S3aH3,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S4aH5,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17</t>
+  </si>
+  <si>
+    <t>S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S6aH8,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S1b0202h01,S6d1216h21,S1b0202h24,S3aH8,S6c1209h04,S1b0202h19,S3aH1,S6c1209h01,S6c1209h21,S6d1216h22,S6d1216h01,S6d1216h20,S6c1209h20,S6d1216h05,S4aH1,S6aH1,S6d1216h04,S6d1216h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S6c1209h21,S6d1216h22,S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S6c1209h20,S6d1216h05,S1b0202h24,S3aH8,S6c1209h04,S1b0202h01,S6d1216h21,S6d1216h01,S6d1216h20,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S6aH8,S1b0202h19,S3aH1,S6c1209h01</v>
+        <v>S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S6aH8,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S1b0202h01,S6d1216h21,S1b0202h24,S3aH8,S6c1209h04,S1b0202h19,S3aH1,S6c1209h01,S6c1209h21,S6d1216h22,S6d1216h01,S6d1216h20,S6c1209h20,S6d1216h05,S4aH1,S6aH1,S6d1216h04,S6d1216h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH5,S1aH3,S4aH2,S6c1209h09,S6c1209h10,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1b0202h15,S3aH3,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S3aH7,S6c1209h07,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h09,S6aH5,S1aH6,S6d1216h14,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10</v>
+        <v>S4aH2,S6c1209h09,S6c1209h10,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH3,S3aH7,S6c1209h07,S1b0202h09,S6aH5,S1aH6,S6d1216h14,S1b0202h14,S2aH6,S3aH5,S5aH3,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h15,S3aH3,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S4aH5,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A504D0F6-3003-4179-8BFB-44A6C0104A9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B937C6-2D5E-4092-BB70-E723BA3D11B7}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF7E011-048A-4A59-A2A3-20D4D6E2891B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048C1CAA-E611-4AA0-9021-C3F378A74270}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>7.5520592318371119E-2</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.14770939379916706</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N6">
-        <v>0.37937297547431742</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>0.25252198056455344</v>
+        <v>0.2511684405367885</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>0.25116844053678855</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>9.3706617306802395E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40C61F3-DBE5-47D1-A374-7123B419D085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94232EB1-E0F5-4396-9522-C5BC8A5357B8}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1209FCC0-38B8-4018-A60A-450C5F901303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFE8A05-FE19-49F6-8994-A5C1923C5C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH2,S6c1209h09,S6c1209h10,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH3,S3aH7,S6c1209h07,S1b0202h09,S6aH5,S1aH6,S6d1216h14,S1b0202h14,S2aH6,S3aH5,S5aH3,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h15,S3aH3,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S4aH5,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17</t>
-  </si>
-  <si>
-    <t>S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S6aH8,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S1b0202h01,S6d1216h21,S1b0202h24,S3aH8,S6c1209h04,S1b0202h19,S3aH1,S6c1209h01,S6c1209h21,S6d1216h22,S6d1216h01,S6d1216h20,S6c1209h20,S6d1216h05,S4aH1,S6aH1,S6d1216h04,S6d1216h19</t>
+    <t>S1aH3,S3aH7,S6c1209h07,S4aH5,S1aH6,S6d1216h14,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1b0202h09,S6aH5,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h15,S3aH3,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S4aH2,S6c1209h09,S6c1209h10</t>
+  </si>
+  <si>
+    <t>S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S6c1209h21,S6d1216h22,S6aH8,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S6d1216h01,S6d1216h20,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1b0202h01,S6d1216h21,S1b0202h19,S3aH1,S6c1209h01,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S6c1209h20,S6d1216h05,S1b0202h24,S3aH8,S6c1209h04,S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S6aH8,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S1b0202h01,S6d1216h21,S1b0202h24,S3aH8,S6c1209h04,S1b0202h19,S3aH1,S6c1209h01,S6c1209h21,S6d1216h22,S6d1216h01,S6d1216h20,S6c1209h20,S6d1216h05,S4aH1,S6aH1,S6d1216h04,S6d1216h19</v>
+        <v>S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S6c1209h21,S6d1216h22,S6aH8,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S6d1216h01,S6d1216h20,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1b0202h01,S6d1216h21,S1b0202h19,S3aH1,S6c1209h01,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S6c1209h20,S6d1216h05,S1b0202h24,S3aH8,S6c1209h04,S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH2,S6c1209h09,S6c1209h10,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH3,S3aH7,S6c1209h07,S1b0202h09,S6aH5,S1aH6,S6d1216h14,S1b0202h14,S2aH6,S3aH5,S5aH3,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h15,S3aH3,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S4aH5,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17</v>
+        <v>S1aH3,S3aH7,S6c1209h07,S4aH5,S1aH6,S6d1216h14,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1b0202h09,S6aH5,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h15,S3aH3,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S4aH2,S6c1209h09,S6c1209h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B937C6-2D5E-4092-BB70-E723BA3D11B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F67E50-48B8-49D8-A571-92BC784A43F3}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048C1CAA-E611-4AA0-9021-C3F378A74270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E398F61B-00D9-4E81-A699-940E1A00E4F3}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>0.37937297547431742</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>0.25252198056455344</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.2511684405367885</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>9.3706617306802395E-2</v>
+        <v>0.2511684405367885</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94232EB1-E0F5-4396-9522-C5BC8A5357B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE60C776-FC49-4BDF-A43F-66C0847975BA}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFE8A05-FE19-49F6-8994-A5C1923C5C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5DC05A-A03B-492E-8D44-711E9643A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -918,7 +918,7 @@
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
-    <t>elc_win-ITA</t>
+    <t>elc_won-ITA</t>
   </si>
   <si>
     <t>g_yrfr</t>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S3aH7,S6c1209h07,S4aH5,S1aH6,S6d1216h14,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1b0202h09,S6aH5,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h15,S3aH3,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S4aH2,S6c1209h09,S6c1209h10</t>
-  </si>
-  <si>
-    <t>S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S6c1209h21,S6d1216h22,S6aH8,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S6d1216h01,S6d1216h20,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1b0202h01,S6d1216h21,S1b0202h19,S3aH1,S6c1209h01,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S6c1209h20,S6d1216h05,S1b0202h24,S3aH8,S6c1209h04,S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02</t>
+    <t>S1aH3,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S4aH2,S6c1209h09,S6c1209h10,S1b0202h09,S6aH5,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1aH6,S6d1216h14,S3aH7,S6c1209h07,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h15,S3aH3,S4aH5,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10</t>
+  </si>
+  <si>
+    <t>S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S6c1209h20,S6d1216h05,S6d1216h01,S6d1216h20,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S1b0202h24,S3aH8,S6c1209h04,S6aH8,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1b0202h01,S6d1216h21,S6c1209h21,S6d1216h22,S1b0202h19,S3aH1,S6c1209h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S6c1209h21,S6d1216h22,S6aH8,S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S6d1216h01,S6d1216h20,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1b0202h01,S6d1216h21,S1b0202h19,S3aH1,S6c1209h01,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S6c1209h20,S6d1216h05,S1b0202h24,S3aH8,S6c1209h04,S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02</v>
+        <v>S1aH1,S1b0202h20,S1b0202h23,S6d1216h24,S1b0202h03,S1b0202h22,S2aH1,S5aH8,S6c1209h02,S1b0202h04,S4aH8,S6c1209h06,S6c1209h24,S6c1209h20,S6d1216h05,S6d1216h01,S6d1216h20,S1b0202h05,S1b0202h06,S6c1209h23,S6d1216h02,S6d1216h23,S4aH1,S6aH1,S6d1216h04,S6d1216h19,S1b0202h24,S3aH8,S6c1209h04,S6aH8,S1b0202h02,S1b0202h21,S2aH8,S6c1209h03,S6c1209h05,S1aH8,S5aH1,S6c1209h19,S6c1209h22,S6d1216h03,S6d1216h06,S1b0202h01,S6d1216h21,S6c1209h21,S6d1216h22,S1b0202h19,S3aH1,S6c1209h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S3aH7,S6c1209h07,S4aH5,S1aH6,S6d1216h14,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1b0202h09,S6aH5,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h15,S3aH3,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S4aH2,S6c1209h09,S6c1209h10</v>
+        <v>S1aH3,S6c1209h11,S6d1216h11,S6d1216h12,S6d1216h18,S4aH2,S6c1209h09,S6c1209h10,S1b0202h09,S6aH5,S1aH2,S1aH7,S1b0202h17,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S6c1209h13,S6c1209h16,S1b0202h13,S1b0202h16,S5aH4,S6aH3,S6aH4,S6c1209h14,S6c1209h17,S1b0202h10,S1b0202h18,S2aH7,S3aH4,S4aH3,S4aH4,S6c1209h15,S6d1216h09,S6d1216h13,S6d1216h16,S1aH5,S1b0202h07,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S1aH4,S1b0202h12,S2aH2,S4aH6,S6c1209h12,S6d1216h07,S6d1216h08,S6d1216h17,S1b0202h08,S1b0202h11,S3aH2,S6d1216h15,S1aH6,S6d1216h14,S3aH7,S6c1209h07,S1b0202h14,S2aH6,S3aH5,S5aH3,S1b0202h15,S3aH3,S4aH5,S6aH7,S6c1209h08,S6c1209h18,S6d1216h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F67E50-48B8-49D8-A571-92BC784A43F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF362C3-0432-4226-B226-1B3D28F0A030}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E398F61B-00D9-4E81-A699-940E1A00E4F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADF8874-DC71-4346-9CA6-54FDAF68CE0A}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>292</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N4">
-        <v>0.25252198056455344</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>292</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>7.5520592318371119E-2</v>
+        <v>0.25116844053678855</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>9.3706617306802395E-2</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>292</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.37937297547431742</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.2511684405367885</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>292</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N9">
-        <v>0.14770939379916706</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE60C776-FC49-4BDF-A43F-66C0847975BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE31D849-962F-43D6-949D-D8B15A032A00}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CE0E40-49B3-4F34-83B8-D7B38F5F4807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA63BFCE-1808-415C-A81B-705BF4B17FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -900,10 +900,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0202h10,S1b0202h18,S3aH4,S4aH3,S4aH4,S4d1024h11,S1aH2,S1b0202h17,S2aH3,S2c0304h10,S2c0304h15,S1b0202h09,S4d1024h15,S1aH5,S1b0202h07,S2aH4,S2aH5,S2c0304h17,S4d1024h16,S5aH2,S5aH5,S4d1024h07,S2c0304h12,S2c0304h13,S2c0304h14,S4aH5,S1aH3,S4d1024h12,S4d1024h14,S1b0202h14,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1b0202h08,S1b0202h11,S3aH2,S4d1024h09,S4d1024h08,S4d1024h10,S1b0202h13,S1b0202h16,S2c0304h09,S5aH4,S2c0304h07,S1b0202h15,S2c0304h18,S3aH3,S2c0304h08,S4aH2,S2c0304h16,S1aH4,S1b0202h12,S2aH2,S2c0304h11,S4d1024h17</t>
-  </si>
-  <si>
-    <t>S2c0304h06,S4d1024h19,S4d1024h05,S1b0202h04,S2c0304h01,S4aH8,S1aH6,S1b0202h05,S1b0202h06,S2c0304h24,S4d1024h01,S1b0202h02,S1b0202h21,S2aH8,S4d1024h04,S2c0304h05,S4d1024h23,S1aH7,S2c0304h21,S3aH6,S4aH7,S5aH6,S5aH7,S1aH8,S5aH1,S1b0202h24,S2c0304h20,S3aH8,S2c0304h03,S2c0304h23,S4d1024h03,S1b0202h19,S2aH6,S3aH1,S1b0202h01,S2c0304h19,S4aH6,S4d1024h21,S1b0202h03,S1b0202h22,S2aH1,S2c0304h02,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S4d1024h20,S4d1024h22,S2c0304h04,S2c0304h22,S4aH1,S4d1024h24</t>
+    <t>S2c0304h08,S4aH2,S2c0304h16,S1b0202h08,S1b0202h11,S3aH2,S4d1024h09,S2c0304h12,S2c0304h13,S2c0304h14,S4aH5,S1b0202h13,S1b0202h16,S2c0304h09,S5aH4,S4d1024h07,S1b0202h09,S4d1024h15,S2c0304h07,S1aH5,S1b0202h07,S2aH4,S2aH5,S2c0304h17,S4d1024h16,S5aH2,S5aH5,S1aH2,S1b0202h17,S2aH3,S2c0304h10,S2c0304h15,S1aH3,S4d1024h12,S4d1024h14,S1b0202h15,S2c0304h18,S3aH3,S4d1024h08,S4d1024h10,S1b0202h14,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH4,S1b0202h12,S2aH2,S2c0304h11,S4d1024h17,S1b0202h10,S1b0202h18,S3aH4,S4aH3,S4aH4,S4d1024h11</t>
+  </si>
+  <si>
+    <t>S1b0202h03,S1b0202h22,S2aH1,S2c0304h02,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S4d1024h20,S4d1024h22,S1b0202h24,S2c0304h20,S3aH8,S2c0304h05,S4d1024h23,S4d1024h03,S1b0202h02,S1b0202h21,S2aH8,S4d1024h04,S1b0202h04,S2c0304h01,S4aH8,S1b0202h19,S2aH6,S3aH1,S1aH6,S1b0202h05,S1b0202h06,S2c0304h24,S4d1024h01,S4d1024h05,S1aH7,S2c0304h21,S3aH6,S4aH7,S5aH6,S5aH7,S1b0202h01,S2c0304h19,S4aH6,S4d1024h21,S2c0304h03,S2c0304h23,S1aH8,S5aH1,S2c0304h04,S2c0304h22,S4aH1,S4d1024h24,S2c0304h06,S4d1024h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2c0304h06,S4d1024h19,S4d1024h05,S1b0202h04,S2c0304h01,S4aH8,S1aH6,S1b0202h05,S1b0202h06,S2c0304h24,S4d1024h01,S1b0202h02,S1b0202h21,S2aH8,S4d1024h04,S2c0304h05,S4d1024h23,S1aH7,S2c0304h21,S3aH6,S4aH7,S5aH6,S5aH7,S1aH8,S5aH1,S1b0202h24,S2c0304h20,S3aH8,S2c0304h03,S2c0304h23,S4d1024h03,S1b0202h19,S2aH6,S3aH1,S1b0202h01,S2c0304h19,S4aH6,S4d1024h21,S1b0202h03,S1b0202h22,S2aH1,S2c0304h02,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S4d1024h20,S4d1024h22,S2c0304h04,S2c0304h22,S4aH1,S4d1024h24</v>
+        <v>S1b0202h03,S1b0202h22,S2aH1,S2c0304h02,S3aH7,S4d1024h02,S4d1024h06,S5aH8,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S4d1024h20,S4d1024h22,S1b0202h24,S2c0304h20,S3aH8,S2c0304h05,S4d1024h23,S4d1024h03,S1b0202h02,S1b0202h21,S2aH8,S4d1024h04,S1b0202h04,S2c0304h01,S4aH8,S1b0202h19,S2aH6,S3aH1,S1aH6,S1b0202h05,S1b0202h06,S2c0304h24,S4d1024h01,S4d1024h05,S1aH7,S2c0304h21,S3aH6,S4aH7,S5aH6,S5aH7,S1b0202h01,S2c0304h19,S4aH6,S4d1024h21,S2c0304h03,S2c0304h23,S1aH8,S5aH1,S2c0304h04,S2c0304h22,S4aH1,S4d1024h24,S2c0304h06,S4d1024h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0202h10,S1b0202h18,S3aH4,S4aH3,S4aH4,S4d1024h11,S1aH2,S1b0202h17,S2aH3,S2c0304h10,S2c0304h15,S1b0202h09,S4d1024h15,S1aH5,S1b0202h07,S2aH4,S2aH5,S2c0304h17,S4d1024h16,S5aH2,S5aH5,S4d1024h07,S2c0304h12,S2c0304h13,S2c0304h14,S4aH5,S1aH3,S4d1024h12,S4d1024h14,S1b0202h14,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1b0202h08,S1b0202h11,S3aH2,S4d1024h09,S4d1024h08,S4d1024h10,S1b0202h13,S1b0202h16,S2c0304h09,S5aH4,S2c0304h07,S1b0202h15,S2c0304h18,S3aH3,S2c0304h08,S4aH2,S2c0304h16,S1aH4,S1b0202h12,S2aH2,S2c0304h11,S4d1024h17</v>
+        <v>S2c0304h08,S4aH2,S2c0304h16,S1b0202h08,S1b0202h11,S3aH2,S4d1024h09,S2c0304h12,S2c0304h13,S2c0304h14,S4aH5,S1b0202h13,S1b0202h16,S2c0304h09,S5aH4,S4d1024h07,S1b0202h09,S4d1024h15,S2c0304h07,S1aH5,S1b0202h07,S2aH4,S2aH5,S2c0304h17,S4d1024h16,S5aH2,S5aH5,S1aH2,S1b0202h17,S2aH3,S2c0304h10,S2c0304h15,S1aH3,S4d1024h12,S4d1024h14,S1b0202h15,S2c0304h18,S3aH3,S4d1024h08,S4d1024h10,S1b0202h14,S3aH5,S4d1024h13,S4d1024h18,S5aH3,S1aH4,S1b0202h12,S2aH2,S2c0304h11,S4d1024h17,S1b0202h10,S1b0202h18,S3aH4,S4aH3,S4aH4,S4d1024h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2120,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA158833-C5CC-44F4-BB58-9C0387133DB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA095EBF-99F9-457B-8E57-AC22F1C11E57}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34B1749-6F63-4AF3-A56E-4DEA8E9BA426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C116A0-1F3A-42FB-816F-CA42FF3E6F14}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5850,7 +5850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDD9E92-5A97-4D23-A1D2-A99E9306CBCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD54B94-EAC6-445A-AA1E-56F13D48F75D}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
